--- a/spec/ConvSpec-001-007-v2.4.xlsx
+++ b/spec/ConvSpec-001-007-v2.4.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\share\BF 2.0 Bib specs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kevinford\work\marc2bibframe2\spec\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9D41253-E302-40A4-9AA2-8D9CBDF15A3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8DE50E38-6F5B-4EB5-9C1C-CA33E0F5D854}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1635" yWindow="2085" windowWidth="21600" windowHeight="11325" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -3082,19 +3082,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F1041"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A1096" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B78" sqref="B78"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.5" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.5" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="26.5" style="3" customWidth="1"/>
-    <col min="2" max="2" width="42.625" style="3" customWidth="1"/>
-    <col min="3" max="4" width="38.125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="42.58203125" style="3" customWidth="1"/>
+    <col min="3" max="4" width="38.08203125" style="3" customWidth="1"/>
     <col min="5" max="5" width="21.75" style="3" customWidth="1"/>
     <col min="6" max="6" width="13.5" style="3" customWidth="1"/>
     <col min="7" max="16384" width="10.5" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" s="1" customFormat="1" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>868</v>
       </c>
@@ -3111,10 +3113,10 @@
         <v>569</v>
       </c>
     </row>
-    <row r="2" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="C2" s="4"/>
     </row>
-    <row r="3" spans="1:6" ht="126" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="124" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>10</v>
       </c>
@@ -3125,10 +3127,10 @@
       <c r="E3" s="4"/>
       <c r="F3" s="4"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B4" s="5"/>
     </row>
-    <row r="5" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="31" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>11</v>
       </c>
@@ -3138,7 +3140,7 @@
       <c r="C5" s="6"/>
       <c r="D5" s="6"/>
     </row>
-    <row r="7" spans="1:6" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" ht="77.5" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>12</v>
       </c>
@@ -3146,10 +3148,10 @@
         <v>833</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" s="1"/>
     </row>
-    <row r="9" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" ht="31" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
         <v>571</v>
       </c>
@@ -3157,22 +3159,22 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" s="1"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" s="3" t="s">
         <v>575</v>
       </c>
       <c r="C12" s="6"/>
       <c r="D12" s="4"/>
     </row>
-    <row r="13" spans="1:6" ht="63" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" ht="62" x14ac:dyDescent="0.35">
       <c r="A13" s="3" t="s">
         <v>576</v>
       </c>
@@ -3184,7 +3186,7 @@
       </c>
       <c r="D13" s="6"/>
     </row>
-    <row r="14" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" ht="31" x14ac:dyDescent="0.35">
       <c r="A14" s="3" t="s">
         <v>14</v>
       </c>
@@ -3198,12 +3200,12 @@
         <v>691</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B15" s="10"/>
       <c r="C15" s="5"/>
       <c r="D15" s="5"/>
     </row>
-    <row r="16" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A16" s="3" t="s">
         <v>15</v>
       </c>
@@ -3217,7 +3219,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A17" s="3" t="s">
         <v>16</v>
       </c>
@@ -3231,7 +3233,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A18" s="3" t="s">
         <v>17</v>
       </c>
@@ -3245,7 +3247,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A19" s="3" t="s">
         <v>18</v>
       </c>
@@ -3259,7 +3261,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" ht="62" x14ac:dyDescent="0.35">
       <c r="A20" s="3" t="s">
         <v>19</v>
       </c>
@@ -3273,7 +3275,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A21" s="3" t="s">
         <v>20</v>
       </c>
@@ -3287,7 +3289,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A22" s="3" t="s">
         <v>21</v>
       </c>
@@ -3301,7 +3303,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A23" s="3" t="s">
         <v>22</v>
       </c>
@@ -3313,7 +3315,7 @@
       </c>
       <c r="D23" s="5"/>
     </row>
-    <row r="24" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A24" s="3" t="s">
         <v>23</v>
       </c>
@@ -3327,7 +3329,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A25" s="3" t="s">
         <v>24</v>
       </c>
@@ -3335,7 +3337,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A26" s="3" t="s">
         <v>25</v>
       </c>
@@ -3343,7 +3345,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A27" s="3" t="s">
         <v>27</v>
       </c>
@@ -3351,7 +3353,7 @@
         <v>862</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" ht="31" x14ac:dyDescent="0.35">
       <c r="A28" s="3" t="s">
         <v>28</v>
       </c>
@@ -3361,7 +3363,7 @@
       <c r="C28" s="5"/>
       <c r="D28" s="5"/>
     </row>
-    <row r="29" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" ht="31" x14ac:dyDescent="0.35">
       <c r="A29" s="3" t="s">
         <v>29</v>
       </c>
@@ -3371,7 +3373,7 @@
       <c r="C29" s="5"/>
       <c r="D29" s="7"/>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A30" s="3" t="s">
         <v>25</v>
       </c>
@@ -3379,7 +3381,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A31" s="3" t="s">
         <v>30</v>
       </c>
@@ -3387,7 +3389,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" ht="31" x14ac:dyDescent="0.35">
       <c r="A32" s="3" t="s">
         <v>31</v>
       </c>
@@ -3395,7 +3397,7 @@
         <v>699</v>
       </c>
     </row>
-    <row r="33" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" ht="31" x14ac:dyDescent="0.35">
       <c r="A33" s="3" t="s">
         <v>32</v>
       </c>
@@ -3403,7 +3405,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="34" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" ht="31" x14ac:dyDescent="0.35">
       <c r="A34" s="3" t="s">
         <v>33</v>
       </c>
@@ -3411,7 +3413,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="35" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" ht="31" x14ac:dyDescent="0.35">
       <c r="A35" s="3" t="s">
         <v>34</v>
       </c>
@@ -3419,7 +3421,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="36" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" ht="31" x14ac:dyDescent="0.35">
       <c r="A36" s="3" t="s">
         <v>35</v>
       </c>
@@ -3427,7 +3429,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="37" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" ht="31" x14ac:dyDescent="0.35">
       <c r="A37" s="3" t="s">
         <v>36</v>
       </c>
@@ -3435,7 +3437,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="38" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" ht="31" x14ac:dyDescent="0.35">
       <c r="A38" s="3" t="s">
         <v>37</v>
       </c>
@@ -3443,7 +3445,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="39" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2" ht="31" x14ac:dyDescent="0.35">
       <c r="A39" s="3" t="s">
         <v>38</v>
       </c>
@@ -3451,7 +3453,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="40" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2" ht="31" x14ac:dyDescent="0.35">
       <c r="A40" s="3" t="s">
         <v>39</v>
       </c>
@@ -3459,7 +3461,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="41" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2" ht="31" x14ac:dyDescent="0.35">
       <c r="A41" s="3" t="s">
         <v>40</v>
       </c>
@@ -3467,7 +3469,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="42" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2" ht="31" x14ac:dyDescent="0.35">
       <c r="A42" s="3" t="s">
         <v>41</v>
       </c>
@@ -3475,7 +3477,7 @@
         <v>709</v>
       </c>
     </row>
-    <row r="43" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2" ht="31" x14ac:dyDescent="0.35">
       <c r="A43" s="3" t="s">
         <v>42</v>
       </c>
@@ -3483,7 +3485,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="44" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2" ht="31" x14ac:dyDescent="0.35">
       <c r="A44" s="3" t="s">
         <v>43</v>
       </c>
@@ -3491,7 +3493,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="45" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:2" ht="31" x14ac:dyDescent="0.35">
       <c r="A45" s="3" t="s">
         <v>44</v>
       </c>
@@ -3499,7 +3501,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="46" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:2" ht="31" x14ac:dyDescent="0.35">
       <c r="A46" s="3" t="s">
         <v>45</v>
       </c>
@@ -3507,7 +3509,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="47" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:2" ht="31" x14ac:dyDescent="0.35">
       <c r="A47" s="3" t="s">
         <v>46</v>
       </c>
@@ -3515,7 +3517,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A48" s="3" t="s">
         <v>47</v>
       </c>
@@ -3523,7 +3525,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="49" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" ht="31" x14ac:dyDescent="0.35">
       <c r="A49" s="3" t="s">
         <v>48</v>
       </c>
@@ -3531,7 +3533,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="50" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" ht="31" x14ac:dyDescent="0.35">
       <c r="A50" s="3" t="s">
         <v>49</v>
       </c>
@@ -3539,7 +3541,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A51" s="5" t="s">
         <v>578</v>
       </c>
@@ -3547,7 +3549,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="52" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4" ht="31" x14ac:dyDescent="0.35">
       <c r="A52" s="3" t="s">
         <v>50</v>
       </c>
@@ -3555,7 +3557,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A53" s="3" t="s">
         <v>24</v>
       </c>
@@ -3563,7 +3565,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A54" s="3" t="s">
         <v>25</v>
       </c>
@@ -3571,7 +3573,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A55" s="3" t="s">
         <v>51</v>
       </c>
@@ -3579,7 +3581,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="56" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:4" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A56" s="3" t="s">
         <v>52</v>
       </c>
@@ -3589,7 +3591,7 @@
       <c r="C56" s="5"/>
       <c r="D56" s="5"/>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A57" s="3" t="s">
         <v>53</v>
       </c>
@@ -3599,7 +3601,7 @@
       <c r="C57" s="5"/>
       <c r="D57" s="5"/>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A58" s="3" t="s">
         <v>47</v>
       </c>
@@ -3609,7 +3611,7 @@
       <c r="C58" s="5"/>
       <c r="D58" s="5"/>
     </row>
-    <row r="59" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:4" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A59" s="3" t="s">
         <v>24</v>
       </c>
@@ -3619,7 +3621,7 @@
       <c r="C59" s="2"/>
       <c r="D59" s="6"/>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A60" s="3" t="s">
         <v>25</v>
       </c>
@@ -3628,7 +3630,7 @@
       </c>
       <c r="C60" s="5"/>
     </row>
-    <row r="61" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:4" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A61" s="3" t="s">
         <v>54</v>
       </c>
@@ -3638,7 +3640,7 @@
       <c r="C61" s="5"/>
       <c r="D61" s="5"/>
     </row>
-    <row r="62" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:4" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A62" s="3" t="s">
         <v>55</v>
       </c>
@@ -3648,7 +3650,7 @@
       <c r="C62" s="5"/>
       <c r="D62" s="7"/>
     </row>
-    <row r="63" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:4" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A63" s="3" t="s">
         <v>56</v>
       </c>
@@ -3658,7 +3660,7 @@
       <c r="C63" s="5"/>
       <c r="D63" s="7"/>
     </row>
-    <row r="64" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:4" ht="31" x14ac:dyDescent="0.35">
       <c r="A64" s="3" t="s">
         <v>579</v>
       </c>
@@ -3668,7 +3670,7 @@
       <c r="C64" s="5"/>
       <c r="D64" s="5"/>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A65" s="3" t="s">
         <v>57</v>
       </c>
@@ -3676,7 +3678,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A66" s="3" t="s">
         <v>47</v>
       </c>
@@ -3684,7 +3686,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A67" s="3" t="s">
         <v>24</v>
       </c>
@@ -3692,7 +3694,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A68" s="3" t="s">
         <v>25</v>
       </c>
@@ -3700,7 +3702,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="69" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A69" s="3" t="s">
         <v>58</v>
       </c>
@@ -3708,7 +3710,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="70" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:4" ht="31" x14ac:dyDescent="0.35">
       <c r="A70" s="3" t="s">
         <v>59</v>
       </c>
@@ -3716,7 +3718,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="71" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:4" ht="31" x14ac:dyDescent="0.35">
       <c r="A71" s="3" t="s">
         <v>60</v>
       </c>
@@ -3724,7 +3726,7 @@
         <v>718</v>
       </c>
     </row>
-    <row r="72" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:4" ht="31" x14ac:dyDescent="0.35">
       <c r="A72" s="3" t="s">
         <v>61</v>
       </c>
@@ -3734,7 +3736,7 @@
       <c r="C72" s="5"/>
       <c r="D72" s="7"/>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A73" s="3" t="s">
         <v>53</v>
       </c>
@@ -3742,7 +3744,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A74" s="3" t="s">
         <v>25</v>
       </c>
@@ -3750,18 +3752,18 @@
         <v>3</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A76" s="1" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A77" s="3" t="s">
         <v>63</v>
       </c>
       <c r="C77" s="6"/>
     </row>
-    <row r="78" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:4" ht="62" x14ac:dyDescent="0.35">
       <c r="A78" s="3" t="s">
         <v>64</v>
       </c>
@@ -3773,7 +3775,7 @@
       </c>
       <c r="D78" s="6"/>
     </row>
-    <row r="79" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:4" ht="31" x14ac:dyDescent="0.35">
       <c r="A79" s="3" t="s">
         <v>14</v>
       </c>
@@ -3785,7 +3787,7 @@
       </c>
       <c r="D79" s="7"/>
     </row>
-    <row r="80" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:4" ht="31" x14ac:dyDescent="0.35">
       <c r="A80" s="3" t="s">
         <v>65</v>
       </c>
@@ -3795,7 +3797,7 @@
       </c>
       <c r="D80" s="7"/>
     </row>
-    <row r="81" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:4" ht="31" x14ac:dyDescent="0.35">
       <c r="A81" s="3" t="s">
         <v>66</v>
       </c>
@@ -3805,7 +3807,7 @@
       </c>
       <c r="D81" s="7"/>
     </row>
-    <row r="82" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:4" ht="31" x14ac:dyDescent="0.35">
       <c r="A82" s="3" t="s">
         <v>67</v>
       </c>
@@ -3815,7 +3817,7 @@
       </c>
       <c r="D82" s="7"/>
     </row>
-    <row r="83" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:4" ht="31" x14ac:dyDescent="0.35">
       <c r="A83" s="3" t="s">
         <v>68</v>
       </c>
@@ -3825,7 +3827,7 @@
       </c>
       <c r="D83" s="7"/>
     </row>
-    <row r="84" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:4" ht="31" x14ac:dyDescent="0.35">
       <c r="A84" s="3" t="s">
         <v>69</v>
       </c>
@@ -3835,7 +3837,7 @@
       </c>
       <c r="D84" s="7"/>
     </row>
-    <row r="85" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:4" ht="31" x14ac:dyDescent="0.35">
       <c r="A85" s="3" t="s">
         <v>70</v>
       </c>
@@ -3844,7 +3846,7 @@
       </c>
       <c r="D85" s="7"/>
     </row>
-    <row r="86" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:4" ht="31" x14ac:dyDescent="0.35">
       <c r="A86" s="3" t="s">
         <v>71</v>
       </c>
@@ -3853,7 +3855,7 @@
       </c>
       <c r="D86" s="7"/>
     </row>
-    <row r="87" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:4" ht="31" x14ac:dyDescent="0.35">
       <c r="A87" s="3" t="s">
         <v>72</v>
       </c>
@@ -3862,7 +3864,7 @@
       </c>
       <c r="D87" s="7"/>
     </row>
-    <row r="88" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:4" ht="31" x14ac:dyDescent="0.35">
       <c r="A88" s="3" t="s">
         <v>73</v>
       </c>
@@ -3871,7 +3873,7 @@
       </c>
       <c r="D88" s="7"/>
     </row>
-    <row r="89" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:4" ht="31" x14ac:dyDescent="0.35">
       <c r="A89" s="3" t="s">
         <v>74</v>
       </c>
@@ -3880,7 +3882,7 @@
       </c>
       <c r="D89" s="7"/>
     </row>
-    <row r="90" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:4" ht="31" x14ac:dyDescent="0.35">
       <c r="A90" s="3" t="s">
         <v>75</v>
       </c>
@@ -3889,7 +3891,7 @@
       </c>
       <c r="D90" s="7"/>
     </row>
-    <row r="91" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:4" ht="31" x14ac:dyDescent="0.35">
       <c r="A91" s="3" t="s">
         <v>76</v>
       </c>
@@ -3898,7 +3900,7 @@
       </c>
       <c r="D91" s="7"/>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A92" s="3" t="s">
         <v>22</v>
       </c>
@@ -3907,7 +3909,7 @@
       </c>
       <c r="D92" s="7"/>
     </row>
-    <row r="93" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:4" ht="31" x14ac:dyDescent="0.35">
       <c r="A93" s="3" t="s">
         <v>24</v>
       </c>
@@ -3916,7 +3918,7 @@
       </c>
       <c r="D93" s="7"/>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A94" s="3" t="s">
         <v>25</v>
       </c>
@@ -3925,7 +3927,7 @@
       </c>
       <c r="D94" s="7"/>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A95" s="3" t="s">
         <v>27</v>
       </c>
@@ -3933,7 +3935,7 @@
         <v>862</v>
       </c>
     </row>
-    <row r="96" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:4" ht="31" x14ac:dyDescent="0.35">
       <c r="A96" s="3" t="s">
         <v>28</v>
       </c>
@@ -3943,7 +3945,7 @@
       <c r="C96" s="5"/>
       <c r="D96" s="5"/>
     </row>
-    <row r="97" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:4" ht="31" x14ac:dyDescent="0.35">
       <c r="A97" s="3" t="s">
         <v>77</v>
       </c>
@@ -3953,7 +3955,7 @@
       <c r="C97" s="5"/>
       <c r="D97" s="5"/>
     </row>
-    <row r="98" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:4" ht="31" x14ac:dyDescent="0.35">
       <c r="A98" s="3" t="s">
         <v>29</v>
       </c>
@@ -3963,7 +3965,7 @@
       <c r="C98" s="5"/>
       <c r="D98" s="7"/>
     </row>
-    <row r="99" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:4" ht="31" x14ac:dyDescent="0.35">
       <c r="A99" s="3" t="s">
         <v>78</v>
       </c>
@@ -3973,7 +3975,7 @@
       <c r="C99" s="5"/>
       <c r="D99" s="5"/>
     </row>
-    <row r="100" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:4" ht="31" x14ac:dyDescent="0.35">
       <c r="A100" s="3" t="s">
         <v>79</v>
       </c>
@@ -3983,7 +3985,7 @@
       <c r="C100" s="5"/>
       <c r="D100" s="7"/>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A101" s="3" t="s">
         <v>53</v>
       </c>
@@ -3991,7 +3993,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A102" s="3" t="s">
         <v>47</v>
       </c>
@@ -3999,7 +4001,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A103" s="3" t="s">
         <v>24</v>
       </c>
@@ -4007,7 +4009,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A104" s="3" t="s">
         <v>25</v>
       </c>
@@ -4015,7 +4017,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A105" s="3" t="s">
         <v>80</v>
       </c>
@@ -4027,7 +4029,7 @@
       </c>
       <c r="D105" s="8"/>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A106" s="3" t="s">
         <v>81</v>
       </c>
@@ -4037,7 +4039,7 @@
       </c>
       <c r="D106" s="5"/>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A107" s="3" t="s">
         <v>82</v>
       </c>
@@ -4047,7 +4049,7 @@
       </c>
       <c r="D107" s="5"/>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A108" s="3" t="s">
         <v>83</v>
       </c>
@@ -4057,7 +4059,7 @@
       </c>
       <c r="D108" s="7"/>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A109" s="3" t="s">
         <v>84</v>
       </c>
@@ -4067,7 +4069,7 @@
       </c>
       <c r="D109" s="5"/>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A110" s="3" t="s">
         <v>85</v>
       </c>
@@ -4077,7 +4079,7 @@
       </c>
       <c r="D110" s="5"/>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A111" s="3" t="s">
         <v>53</v>
       </c>
@@ -4087,7 +4089,7 @@
       </c>
       <c r="D111" s="5"/>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A112" s="3" t="s">
         <v>86</v>
       </c>
@@ -4097,7 +4099,7 @@
       </c>
       <c r="D112" s="5"/>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A113" s="3" t="s">
         <v>47</v>
       </c>
@@ -4107,7 +4109,7 @@
       </c>
       <c r="D113" s="5"/>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A114" s="3" t="s">
         <v>87</v>
       </c>
@@ -4117,7 +4119,7 @@
       </c>
       <c r="D114" s="5"/>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A115" s="3" t="s">
         <v>24</v>
       </c>
@@ -4127,7 +4129,7 @@
       </c>
       <c r="D115" s="5"/>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A116" s="3" t="s">
         <v>25</v>
       </c>
@@ -4137,7 +4139,7 @@
       </c>
       <c r="D116" s="5"/>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A117" s="3" t="s">
         <v>88</v>
       </c>
@@ -4145,7 +4147,7 @@
         <v>863</v>
       </c>
     </row>
-    <row r="118" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:4" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A118" s="3" t="s">
         <v>89</v>
       </c>
@@ -4155,7 +4157,7 @@
       <c r="C118" s="5"/>
       <c r="D118" s="5"/>
     </row>
-    <row r="119" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:4" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A119" s="3" t="s">
         <v>90</v>
       </c>
@@ -4165,7 +4167,7 @@
       <c r="C119" s="5"/>
       <c r="D119" s="5"/>
     </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A120" s="3" t="s">
         <v>47</v>
       </c>
@@ -4173,7 +4175,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A121" s="3" t="s">
         <v>25</v>
       </c>
@@ -4181,7 +4183,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A122" s="3" t="s">
         <v>91</v>
       </c>
@@ -4189,34 +4191,34 @@
         <v>560</v>
       </c>
     </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A123" s="3" t="s">
         <v>92</v>
       </c>
       <c r="B123" s="5"/>
     </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A124" s="3" t="s">
         <v>93</v>
       </c>
       <c r="B124" s="8"/>
     </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A125" s="3" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A126" s="3" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A127" s="3" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A128" s="3" t="s">
         <v>97</v>
       </c>
@@ -4224,27 +4226,27 @@
         <v>560</v>
       </c>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A129" s="3" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A130" s="3" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A131" s="3" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A132" s="3" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="133" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:2" ht="31" x14ac:dyDescent="0.35">
       <c r="A133" s="3" t="s">
         <v>100</v>
       </c>
@@ -4252,32 +4254,32 @@
         <v>560</v>
       </c>
     </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A134" s="3" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A135" s="3" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A136" s="3" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A137" s="3" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A138" s="3" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A139" s="3" t="s">
         <v>103</v>
       </c>
@@ -4285,47 +4287,47 @@
         <v>560</v>
       </c>
     </row>
-    <row r="140" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:2" ht="31" x14ac:dyDescent="0.35">
       <c r="A140" s="3" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="141" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:2" ht="31" x14ac:dyDescent="0.35">
       <c r="A141" s="3" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="142" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:2" ht="31" x14ac:dyDescent="0.35">
       <c r="A142" s="3" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="143" spans="1:2" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:2" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A143" s="3" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A144" s="3" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A145" s="3" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A146" s="3" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A147" s="3" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A148" s="3" t="s">
         <v>108</v>
       </c>
@@ -4333,37 +4335,37 @@
         <v>560</v>
       </c>
     </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A149" s="3" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A150" s="3" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A151" s="3" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A152" s="3" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A153" s="3" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A154" s="3" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A155" s="3" t="s">
         <v>112</v>
       </c>
@@ -4371,48 +4373,48 @@
         <v>560</v>
       </c>
     </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A156" s="3" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A157" s="3" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A158" s="3" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A159" s="3" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A160" s="3" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A161" s="3" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A163" s="1" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A164" s="3" t="s">
         <v>63</v>
       </c>
       <c r="C164" s="6"/>
     </row>
-    <row r="165" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:4" ht="62" x14ac:dyDescent="0.35">
       <c r="A165" s="3" t="s">
         <v>117</v>
       </c>
@@ -4424,7 +4426,7 @@
       </c>
       <c r="D165" s="4"/>
     </row>
-    <row r="166" spans="1:4" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:4" ht="77.5" x14ac:dyDescent="0.35">
       <c r="A166" s="3" t="s">
         <v>14</v>
       </c>
@@ -4438,12 +4440,12 @@
         <v>694</v>
       </c>
     </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B167" s="10"/>
       <c r="C167" s="5"/>
       <c r="D167" s="5"/>
     </row>
-    <row r="168" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:4" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A168" s="3" t="s">
         <v>118</v>
       </c>
@@ -4453,7 +4455,7 @@
       <c r="C168" s="7"/>
       <c r="D168" s="7"/>
     </row>
-    <row r="169" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:4" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A169" s="3" t="s">
         <v>119</v>
       </c>
@@ -4463,7 +4465,7 @@
       <c r="C169" s="7"/>
       <c r="D169" s="7"/>
     </row>
-    <row r="170" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:4" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A170" s="3" t="s">
         <v>120</v>
       </c>
@@ -4471,7 +4473,7 @@
         <v>858</v>
       </c>
     </row>
-    <row r="171" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:4" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A171" s="3" t="s">
         <v>121</v>
       </c>
@@ -4481,7 +4483,7 @@
       <c r="C171" s="7"/>
       <c r="D171" s="7"/>
     </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A172" s="3" t="s">
         <v>22</v>
       </c>
@@ -4492,7 +4494,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A173" s="3" t="s">
         <v>24</v>
       </c>
@@ -4503,7 +4505,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A174" s="3" t="s">
         <v>25</v>
       </c>
@@ -4514,7 +4516,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A175" s="3" t="s">
         <v>27</v>
       </c>
@@ -4522,7 +4524,7 @@
         <v>862</v>
       </c>
     </row>
-    <row r="176" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:4" ht="31" x14ac:dyDescent="0.35">
       <c r="A176" s="3" t="s">
         <v>28</v>
       </c>
@@ -4532,7 +4534,7 @@
       <c r="C176" s="5"/>
       <c r="D176" s="5"/>
     </row>
-    <row r="177" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:4" ht="31" x14ac:dyDescent="0.35">
       <c r="A177" s="3" t="s">
         <v>29</v>
       </c>
@@ -4542,7 +4544,7 @@
       <c r="C177" s="5"/>
       <c r="D177" s="7"/>
     </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A178" s="3" t="s">
         <v>25</v>
       </c>
@@ -4550,7 +4552,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A179" s="3" t="s">
         <v>30</v>
       </c>
@@ -4558,7 +4560,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="180" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:4" ht="31" x14ac:dyDescent="0.35">
       <c r="A180" s="3" t="s">
         <v>31</v>
       </c>
@@ -4568,7 +4570,7 @@
       <c r="C180" s="5"/>
       <c r="D180" s="5"/>
     </row>
-    <row r="181" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:4" ht="31" x14ac:dyDescent="0.35">
       <c r="A181" s="3" t="s">
         <v>32</v>
       </c>
@@ -4578,7 +4580,7 @@
       <c r="C181" s="5"/>
       <c r="D181" s="5"/>
     </row>
-    <row r="182" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:4" ht="31" x14ac:dyDescent="0.35">
       <c r="A182" s="3" t="s">
         <v>33</v>
       </c>
@@ -4588,7 +4590,7 @@
       <c r="C182" s="5"/>
       <c r="D182" s="5"/>
     </row>
-    <row r="183" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:4" ht="31" x14ac:dyDescent="0.35">
       <c r="A183" s="3" t="s">
         <v>34</v>
       </c>
@@ -4598,7 +4600,7 @@
       <c r="C183" s="5"/>
       <c r="D183" s="5"/>
     </row>
-    <row r="184" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:4" ht="31" x14ac:dyDescent="0.35">
       <c r="A184" s="3" t="s">
         <v>35</v>
       </c>
@@ -4608,7 +4610,7 @@
       <c r="C184" s="5"/>
       <c r="D184" s="5"/>
     </row>
-    <row r="185" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:4" ht="31" x14ac:dyDescent="0.35">
       <c r="A185" s="3" t="s">
         <v>36</v>
       </c>
@@ -4618,7 +4620,7 @@
       <c r="C185" s="5"/>
       <c r="D185" s="5"/>
     </row>
-    <row r="186" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:4" ht="31" x14ac:dyDescent="0.35">
       <c r="A186" s="3" t="s">
         <v>37</v>
       </c>
@@ -4628,7 +4630,7 @@
       <c r="C186" s="5"/>
       <c r="D186" s="5"/>
     </row>
-    <row r="187" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:4" ht="31" x14ac:dyDescent="0.35">
       <c r="A187" s="3" t="s">
         <v>38</v>
       </c>
@@ -4638,7 +4640,7 @@
       <c r="C187" s="5"/>
       <c r="D187" s="5"/>
     </row>
-    <row r="188" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:4" ht="31" x14ac:dyDescent="0.35">
       <c r="A188" s="3" t="s">
         <v>40</v>
       </c>
@@ -4648,7 +4650,7 @@
       <c r="C188" s="5"/>
       <c r="D188" s="5"/>
     </row>
-    <row r="189" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:4" ht="31" x14ac:dyDescent="0.35">
       <c r="A189" s="3" t="s">
         <v>41</v>
       </c>
@@ -4658,7 +4660,7 @@
       <c r="C189" s="5"/>
       <c r="D189" s="5"/>
     </row>
-    <row r="190" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:4" ht="31" x14ac:dyDescent="0.35">
       <c r="A190" s="3" t="s">
         <v>42</v>
       </c>
@@ -4668,7 +4670,7 @@
       <c r="C190" s="5"/>
       <c r="D190" s="5"/>
     </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A191" s="3" t="s">
         <v>47</v>
       </c>
@@ -4678,7 +4680,7 @@
       <c r="C191" s="5"/>
       <c r="D191" s="5"/>
     </row>
-    <row r="192" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:4" ht="31" x14ac:dyDescent="0.35">
       <c r="A192" s="3" t="s">
         <v>48</v>
       </c>
@@ -4688,7 +4690,7 @@
       <c r="C192" s="5"/>
       <c r="D192" s="5"/>
     </row>
-    <row r="193" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:4" ht="31" x14ac:dyDescent="0.35">
       <c r="A193" s="3" t="s">
         <v>49</v>
       </c>
@@ -4698,7 +4700,7 @@
       <c r="C193" s="5"/>
       <c r="D193" s="5"/>
     </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A194" s="3" t="s">
         <v>24</v>
       </c>
@@ -4706,7 +4708,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A195" s="3" t="s">
         <v>25</v>
       </c>
@@ -4714,7 +4716,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="196" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A196" s="3" t="s">
         <v>51</v>
       </c>
@@ -4722,7 +4724,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="197" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:4" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A197" s="3" t="s">
         <v>52</v>
       </c>
@@ -4732,7 +4734,7 @@
       <c r="C197" s="5"/>
       <c r="D197" s="5"/>
     </row>
-    <row r="198" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A198" s="3" t="s">
         <v>53</v>
       </c>
@@ -4740,7 +4742,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A199" s="3" t="s">
         <v>47</v>
       </c>
@@ -4748,7 +4750,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A200" s="3" t="s">
         <v>24</v>
       </c>
@@ -4756,7 +4758,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="201" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A201" s="3" t="s">
         <v>25</v>
       </c>
@@ -4764,18 +4766,18 @@
         <v>3</v>
       </c>
     </row>
-    <row r="203" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A203" s="1" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="204" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A204" s="3" t="s">
         <v>63</v>
       </c>
       <c r="C204" s="6"/>
     </row>
-    <row r="205" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:4" ht="62" x14ac:dyDescent="0.35">
       <c r="A205" s="3" t="s">
         <v>158</v>
       </c>
@@ -4787,7 +4789,7 @@
       </c>
       <c r="D205" s="2"/>
     </row>
-    <row r="206" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:4" ht="62" x14ac:dyDescent="0.35">
       <c r="A206" s="3" t="s">
         <v>14</v>
       </c>
@@ -4801,7 +4803,7 @@
         <v>695</v>
       </c>
     </row>
-    <row r="207" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:4" ht="31" x14ac:dyDescent="0.35">
       <c r="A207" s="3" t="s">
         <v>159</v>
       </c>
@@ -4811,7 +4813,7 @@
       </c>
       <c r="D207" s="5"/>
     </row>
-    <row r="208" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:4" ht="31" x14ac:dyDescent="0.35">
       <c r="A208" s="3" t="s">
         <v>160</v>
       </c>
@@ -4821,7 +4823,7 @@
       </c>
       <c r="D208" s="5"/>
     </row>
-    <row r="209" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:4" ht="31" x14ac:dyDescent="0.35">
       <c r="A209" s="3" t="s">
         <v>161</v>
       </c>
@@ -4831,7 +4833,7 @@
       </c>
       <c r="D209" s="5"/>
     </row>
-    <row r="210" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:4" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A210" s="3" t="s">
         <v>162</v>
       </c>
@@ -4841,7 +4843,7 @@
       </c>
       <c r="D210" s="5"/>
     </row>
-    <row r="211" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:4" ht="31" x14ac:dyDescent="0.35">
       <c r="A211" s="3" t="s">
         <v>163</v>
       </c>
@@ -4851,7 +4853,7 @@
       </c>
       <c r="D211" s="5"/>
     </row>
-    <row r="212" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:4" ht="31" x14ac:dyDescent="0.35">
       <c r="A212" s="3" t="s">
         <v>164</v>
       </c>
@@ -4861,7 +4863,7 @@
       </c>
       <c r="D212" s="5"/>
     </row>
-    <row r="213" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A213" s="3" t="s">
         <v>22</v>
       </c>
@@ -4871,7 +4873,7 @@
       </c>
       <c r="D213" s="5"/>
     </row>
-    <row r="214" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A214" s="3" t="s">
         <v>24</v>
       </c>
@@ -4881,7 +4883,7 @@
       </c>
       <c r="D214" s="5"/>
     </row>
-    <row r="215" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A215" s="3" t="s">
         <v>25</v>
       </c>
@@ -4891,7 +4893,7 @@
       </c>
       <c r="D215" s="5"/>
     </row>
-    <row r="216" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A216" s="3" t="s">
         <v>27</v>
       </c>
@@ -4899,7 +4901,7 @@
         <v>862</v>
       </c>
     </row>
-    <row r="217" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:4" ht="31" x14ac:dyDescent="0.35">
       <c r="A217" s="3" t="s">
         <v>28</v>
       </c>
@@ -4909,7 +4911,7 @@
       <c r="C217" s="5"/>
       <c r="D217" s="5"/>
     </row>
-    <row r="218" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:4" ht="31" x14ac:dyDescent="0.35">
       <c r="A218" s="3" t="s">
         <v>77</v>
       </c>
@@ -4919,7 +4921,7 @@
       <c r="C218" s="5"/>
       <c r="D218" s="5"/>
     </row>
-    <row r="219" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:4" ht="31" x14ac:dyDescent="0.35">
       <c r="A219" s="3" t="s">
         <v>29</v>
       </c>
@@ -4929,7 +4931,7 @@
       <c r="C219" s="5"/>
       <c r="D219" s="7"/>
     </row>
-    <row r="220" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:4" ht="31" x14ac:dyDescent="0.35">
       <c r="A220" s="3" t="s">
         <v>165</v>
       </c>
@@ -4939,7 +4941,7 @@
       <c r="C220" s="5"/>
       <c r="D220" s="5"/>
     </row>
-    <row r="221" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:4" ht="31" x14ac:dyDescent="0.35">
       <c r="A221" s="3" t="s">
         <v>79</v>
       </c>
@@ -4949,7 +4951,7 @@
       <c r="C221" s="5"/>
       <c r="D221" s="7"/>
     </row>
-    <row r="222" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A222" s="3" t="s">
         <v>53</v>
       </c>
@@ -4957,7 +4959,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="223" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A223" s="3" t="s">
         <v>47</v>
       </c>
@@ -4965,7 +4967,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="224" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A224" s="3" t="s">
         <v>24</v>
       </c>
@@ -4973,7 +4975,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="225" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A225" s="3" t="s">
         <v>25</v>
       </c>
@@ -4981,7 +4983,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="226" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A226" s="3" t="s">
         <v>166</v>
       </c>
@@ -4989,7 +4991,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="227" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:4" ht="31" x14ac:dyDescent="0.35">
       <c r="A227" s="3" t="s">
         <v>167</v>
       </c>
@@ -4997,7 +4999,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="228" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:4" ht="31" x14ac:dyDescent="0.35">
       <c r="A228" s="3" t="s">
         <v>35</v>
       </c>
@@ -5005,7 +5007,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="229" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:4" ht="31" x14ac:dyDescent="0.35">
       <c r="A229" s="3" t="s">
         <v>168</v>
       </c>
@@ -5015,7 +5017,7 @@
       <c r="C229" s="5"/>
       <c r="D229" s="7"/>
     </row>
-    <row r="230" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:4" ht="31" x14ac:dyDescent="0.35">
       <c r="A230" s="3" t="s">
         <v>169</v>
       </c>
@@ -5025,7 +5027,7 @@
       <c r="C230" s="5"/>
       <c r="D230" s="7"/>
     </row>
-    <row r="231" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:4" ht="31" x14ac:dyDescent="0.35">
       <c r="A231" s="3" t="s">
         <v>170</v>
       </c>
@@ -5035,7 +5037,7 @@
       <c r="C231" s="5"/>
       <c r="D231" s="7"/>
     </row>
-    <row r="232" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:4" ht="31" x14ac:dyDescent="0.35">
       <c r="A232" s="3" t="s">
         <v>171</v>
       </c>
@@ -5043,7 +5045,7 @@
         <v>699</v>
       </c>
     </row>
-    <row r="233" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A233" s="3" t="s">
         <v>47</v>
       </c>
@@ -5051,7 +5053,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="234" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A234" s="3" t="s">
         <v>24</v>
       </c>
@@ -5059,7 +5061,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="235" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A235" s="3" t="s">
         <v>25</v>
       </c>
@@ -5067,7 +5069,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="236" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:4" ht="31" x14ac:dyDescent="0.35">
       <c r="A236" s="3" t="s">
         <v>172</v>
       </c>
@@ -5075,7 +5077,7 @@
         <v>863</v>
       </c>
     </row>
-    <row r="237" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:4" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A237" s="3" t="s">
         <v>89</v>
       </c>
@@ -5085,7 +5087,7 @@
       <c r="C237" s="5"/>
       <c r="D237" s="5"/>
     </row>
-    <row r="238" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:4" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A238" s="3" t="s">
         <v>90</v>
       </c>
@@ -5095,7 +5097,7 @@
       <c r="C238" s="5"/>
       <c r="D238" s="5"/>
     </row>
-    <row r="239" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:4" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A239" s="3" t="s">
         <v>173</v>
       </c>
@@ -5105,7 +5107,7 @@
       <c r="C239" s="5"/>
       <c r="D239" s="5"/>
     </row>
-    <row r="240" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A240" s="3" t="s">
         <v>47</v>
       </c>
@@ -5113,7 +5115,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="241" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A241" s="3" t="s">
         <v>25</v>
       </c>
@@ -5121,7 +5123,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="242" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A242" s="3" t="s">
         <v>174</v>
       </c>
@@ -5129,7 +5131,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="243" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A243" s="3" t="s">
         <v>89</v>
       </c>
@@ -5137,7 +5139,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="244" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:4" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A244" s="3" t="s">
         <v>175</v>
       </c>
@@ -5147,7 +5149,7 @@
       <c r="C244" s="2"/>
       <c r="D244" s="6"/>
     </row>
-    <row r="245" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:4" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A245" s="3" t="s">
         <v>176</v>
       </c>
@@ -5157,7 +5159,7 @@
       <c r="C245" s="2"/>
       <c r="D245" s="6"/>
     </row>
-    <row r="246" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:4" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A246" s="3" t="s">
         <v>177</v>
       </c>
@@ -5167,7 +5169,7 @@
       <c r="C246" s="2"/>
       <c r="D246" s="6"/>
     </row>
-    <row r="247" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:4" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A247" s="3" t="s">
         <v>178</v>
       </c>
@@ -5177,7 +5179,7 @@
       <c r="C247" s="2"/>
       <c r="D247" s="6"/>
     </row>
-    <row r="248" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:4" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A248" s="3" t="s">
         <v>179</v>
       </c>
@@ -5187,7 +5189,7 @@
       <c r="C248" s="2"/>
       <c r="D248" s="6"/>
     </row>
-    <row r="249" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:4" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A249" s="3" t="s">
         <v>180</v>
       </c>
@@ -5197,7 +5199,7 @@
       <c r="C249" s="2"/>
       <c r="D249" s="6"/>
     </row>
-    <row r="250" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:4" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A250" s="3" t="s">
         <v>181</v>
       </c>
@@ -5207,7 +5209,7 @@
       <c r="C250" s="2"/>
       <c r="D250" s="6"/>
     </row>
-    <row r="251" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:4" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A251" s="3" t="s">
         <v>182</v>
       </c>
@@ -5217,7 +5219,7 @@
       <c r="C251" s="2"/>
       <c r="D251" s="6"/>
     </row>
-    <row r="252" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:4" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A252" s="3" t="s">
         <v>183</v>
       </c>
@@ -5227,7 +5229,7 @@
       <c r="C252" s="2"/>
       <c r="D252" s="6"/>
     </row>
-    <row r="253" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A253" s="3" t="s">
         <v>47</v>
       </c>
@@ -5235,7 +5237,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="254" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A254" s="3" t="s">
         <v>24</v>
       </c>
@@ -5243,7 +5245,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="255" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A255" s="3" t="s">
         <v>25</v>
       </c>
@@ -5251,7 +5253,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="256" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A256" s="3" t="s">
         <v>184</v>
       </c>
@@ -5263,7 +5265,7 @@
       </c>
       <c r="D256" s="5"/>
     </row>
-    <row r="257" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A257" s="3" t="s">
         <v>185</v>
       </c>
@@ -5273,7 +5275,7 @@
       </c>
       <c r="D257" s="5"/>
     </row>
-    <row r="258" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:4" ht="31" x14ac:dyDescent="0.35">
       <c r="A258" s="3" t="s">
         <v>581</v>
       </c>
@@ -5283,7 +5285,7 @@
       </c>
       <c r="D258" s="5"/>
     </row>
-    <row r="259" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A259" s="3" t="s">
         <v>186</v>
       </c>
@@ -5293,7 +5295,7 @@
       </c>
       <c r="D259" s="5"/>
     </row>
-    <row r="260" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A260" s="3" t="s">
         <v>187</v>
       </c>
@@ -5303,7 +5305,7 @@
       </c>
       <c r="D260" s="5"/>
     </row>
-    <row r="261" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A261" s="3" t="s">
         <v>188</v>
       </c>
@@ -5313,7 +5315,7 @@
       </c>
       <c r="D261" s="5"/>
     </row>
-    <row r="262" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A262" s="3" t="s">
         <v>189</v>
       </c>
@@ -5323,7 +5325,7 @@
       </c>
       <c r="D262" s="5"/>
     </row>
-    <row r="263" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A263" s="3" t="s">
         <v>190</v>
       </c>
@@ -5333,7 +5335,7 @@
       </c>
       <c r="D263" s="5"/>
     </row>
-    <row r="264" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A264" s="3" t="s">
         <v>191</v>
       </c>
@@ -5343,7 +5345,7 @@
       </c>
       <c r="D264" s="5"/>
     </row>
-    <row r="265" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:4" ht="31" x14ac:dyDescent="0.35">
       <c r="A265" s="3" t="s">
         <v>192</v>
       </c>
@@ -5353,7 +5355,7 @@
       </c>
       <c r="D265" s="5"/>
     </row>
-    <row r="266" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A266" s="3" t="s">
         <v>193</v>
       </c>
@@ -5363,7 +5365,7 @@
       </c>
       <c r="D266" s="5"/>
     </row>
-    <row r="267" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A267" s="3" t="s">
         <v>194</v>
       </c>
@@ -5373,7 +5375,7 @@
       </c>
       <c r="D267" s="5"/>
     </row>
-    <row r="268" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A268" s="3" t="s">
         <v>47</v>
       </c>
@@ -5383,7 +5385,7 @@
       </c>
       <c r="D268" s="5"/>
     </row>
-    <row r="269" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A269" s="3" t="s">
         <v>195</v>
       </c>
@@ -5393,7 +5395,7 @@
       </c>
       <c r="D269" s="5"/>
     </row>
-    <row r="270" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A270" s="3" t="s">
         <v>196</v>
       </c>
@@ -5403,7 +5405,7 @@
       </c>
       <c r="D270" s="5"/>
     </row>
-    <row r="271" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A271" s="3" t="s">
         <v>197</v>
       </c>
@@ -5413,7 +5415,7 @@
       </c>
       <c r="D271" s="5"/>
     </row>
-    <row r="272" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A272" s="3" t="s">
         <v>198</v>
       </c>
@@ -5423,7 +5425,7 @@
       </c>
       <c r="D272" s="5"/>
     </row>
-    <row r="273" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A273" s="3" t="s">
         <v>24</v>
       </c>
@@ -5433,7 +5435,7 @@
       </c>
       <c r="D273" s="5"/>
     </row>
-    <row r="274" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A274" s="3" t="s">
         <v>25</v>
       </c>
@@ -5443,7 +5445,7 @@
       </c>
       <c r="D274" s="5"/>
     </row>
-    <row r="275" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:4" ht="31" x14ac:dyDescent="0.35">
       <c r="A275" s="3" t="s">
         <v>199</v>
       </c>
@@ -5451,7 +5453,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="276" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A276" s="3" t="s">
         <v>200</v>
       </c>
@@ -5459,7 +5461,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="277" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:4" ht="31" x14ac:dyDescent="0.35">
       <c r="A277" s="3" t="s">
         <v>201</v>
       </c>
@@ -5467,7 +5469,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="278" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:4" ht="31" x14ac:dyDescent="0.35">
       <c r="A278" s="3" t="s">
         <v>167</v>
       </c>
@@ -5475,7 +5477,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="279" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:4" ht="31" x14ac:dyDescent="0.35">
       <c r="A279" s="3" t="s">
         <v>35</v>
       </c>
@@ -5483,7 +5485,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="280" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:4" ht="31" x14ac:dyDescent="0.35">
       <c r="A280" s="3" t="s">
         <v>202</v>
       </c>
@@ -5491,7 +5493,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="281" spans="1:4" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:4" ht="77.5" x14ac:dyDescent="0.35">
       <c r="A281" s="3" t="s">
         <v>203</v>
       </c>
@@ -5499,7 +5501,7 @@
         <v>733</v>
       </c>
     </row>
-    <row r="282" spans="1:4" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:4" ht="77.5" x14ac:dyDescent="0.35">
       <c r="A282" s="3" t="s">
         <v>204</v>
       </c>
@@ -5507,7 +5509,7 @@
         <v>734</v>
       </c>
     </row>
-    <row r="283" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:4" ht="31" x14ac:dyDescent="0.35">
       <c r="A283" s="3" t="s">
         <v>170</v>
       </c>
@@ -5517,7 +5519,7 @@
       <c r="C283" s="5"/>
       <c r="D283" s="7"/>
     </row>
-    <row r="284" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A284" s="3" t="s">
         <v>47</v>
       </c>
@@ -5525,7 +5527,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="285" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A285" s="3" t="s">
         <v>24</v>
       </c>
@@ -5533,7 +5535,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="286" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A286" s="3" t="s">
         <v>25</v>
       </c>
@@ -5541,19 +5543,19 @@
         <v>3</v>
       </c>
     </row>
-    <row r="288" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A288" s="1" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="289" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A289" s="3" t="s">
         <v>63</v>
       </c>
       <c r="C289" s="6"/>
       <c r="D289" s="9"/>
     </row>
-    <row r="290" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:4" ht="62" x14ac:dyDescent="0.35">
       <c r="A290" s="3" t="s">
         <v>206</v>
       </c>
@@ -5565,7 +5567,7 @@
       </c>
       <c r="D290" s="6"/>
     </row>
-    <row r="291" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:4" ht="31" x14ac:dyDescent="0.35">
       <c r="A291" s="3" t="s">
         <v>14</v>
       </c>
@@ -5577,7 +5579,7 @@
       </c>
       <c r="D291" s="7"/>
     </row>
-    <row r="292" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:4" ht="31" x14ac:dyDescent="0.35">
       <c r="A292" s="3" t="s">
         <v>207</v>
       </c>
@@ -5587,7 +5589,7 @@
       </c>
       <c r="D292" s="7"/>
     </row>
-    <row r="293" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:4" ht="31" x14ac:dyDescent="0.35">
       <c r="A293" s="3" t="s">
         <v>208</v>
       </c>
@@ -5597,7 +5599,7 @@
       </c>
       <c r="D293" s="7"/>
     </row>
-    <row r="294" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:4" ht="31" x14ac:dyDescent="0.35">
       <c r="A294" s="3" t="s">
         <v>209</v>
       </c>
@@ -5607,7 +5609,7 @@
       </c>
       <c r="D294" s="7"/>
     </row>
-    <row r="295" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:4" ht="31" x14ac:dyDescent="0.35">
       <c r="A295" s="3" t="s">
         <v>210</v>
       </c>
@@ -5617,7 +5619,7 @@
       </c>
       <c r="D295" s="7"/>
     </row>
-    <row r="296" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:4" ht="31" x14ac:dyDescent="0.35">
       <c r="A296" s="3" t="s">
         <v>211</v>
       </c>
@@ -5627,7 +5629,7 @@
       </c>
       <c r="D296" s="7"/>
     </row>
-    <row r="297" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:4" ht="31" x14ac:dyDescent="0.35">
       <c r="A297" s="3" t="s">
         <v>212</v>
       </c>
@@ -5637,7 +5639,7 @@
       </c>
       <c r="D297" s="7"/>
     </row>
-    <row r="298" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:4" ht="31" x14ac:dyDescent="0.35">
       <c r="A298" s="3" t="s">
         <v>213</v>
       </c>
@@ -5647,7 +5649,7 @@
       </c>
       <c r="D298" s="7"/>
     </row>
-    <row r="299" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:4" ht="31" x14ac:dyDescent="0.35">
       <c r="A299" s="3" t="s">
         <v>214</v>
       </c>
@@ -5657,7 +5659,7 @@
       </c>
       <c r="D299" s="7"/>
     </row>
-    <row r="300" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:4" ht="31" x14ac:dyDescent="0.35">
       <c r="A300" s="3" t="s">
         <v>215</v>
       </c>
@@ -5667,7 +5669,7 @@
       </c>
       <c r="D300" s="7"/>
     </row>
-    <row r="301" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A301" s="3" t="s">
         <v>22</v>
       </c>
@@ -5677,7 +5679,7 @@
       </c>
       <c r="D301" s="7"/>
     </row>
-    <row r="302" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A302" s="3" t="s">
         <v>24</v>
       </c>
@@ -5687,7 +5689,7 @@
       </c>
       <c r="D302" s="7"/>
     </row>
-    <row r="303" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A303" s="3" t="s">
         <v>25</v>
       </c>
@@ -5697,7 +5699,7 @@
       </c>
       <c r="D303" s="7"/>
     </row>
-    <row r="304" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A304" s="3" t="s">
         <v>216</v>
       </c>
@@ -5705,7 +5707,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="305" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:4" ht="31" x14ac:dyDescent="0.35">
       <c r="A305" s="3" t="s">
         <v>59</v>
       </c>
@@ -5713,7 +5715,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="306" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:4" ht="31" x14ac:dyDescent="0.35">
       <c r="A306" s="3" t="s">
         <v>60</v>
       </c>
@@ -5721,7 +5723,7 @@
         <v>718</v>
       </c>
     </row>
-    <row r="307" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:4" ht="31" x14ac:dyDescent="0.35">
       <c r="A307" s="3" t="s">
         <v>61</v>
       </c>
@@ -5731,7 +5733,7 @@
       <c r="C307" s="5"/>
       <c r="D307" s="7"/>
     </row>
-    <row r="308" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A308" s="3" t="s">
         <v>47</v>
       </c>
@@ -5739,7 +5741,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="309" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A309" s="3" t="s">
         <v>25</v>
       </c>
@@ -5747,7 +5749,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="310" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A310" s="3" t="s">
         <v>80</v>
       </c>
@@ -5759,7 +5761,7 @@
       </c>
       <c r="D310" s="5"/>
     </row>
-    <row r="311" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A311" s="3" t="s">
         <v>217</v>
       </c>
@@ -5769,7 +5771,7 @@
       </c>
       <c r="D311" s="5"/>
     </row>
-    <row r="312" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A312" s="3" t="s">
         <v>187</v>
       </c>
@@ -5779,7 +5781,7 @@
       </c>
       <c r="D312" s="5"/>
     </row>
-    <row r="313" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A313" s="3" t="s">
         <v>189</v>
       </c>
@@ -5789,7 +5791,7 @@
       </c>
       <c r="D313" s="5"/>
     </row>
-    <row r="314" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A314" s="3" t="s">
         <v>190</v>
       </c>
@@ -5799,7 +5801,7 @@
       </c>
       <c r="D314" s="5"/>
     </row>
-    <row r="315" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A315" s="3" t="s">
         <v>218</v>
       </c>
@@ -5809,7 +5811,7 @@
       </c>
       <c r="D315" s="5"/>
     </row>
-    <row r="316" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A316" s="3" t="s">
         <v>219</v>
       </c>
@@ -5819,7 +5821,7 @@
       </c>
       <c r="D316" s="5"/>
     </row>
-    <row r="317" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A317" s="3" t="s">
         <v>220</v>
       </c>
@@ -5829,7 +5831,7 @@
       </c>
       <c r="D317" s="5"/>
     </row>
-    <row r="318" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A318" s="3" t="s">
         <v>221</v>
       </c>
@@ -5839,7 +5841,7 @@
       </c>
       <c r="D318" s="5"/>
     </row>
-    <row r="319" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:4" ht="31" x14ac:dyDescent="0.35">
       <c r="A319" s="3" t="s">
         <v>222</v>
       </c>
@@ -5849,7 +5851,7 @@
       </c>
       <c r="D319" s="5"/>
     </row>
-    <row r="320" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A320" s="3" t="s">
         <v>47</v>
       </c>
@@ -5859,7 +5861,7 @@
       </c>
       <c r="D320" s="5"/>
     </row>
-    <row r="321" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A321" s="3" t="s">
         <v>24</v>
       </c>
@@ -5869,7 +5871,7 @@
       </c>
       <c r="D321" s="5"/>
     </row>
-    <row r="322" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A322" s="3" t="s">
         <v>25</v>
       </c>
@@ -5879,7 +5881,7 @@
       </c>
       <c r="D322" s="5"/>
     </row>
-    <row r="323" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A323" s="3" t="s">
         <v>223</v>
       </c>
@@ -5890,7 +5892,7 @@
       <c r="D323" s="5"/>
       <c r="E323" s="4"/>
     </row>
-    <row r="324" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:5" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A324" s="3" t="s">
         <v>224</v>
       </c>
@@ -5901,7 +5903,7 @@
       <c r="D324" s="7"/>
       <c r="E324" s="7"/>
     </row>
-    <row r="325" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:5" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A325" s="3" t="s">
         <v>225</v>
       </c>
@@ -5911,7 +5913,7 @@
       <c r="C325" s="5"/>
       <c r="D325" s="7"/>
     </row>
-    <row r="326" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:5" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A326" s="3" t="s">
         <v>226</v>
       </c>
@@ -5921,7 +5923,7 @@
       <c r="C326" s="5"/>
       <c r="D326" s="7"/>
     </row>
-    <row r="327" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:5" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A327" s="3" t="s">
         <v>227</v>
       </c>
@@ -5931,7 +5933,7 @@
       <c r="C327" s="5"/>
       <c r="D327" s="7"/>
     </row>
-    <row r="328" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:5" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A328" s="3" t="s">
         <v>228</v>
       </c>
@@ -5941,7 +5943,7 @@
       <c r="C328" s="5"/>
       <c r="D328" s="7"/>
     </row>
-    <row r="329" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A329" s="3" t="s">
         <v>47</v>
       </c>
@@ -5949,7 +5951,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="330" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A330" s="3" t="s">
         <v>229</v>
       </c>
@@ -5958,7 +5960,7 @@
       </c>
       <c r="E330" s="7"/>
     </row>
-    <row r="331" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A331" s="3" t="s">
         <v>25</v>
       </c>
@@ -5966,7 +5968,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="332" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A332" s="3" t="s">
         <v>230</v>
       </c>
@@ -5975,7 +5977,7 @@
       </c>
       <c r="E332" s="7"/>
     </row>
-    <row r="333" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A333" s="3" t="s">
         <v>231</v>
       </c>
@@ -5983,7 +5985,7 @@
         <v>862</v>
       </c>
     </row>
-    <row r="334" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:5" ht="31" x14ac:dyDescent="0.35">
       <c r="A334" s="3" t="s">
         <v>232</v>
       </c>
@@ -5993,7 +5995,7 @@
       <c r="C334" s="5"/>
       <c r="D334" s="5"/>
     </row>
-    <row r="335" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:5" ht="31" x14ac:dyDescent="0.35">
       <c r="A335" s="3" t="s">
         <v>29</v>
       </c>
@@ -6003,7 +6005,7 @@
       <c r="C335" s="5"/>
       <c r="D335" s="7"/>
     </row>
-    <row r="336" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:5" ht="31" x14ac:dyDescent="0.35">
       <c r="A336" s="3" t="s">
         <v>79</v>
       </c>
@@ -6013,7 +6015,7 @@
       <c r="C336" s="5"/>
       <c r="D336" s="7"/>
     </row>
-    <row r="337" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A337" s="3" t="s">
         <v>47</v>
       </c>
@@ -6022,7 +6024,7 @@
       </c>
       <c r="C337" s="5"/>
     </row>
-    <row r="338" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A338" s="3" t="s">
         <v>24</v>
       </c>
@@ -6031,7 +6033,7 @@
       </c>
       <c r="C338" s="5"/>
     </row>
-    <row r="339" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A339" s="3" t="s">
         <v>25</v>
       </c>
@@ -6040,7 +6042,7 @@
       </c>
       <c r="C339" s="5"/>
     </row>
-    <row r="340" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A340" s="3" t="s">
         <v>233</v>
       </c>
@@ -6049,7 +6051,7 @@
       </c>
       <c r="C340" s="5"/>
     </row>
-    <row r="341" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:4" ht="31" x14ac:dyDescent="0.35">
       <c r="A341" s="3" t="s">
         <v>234</v>
       </c>
@@ -6059,7 +6061,7 @@
       <c r="C341" s="5"/>
       <c r="D341" s="7"/>
     </row>
-    <row r="342" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:4" ht="31" x14ac:dyDescent="0.35">
       <c r="A342" s="3" t="s">
         <v>235</v>
       </c>
@@ -6069,7 +6071,7 @@
       <c r="C342" s="5"/>
       <c r="D342" s="7"/>
     </row>
-    <row r="343" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:4" ht="31" x14ac:dyDescent="0.35">
       <c r="A343" s="3" t="s">
         <v>236</v>
       </c>
@@ -6079,7 +6081,7 @@
       <c r="C343" s="5"/>
       <c r="D343" s="7"/>
     </row>
-    <row r="344" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:4" ht="31" x14ac:dyDescent="0.35">
       <c r="A344" s="3" t="s">
         <v>237</v>
       </c>
@@ -6089,7 +6091,7 @@
       <c r="C344" s="5"/>
       <c r="D344" s="7"/>
     </row>
-    <row r="345" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A345" s="3" t="s">
         <v>53</v>
       </c>
@@ -6098,7 +6100,7 @@
       </c>
       <c r="C345" s="5"/>
     </row>
-    <row r="346" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A346" s="3" t="s">
         <v>47</v>
       </c>
@@ -6107,7 +6109,7 @@
       </c>
       <c r="C346" s="5"/>
     </row>
-    <row r="347" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A347" s="3" t="s">
         <v>24</v>
       </c>
@@ -6116,7 +6118,7 @@
       </c>
       <c r="C347" s="5"/>
     </row>
-    <row r="348" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A348" s="3" t="s">
         <v>25</v>
       </c>
@@ -6125,7 +6127,7 @@
       </c>
       <c r="C348" s="5"/>
     </row>
-    <row r="349" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A349" s="3" t="s">
         <v>238</v>
       </c>
@@ -6134,7 +6136,7 @@
       </c>
       <c r="C349" s="5"/>
     </row>
-    <row r="350" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:4" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A350" s="3" t="s">
         <v>239</v>
       </c>
@@ -6144,7 +6146,7 @@
       <c r="C350" s="5"/>
       <c r="D350" s="7"/>
     </row>
-    <row r="351" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:4" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A351" s="3" t="s">
         <v>240</v>
       </c>
@@ -6154,7 +6156,7 @@
       <c r="C351" s="5"/>
       <c r="D351" s="5"/>
     </row>
-    <row r="352" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:4" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A352" s="3" t="s">
         <v>241</v>
       </c>
@@ -6164,7 +6166,7 @@
       <c r="C352" s="5"/>
       <c r="D352" s="5"/>
     </row>
-    <row r="353" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:4" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A353" s="3" t="s">
         <v>242</v>
       </c>
@@ -6174,7 +6176,7 @@
       <c r="C353" s="5"/>
       <c r="D353" s="5"/>
     </row>
-    <row r="354" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A354" s="3" t="s">
         <v>47</v>
       </c>
@@ -6182,7 +6184,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="355" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A355" s="3" t="s">
         <v>25</v>
       </c>
@@ -6190,7 +6192,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="356" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A356" s="3" t="s">
         <v>243</v>
       </c>
@@ -6198,7 +6200,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="357" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:4" ht="31" x14ac:dyDescent="0.35">
       <c r="A357" s="3" t="s">
         <v>244</v>
       </c>
@@ -6208,7 +6210,7 @@
       <c r="C357" s="5"/>
       <c r="D357" s="5"/>
     </row>
-    <row r="358" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:4" ht="31" x14ac:dyDescent="0.35">
       <c r="A358" s="3" t="s">
         <v>245</v>
       </c>
@@ -6218,7 +6220,7 @@
       <c r="C358" s="5"/>
       <c r="D358" s="5"/>
     </row>
-    <row r="359" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:4" ht="31" x14ac:dyDescent="0.35">
       <c r="A359" s="3" t="s">
         <v>246</v>
       </c>
@@ -6228,7 +6230,7 @@
       <c r="C359" s="5"/>
       <c r="D359" s="7"/>
     </row>
-    <row r="360" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:4" ht="31" x14ac:dyDescent="0.35">
       <c r="A360" s="3" t="s">
         <v>247</v>
       </c>
@@ -6238,7 +6240,7 @@
       <c r="C360" s="5"/>
       <c r="D360" s="5"/>
     </row>
-    <row r="361" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:4" ht="31" x14ac:dyDescent="0.35">
       <c r="A361" s="3" t="s">
         <v>248</v>
       </c>
@@ -6248,7 +6250,7 @@
       <c r="C361" s="5"/>
       <c r="D361" s="7"/>
     </row>
-    <row r="362" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:4" ht="31" x14ac:dyDescent="0.35">
       <c r="A362" s="3" t="s">
         <v>249</v>
       </c>
@@ -6258,7 +6260,7 @@
       <c r="C362" s="5"/>
       <c r="D362" s="5"/>
     </row>
-    <row r="363" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:4" ht="31" x14ac:dyDescent="0.35">
       <c r="A363" s="3" t="s">
         <v>250</v>
       </c>
@@ -6268,7 +6270,7 @@
       <c r="C363" s="5"/>
       <c r="D363" s="7"/>
     </row>
-    <row r="364" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:4" ht="31" x14ac:dyDescent="0.35">
       <c r="A364" s="3" t="s">
         <v>251</v>
       </c>
@@ -6278,7 +6280,7 @@
       <c r="C364" s="5"/>
       <c r="D364" s="7"/>
     </row>
-    <row r="365" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A365" s="3" t="s">
         <v>53</v>
       </c>
@@ -6286,7 +6288,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="366" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A366" s="3" t="s">
         <v>47</v>
       </c>
@@ -6294,7 +6296,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="367" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A367" s="3" t="s">
         <v>24</v>
       </c>
@@ -6302,7 +6304,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="368" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A368" s="3" t="s">
         <v>25</v>
       </c>
@@ -6310,18 +6312,18 @@
         <v>3</v>
       </c>
     </row>
-    <row r="370" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:4" ht="31" x14ac:dyDescent="0.35">
       <c r="A370" s="1" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="371" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A371" s="3" t="s">
         <v>63</v>
       </c>
       <c r="C371" s="6"/>
     </row>
-    <row r="372" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:4" ht="62" x14ac:dyDescent="0.35">
       <c r="A372" s="3" t="s">
         <v>253</v>
       </c>
@@ -6335,7 +6337,7 @@
         <v>695</v>
       </c>
     </row>
-    <row r="373" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:4" ht="31" x14ac:dyDescent="0.35">
       <c r="A373" s="3" t="s">
         <v>14</v>
       </c>
@@ -6347,12 +6349,12 @@
       </c>
       <c r="D373" s="7"/>
     </row>
-    <row r="374" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B374" s="10"/>
       <c r="C374" s="5"/>
       <c r="D374" s="7"/>
     </row>
-    <row r="375" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:4" ht="31" x14ac:dyDescent="0.35">
       <c r="A375" s="3" t="s">
         <v>254</v>
       </c>
@@ -6364,7 +6366,7 @@
       </c>
       <c r="D375" s="7"/>
     </row>
-    <row r="376" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:4" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A376" s="3" t="s">
         <v>255</v>
       </c>
@@ -6376,7 +6378,7 @@
       </c>
       <c r="D376" s="7"/>
     </row>
-    <row r="377" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:4" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A377" s="3" t="s">
         <v>256</v>
       </c>
@@ -6388,7 +6390,7 @@
       </c>
       <c r="D377" s="7"/>
     </row>
-    <row r="378" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:4" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A378" s="3" t="s">
         <v>257</v>
       </c>
@@ -6400,7 +6402,7 @@
       </c>
       <c r="D378" s="7"/>
     </row>
-    <row r="379" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:4" ht="62" x14ac:dyDescent="0.35">
       <c r="A379" s="3" t="s">
         <v>258</v>
       </c>
@@ -6412,7 +6414,7 @@
       </c>
       <c r="D379" s="7"/>
     </row>
-    <row r="380" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:4" ht="62" x14ac:dyDescent="0.35">
       <c r="A380" s="3" t="s">
         <v>259</v>
       </c>
@@ -6424,7 +6426,7 @@
       </c>
       <c r="D380" s="7"/>
     </row>
-    <row r="381" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:4" ht="62" x14ac:dyDescent="0.35">
       <c r="A381" s="3" t="s">
         <v>260</v>
       </c>
@@ -6436,7 +6438,7 @@
       </c>
       <c r="D381" s="7"/>
     </row>
-    <row r="382" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:4" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A382" s="3" t="s">
         <v>261</v>
       </c>
@@ -6448,7 +6450,7 @@
       </c>
       <c r="D382" s="7"/>
     </row>
-    <row r="383" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:4" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A383" s="3" t="s">
         <v>262</v>
       </c>
@@ -6460,7 +6462,7 @@
       </c>
       <c r="D383" s="7"/>
     </row>
-    <row r="384" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:4" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A384" s="3" t="s">
         <v>263</v>
       </c>
@@ -6472,7 +6474,7 @@
       </c>
       <c r="D384" s="7"/>
     </row>
-    <row r="385" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:4" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A385" s="3" t="s">
         <v>264</v>
       </c>
@@ -6484,7 +6486,7 @@
       </c>
       <c r="D385" s="7"/>
     </row>
-    <row r="386" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:4" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A386" s="3" t="s">
         <v>265</v>
       </c>
@@ -6496,7 +6498,7 @@
       </c>
       <c r="D386" s="7"/>
     </row>
-    <row r="387" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:4" ht="31" x14ac:dyDescent="0.35">
       <c r="A387" s="3" t="s">
         <v>266</v>
       </c>
@@ -6508,7 +6510,7 @@
       </c>
       <c r="D387" s="7"/>
     </row>
-    <row r="388" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:4" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A388" s="3" t="s">
         <v>267</v>
       </c>
@@ -6520,7 +6522,7 @@
       </c>
       <c r="D388" s="7"/>
     </row>
-    <row r="389" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A389" s="3" t="s">
         <v>268</v>
       </c>
@@ -6532,7 +6534,7 @@
       </c>
       <c r="D389" s="7"/>
     </row>
-    <row r="390" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A390" s="3" t="s">
         <v>269</v>
       </c>
@@ -6544,7 +6546,7 @@
       </c>
       <c r="D390" s="7"/>
     </row>
-    <row r="391" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A391" s="3" t="s">
         <v>270</v>
       </c>
@@ -6556,7 +6558,7 @@
       </c>
       <c r="D391" s="7"/>
     </row>
-    <row r="392" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A392" s="3" t="s">
         <v>22</v>
       </c>
@@ -6567,7 +6569,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="393" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:4" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A393" s="3" t="s">
         <v>271</v>
       </c>
@@ -6579,7 +6581,7 @@
       </c>
       <c r="D393" s="7"/>
     </row>
-    <row r="394" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A394" s="3" t="s">
         <v>24</v>
       </c>
@@ -6590,7 +6592,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="395" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A395" s="3" t="s">
         <v>25</v>
       </c>
@@ -6601,7 +6603,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="396" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A396" s="3" t="s">
         <v>27</v>
       </c>
@@ -6610,7 +6612,7 @@
       </c>
       <c r="C396" s="5"/>
     </row>
-    <row r="397" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:4" ht="31" x14ac:dyDescent="0.35">
       <c r="A397" s="3" t="s">
         <v>28</v>
       </c>
@@ -6620,7 +6622,7 @@
       <c r="C397" s="5"/>
       <c r="D397" s="5"/>
     </row>
-    <row r="398" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:4" ht="31" x14ac:dyDescent="0.35">
       <c r="A398" s="3" t="s">
         <v>77</v>
       </c>
@@ -6630,7 +6632,7 @@
       <c r="C398" s="5"/>
       <c r="D398" s="5"/>
     </row>
-    <row r="399" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:4" ht="31" x14ac:dyDescent="0.35">
       <c r="A399" s="3" t="s">
         <v>29</v>
       </c>
@@ -6640,7 +6642,7 @@
       <c r="C399" s="5"/>
       <c r="D399" s="7"/>
     </row>
-    <row r="400" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:4" ht="31" x14ac:dyDescent="0.35">
       <c r="A400" s="3" t="s">
         <v>165</v>
       </c>
@@ -6650,7 +6652,7 @@
       <c r="C400" s="5"/>
       <c r="D400" s="5"/>
     </row>
-    <row r="401" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:4" ht="31" x14ac:dyDescent="0.35">
       <c r="A401" s="3" t="s">
         <v>79</v>
       </c>
@@ -6660,7 +6662,7 @@
       <c r="C401" s="5"/>
       <c r="D401" s="7"/>
     </row>
-    <row r="402" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A402" s="3" t="s">
         <v>47</v>
       </c>
@@ -6668,7 +6670,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="403" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A403" s="3" t="s">
         <v>24</v>
       </c>
@@ -6676,7 +6678,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="404" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A404" s="3" t="s">
         <v>25</v>
       </c>
@@ -6684,7 +6686,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="405" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:4" ht="31" x14ac:dyDescent="0.35">
       <c r="A405" s="3" t="s">
         <v>272</v>
       </c>
@@ -6692,7 +6694,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="406" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:4" ht="31" x14ac:dyDescent="0.35">
       <c r="A406" s="3" t="s">
         <v>273</v>
       </c>
@@ -6700,7 +6702,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="407" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:4" ht="31" x14ac:dyDescent="0.35">
       <c r="A407" s="3" t="s">
         <v>274</v>
       </c>
@@ -6708,7 +6710,7 @@
         <v>751</v>
       </c>
     </row>
-    <row r="408" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:4" ht="31" x14ac:dyDescent="0.35">
       <c r="A408" s="3" t="s">
         <v>275</v>
       </c>
@@ -6716,7 +6718,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="409" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:4" ht="31" x14ac:dyDescent="0.35">
       <c r="A409" s="3" t="s">
         <v>167</v>
       </c>
@@ -6724,7 +6726,7 @@
         <v>752</v>
       </c>
     </row>
-    <row r="410" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:4" ht="31" x14ac:dyDescent="0.35">
       <c r="A410" s="3" t="s">
         <v>35</v>
       </c>
@@ -6732,7 +6734,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="411" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:4" ht="31" x14ac:dyDescent="0.35">
       <c r="A411" s="3" t="s">
         <v>36</v>
       </c>
@@ -6740,7 +6742,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="412" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:4" ht="31" x14ac:dyDescent="0.35">
       <c r="A412" s="3" t="s">
         <v>37</v>
       </c>
@@ -6748,7 +6750,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="413" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:4" ht="31" x14ac:dyDescent="0.35">
       <c r="A413" s="3" t="s">
         <v>202</v>
       </c>
@@ -6756,7 +6758,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="414" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:4" ht="31" x14ac:dyDescent="0.35">
       <c r="A414" s="3" t="s">
         <v>38</v>
       </c>
@@ -6764,7 +6766,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="415" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:4" ht="31" x14ac:dyDescent="0.35">
       <c r="A415" s="3" t="s">
         <v>40</v>
       </c>
@@ -6772,7 +6774,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="416" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:4" ht="31" x14ac:dyDescent="0.35">
       <c r="A416" s="3" t="s">
         <v>170</v>
       </c>
@@ -6782,7 +6784,7 @@
       <c r="C416" s="5"/>
       <c r="D416" s="7"/>
     </row>
-    <row r="417" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:2" ht="31" x14ac:dyDescent="0.35">
       <c r="A417" s="3" t="s">
         <v>41</v>
       </c>
@@ -6790,7 +6792,7 @@
         <v>709</v>
       </c>
     </row>
-    <row r="418" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:2" ht="31" x14ac:dyDescent="0.35">
       <c r="A418" s="3" t="s">
         <v>171</v>
       </c>
@@ -6798,7 +6800,7 @@
         <v>699</v>
       </c>
     </row>
-    <row r="419" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:2" ht="31" x14ac:dyDescent="0.35">
       <c r="A419" s="3" t="s">
         <v>42</v>
       </c>
@@ -6806,7 +6808,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="420" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:2" ht="31" x14ac:dyDescent="0.35">
       <c r="A420" s="3" t="s">
         <v>276</v>
       </c>
@@ -6814,7 +6816,7 @@
         <v>753</v>
       </c>
     </row>
-    <row r="421" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:2" ht="31" x14ac:dyDescent="0.35">
       <c r="A421" s="3" t="s">
         <v>277</v>
       </c>
@@ -6822,7 +6824,7 @@
         <v>754</v>
       </c>
     </row>
-    <row r="422" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:2" ht="31" x14ac:dyDescent="0.35">
       <c r="A422" s="3" t="s">
         <v>278</v>
       </c>
@@ -6830,7 +6832,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="423" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:2" ht="31" x14ac:dyDescent="0.35">
       <c r="A423" s="3" t="s">
         <v>279</v>
       </c>
@@ -6838,7 +6840,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="424" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A424" s="3" t="s">
         <v>47</v>
       </c>
@@ -6846,7 +6848,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="425" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:2" ht="31" x14ac:dyDescent="0.35">
       <c r="A425" s="3" t="s">
         <v>48</v>
       </c>
@@ -6854,7 +6856,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="426" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:2" ht="31" x14ac:dyDescent="0.35">
       <c r="A426" s="3" t="s">
         <v>49</v>
       </c>
@@ -6862,7 +6864,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="427" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A427" s="3" t="s">
         <v>24</v>
       </c>
@@ -6870,7 +6872,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="428" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A428" s="3" t="s">
         <v>25</v>
       </c>
@@ -6878,7 +6880,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="429" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:2" ht="31" x14ac:dyDescent="0.35">
       <c r="A429" s="3" t="s">
         <v>280</v>
       </c>
@@ -6886,7 +6888,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="430" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A430" s="3" t="s">
         <v>200</v>
       </c>
@@ -6894,7 +6896,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="431" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:2" ht="31" x14ac:dyDescent="0.35">
       <c r="A431" s="3" t="s">
         <v>273</v>
       </c>
@@ -6902,7 +6904,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="432" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:2" ht="31" x14ac:dyDescent="0.35">
       <c r="A432" s="3" t="s">
         <v>274</v>
       </c>
@@ -6910,7 +6912,7 @@
         <v>751</v>
       </c>
     </row>
-    <row r="433" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:4" ht="31" x14ac:dyDescent="0.35">
       <c r="A433" s="3" t="s">
         <v>275</v>
       </c>
@@ -6918,7 +6920,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="434" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:4" ht="31" x14ac:dyDescent="0.35">
       <c r="A434" s="3" t="s">
         <v>167</v>
       </c>
@@ -6926,7 +6928,7 @@
         <v>752</v>
       </c>
     </row>
-    <row r="435" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:4" ht="31" x14ac:dyDescent="0.35">
       <c r="A435" s="3" t="s">
         <v>35</v>
       </c>
@@ -6934,7 +6936,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="436" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:4" ht="31" x14ac:dyDescent="0.35">
       <c r="A436" s="3" t="s">
         <v>36</v>
       </c>
@@ -6942,7 +6944,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="437" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:4" ht="31" x14ac:dyDescent="0.35">
       <c r="A437" s="3" t="s">
         <v>37</v>
       </c>
@@ -6950,7 +6952,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="438" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:4" ht="31" x14ac:dyDescent="0.35">
       <c r="A438" s="3" t="s">
         <v>202</v>
       </c>
@@ -6958,7 +6960,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="439" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:4" ht="31" x14ac:dyDescent="0.35">
       <c r="A439" s="3" t="s">
         <v>38</v>
       </c>
@@ -6966,7 +6968,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="440" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:4" ht="31" x14ac:dyDescent="0.35">
       <c r="A440" s="3" t="s">
         <v>40</v>
       </c>
@@ -6974,7 +6976,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="441" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:4" ht="31" x14ac:dyDescent="0.35">
       <c r="A441" s="3" t="s">
         <v>170</v>
       </c>
@@ -6984,7 +6986,7 @@
       <c r="C441" s="5"/>
       <c r="D441" s="7"/>
     </row>
-    <row r="442" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:4" ht="31" x14ac:dyDescent="0.35">
       <c r="A442" s="3" t="s">
         <v>41</v>
       </c>
@@ -6992,7 +6994,7 @@
         <v>709</v>
       </c>
     </row>
-    <row r="443" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:4" ht="31" x14ac:dyDescent="0.35">
       <c r="A443" s="3" t="s">
         <v>171</v>
       </c>
@@ -7000,7 +7002,7 @@
         <v>699</v>
       </c>
     </row>
-    <row r="444" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:4" ht="31" x14ac:dyDescent="0.35">
       <c r="A444" s="3" t="s">
         <v>42</v>
       </c>
@@ -7008,7 +7010,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="445" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:4" ht="31" x14ac:dyDescent="0.35">
       <c r="A445" s="3" t="s">
         <v>276</v>
       </c>
@@ -7016,7 +7018,7 @@
         <v>753</v>
       </c>
     </row>
-    <row r="446" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:4" ht="31" x14ac:dyDescent="0.35">
       <c r="A446" s="3" t="s">
         <v>277</v>
       </c>
@@ -7024,7 +7026,7 @@
         <v>754</v>
       </c>
     </row>
-    <row r="447" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:4" ht="31" x14ac:dyDescent="0.35">
       <c r="A447" s="3" t="s">
         <v>278</v>
       </c>
@@ -7032,7 +7034,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="448" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:4" ht="31" x14ac:dyDescent="0.35">
       <c r="A448" s="3" t="s">
         <v>279</v>
       </c>
@@ -7040,7 +7042,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="449" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A449" s="3" t="s">
         <v>47</v>
       </c>
@@ -7048,7 +7050,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="450" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:4" ht="31" x14ac:dyDescent="0.35">
       <c r="A450" s="3" t="s">
         <v>48</v>
       </c>
@@ -7056,7 +7058,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="451" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:4" ht="31" x14ac:dyDescent="0.35">
       <c r="A451" s="3" t="s">
         <v>49</v>
       </c>
@@ -7064,7 +7066,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="452" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A452" s="3" t="s">
         <v>24</v>
       </c>
@@ -7072,7 +7074,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="453" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A453" s="3" t="s">
         <v>25</v>
       </c>
@@ -7080,18 +7082,18 @@
         <v>3</v>
       </c>
     </row>
-    <row r="455" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A455" s="1" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="456" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A456" s="3" t="s">
         <v>63</v>
       </c>
       <c r="C456" s="6"/>
     </row>
-    <row r="457" spans="1:4" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:4" ht="77.5" x14ac:dyDescent="0.35">
       <c r="A457" s="3" t="s">
         <v>282</v>
       </c>
@@ -7105,7 +7107,7 @@
         <v>696</v>
       </c>
     </row>
-    <row r="458" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:4" ht="31" x14ac:dyDescent="0.35">
       <c r="A458" s="3" t="s">
         <v>14</v>
       </c>
@@ -7117,7 +7119,7 @@
       </c>
       <c r="D458" s="5"/>
     </row>
-    <row r="459" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:4" ht="31" x14ac:dyDescent="0.35">
       <c r="A459" s="3" t="s">
         <v>283</v>
       </c>
@@ -7127,7 +7129,7 @@
       </c>
       <c r="D459" s="5"/>
     </row>
-    <row r="460" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:4" ht="31" x14ac:dyDescent="0.35">
       <c r="A460" s="3" t="s">
         <v>284</v>
       </c>
@@ -7137,7 +7139,7 @@
       </c>
       <c r="D460" s="5"/>
     </row>
-    <row r="461" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:4" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A461" s="3" t="s">
         <v>285</v>
       </c>
@@ -7147,7 +7149,7 @@
       </c>
       <c r="D461" s="5"/>
     </row>
-    <row r="462" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:4" ht="31" x14ac:dyDescent="0.35">
       <c r="A462" s="3" t="s">
         <v>286</v>
       </c>
@@ -7157,7 +7159,7 @@
       </c>
       <c r="D462" s="5"/>
     </row>
-    <row r="463" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A463" s="3" t="s">
         <v>22</v>
       </c>
@@ -7167,7 +7169,7 @@
       </c>
       <c r="D463" s="5"/>
     </row>
-    <row r="464" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A464" s="3" t="s">
         <v>24</v>
       </c>
@@ -7177,7 +7179,7 @@
       </c>
       <c r="D464" s="5"/>
     </row>
-    <row r="465" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A465" s="3" t="s">
         <v>25</v>
       </c>
@@ -7187,7 +7189,7 @@
       </c>
       <c r="D465" s="5"/>
     </row>
-    <row r="466" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A466" s="3" t="s">
         <v>860</v>
       </c>
@@ -7195,7 +7197,7 @@
       <c r="C466" s="5"/>
       <c r="D466" s="5"/>
     </row>
-    <row r="467" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A467" s="3" t="s">
         <v>27</v>
       </c>
@@ -7205,7 +7207,7 @@
       <c r="C467" s="5"/>
       <c r="D467" s="5"/>
     </row>
-    <row r="468" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:4" ht="31" x14ac:dyDescent="0.35">
       <c r="A468" s="3" t="s">
         <v>77</v>
       </c>
@@ -7215,7 +7217,7 @@
       <c r="C468" s="5"/>
       <c r="D468" s="5"/>
     </row>
-    <row r="469" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:4" ht="31" x14ac:dyDescent="0.35">
       <c r="A469" s="3" t="s">
         <v>29</v>
       </c>
@@ -7225,7 +7227,7 @@
       <c r="C469" s="5"/>
       <c r="D469" s="5"/>
     </row>
-    <row r="470" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:4" ht="31" x14ac:dyDescent="0.35">
       <c r="A470" s="3" t="s">
         <v>165</v>
       </c>
@@ -7235,7 +7237,7 @@
       <c r="C470" s="5"/>
       <c r="D470" s="5"/>
     </row>
-    <row r="471" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:4" ht="31" x14ac:dyDescent="0.35">
       <c r="A471" s="3" t="s">
         <v>79</v>
       </c>
@@ -7245,7 +7247,7 @@
       <c r="C471" s="5"/>
       <c r="D471" s="5"/>
     </row>
-    <row r="472" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A472" s="3" t="s">
         <v>53</v>
       </c>
@@ -7255,7 +7257,7 @@
       <c r="C472" s="5"/>
       <c r="D472" s="5"/>
     </row>
-    <row r="473" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A473" s="3" t="s">
         <v>47</v>
       </c>
@@ -7265,7 +7267,7 @@
       <c r="C473" s="5"/>
       <c r="D473" s="5"/>
     </row>
-    <row r="474" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A474" s="3" t="s">
         <v>24</v>
       </c>
@@ -7275,7 +7277,7 @@
       <c r="C474" s="5"/>
       <c r="D474" s="5"/>
     </row>
-    <row r="475" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A475" s="3" t="s">
         <v>25</v>
       </c>
@@ -7285,7 +7287,7 @@
       <c r="C475" s="5"/>
       <c r="D475" s="5"/>
     </row>
-    <row r="476" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:4" ht="31" x14ac:dyDescent="0.35">
       <c r="A476" s="3" t="s">
         <v>287</v>
       </c>
@@ -7293,7 +7295,7 @@
       <c r="C476" s="5"/>
       <c r="D476" s="5"/>
     </row>
-    <row r="477" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:4" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A477" s="3" t="s">
         <v>288</v>
       </c>
@@ -7303,7 +7305,7 @@
       <c r="C477" s="5"/>
       <c r="D477" s="5"/>
     </row>
-    <row r="478" spans="1:4" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:4" ht="93" x14ac:dyDescent="0.35">
       <c r="A478" s="3" t="s">
         <v>289</v>
       </c>
@@ -7315,7 +7317,7 @@
       </c>
       <c r="D478" s="5"/>
     </row>
-    <row r="479" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:4" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A479" s="3" t="s">
         <v>290</v>
       </c>
@@ -7325,7 +7327,7 @@
       <c r="C479" s="2"/>
       <c r="D479" s="5"/>
     </row>
-    <row r="480" spans="1:4" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:4" ht="93" x14ac:dyDescent="0.35">
       <c r="A480" s="3" t="s">
         <v>291</v>
       </c>
@@ -7337,7 +7339,7 @@
       </c>
       <c r="D480" s="5"/>
     </row>
-    <row r="481" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:4" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A481" s="3" t="s">
         <v>292</v>
       </c>
@@ -7347,7 +7349,7 @@
       <c r="C481" s="5"/>
       <c r="D481" s="5"/>
     </row>
-    <row r="482" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:4" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A482" s="3" t="s">
         <v>293</v>
       </c>
@@ -7357,7 +7359,7 @@
       <c r="C482" s="5"/>
       <c r="D482" s="5"/>
     </row>
-    <row r="483" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A483" s="3" t="s">
         <v>47</v>
       </c>
@@ -7365,7 +7367,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="484" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A484" s="3" t="s">
         <v>24</v>
       </c>
@@ -7373,7 +7375,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="485" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A485" s="3" t="s">
         <v>25</v>
       </c>
@@ -7381,7 +7383,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="486" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:4" ht="31" x14ac:dyDescent="0.35">
       <c r="A486" s="3" t="s">
         <v>172</v>
       </c>
@@ -7389,7 +7391,7 @@
         <v>863</v>
       </c>
     </row>
-    <row r="487" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:4" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A487" s="3" t="s">
         <v>89</v>
       </c>
@@ -7399,7 +7401,7 @@
       <c r="C487" s="5"/>
       <c r="D487" s="5"/>
     </row>
-    <row r="488" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:4" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A488" s="3" t="s">
         <v>90</v>
       </c>
@@ -7409,7 +7411,7 @@
       <c r="C488" s="5"/>
       <c r="D488" s="5"/>
     </row>
-    <row r="489" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:4" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A489" s="3" t="s">
         <v>173</v>
       </c>
@@ -7419,7 +7421,7 @@
       <c r="C489" s="5"/>
       <c r="D489" s="5"/>
     </row>
-    <row r="490" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A490" s="3" t="s">
         <v>47</v>
       </c>
@@ -7427,7 +7429,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="491" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A491" s="3" t="s">
         <v>25</v>
       </c>
@@ -7435,7 +7437,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="492" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A492" s="3" t="s">
         <v>174</v>
       </c>
@@ -7443,7 +7445,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="493" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A493" s="3" t="s">
         <v>89</v>
       </c>
@@ -7451,7 +7453,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="494" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:4" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A494" s="3" t="s">
         <v>175</v>
       </c>
@@ -7461,7 +7463,7 @@
       <c r="C494" s="2"/>
       <c r="D494" s="6"/>
     </row>
-    <row r="495" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:4" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A495" s="3" t="s">
         <v>176</v>
       </c>
@@ -7471,7 +7473,7 @@
       <c r="C495" s="2"/>
       <c r="D495" s="6"/>
     </row>
-    <row r="496" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:4" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A496" s="3" t="s">
         <v>177</v>
       </c>
@@ -7481,7 +7483,7 @@
       <c r="C496" s="2"/>
       <c r="D496" s="6"/>
     </row>
-    <row r="497" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:4" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A497" s="3" t="s">
         <v>178</v>
       </c>
@@ -7491,7 +7493,7 @@
       <c r="C497" s="2"/>
       <c r="D497" s="6"/>
     </row>
-    <row r="498" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:4" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A498" s="3" t="s">
         <v>179</v>
       </c>
@@ -7501,7 +7503,7 @@
       <c r="C498" s="2"/>
       <c r="D498" s="6"/>
     </row>
-    <row r="499" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:4" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A499" s="3" t="s">
         <v>180</v>
       </c>
@@ -7511,7 +7513,7 @@
       <c r="C499" s="2"/>
       <c r="D499" s="6"/>
     </row>
-    <row r="500" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:4" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A500" s="3" t="s">
         <v>181</v>
       </c>
@@ -7521,7 +7523,7 @@
       <c r="C500" s="2"/>
       <c r="D500" s="6"/>
     </row>
-    <row r="501" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:4" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A501" s="3" t="s">
         <v>182</v>
       </c>
@@ -7531,7 +7533,7 @@
       <c r="C501" s="2"/>
       <c r="D501" s="6"/>
     </row>
-    <row r="502" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:4" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A502" s="3" t="s">
         <v>183</v>
       </c>
@@ -7541,7 +7543,7 @@
       <c r="C502" s="2"/>
       <c r="D502" s="6"/>
     </row>
-    <row r="503" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A503" s="3" t="s">
         <v>47</v>
       </c>
@@ -7550,7 +7552,7 @@
       </c>
       <c r="C503" s="5"/>
     </row>
-    <row r="504" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A504" s="3" t="s">
         <v>24</v>
       </c>
@@ -7559,7 +7561,7 @@
       </c>
       <c r="C504" s="5"/>
     </row>
-    <row r="505" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A505" s="3" t="s">
         <v>25</v>
       </c>
@@ -7568,7 +7570,7 @@
       </c>
       <c r="C505" s="5"/>
     </row>
-    <row r="506" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A506" s="4" t="s">
         <v>184</v>
       </c>
@@ -7580,7 +7582,7 @@
       </c>
       <c r="D506" s="5"/>
     </row>
-    <row r="507" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A507" s="3" t="s">
         <v>185</v>
       </c>
@@ -7590,7 +7592,7 @@
       </c>
       <c r="D507" s="5"/>
     </row>
-    <row r="508" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:4" ht="31" x14ac:dyDescent="0.35">
       <c r="A508" s="3" t="s">
         <v>581</v>
       </c>
@@ -7600,7 +7602,7 @@
       </c>
       <c r="D508" s="5"/>
     </row>
-    <row r="509" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A509" s="3" t="s">
         <v>186</v>
       </c>
@@ -7610,7 +7612,7 @@
       </c>
       <c r="D509" s="5"/>
     </row>
-    <row r="510" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A510" s="3" t="s">
         <v>187</v>
       </c>
@@ -7620,7 +7622,7 @@
       </c>
       <c r="D510" s="5"/>
     </row>
-    <row r="511" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A511" s="3" t="s">
         <v>188</v>
       </c>
@@ -7630,7 +7632,7 @@
       </c>
       <c r="D511" s="5"/>
     </row>
-    <row r="512" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A512" s="3" t="s">
         <v>189</v>
       </c>
@@ -7640,7 +7642,7 @@
       </c>
       <c r="D512" s="5"/>
     </row>
-    <row r="513" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A513" s="3" t="s">
         <v>190</v>
       </c>
@@ -7650,7 +7652,7 @@
       </c>
       <c r="D513" s="5"/>
     </row>
-    <row r="514" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A514" s="3" t="s">
         <v>47</v>
       </c>
@@ -7660,7 +7662,7 @@
       </c>
       <c r="D514" s="5"/>
     </row>
-    <row r="515" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A515" s="3" t="s">
         <v>24</v>
       </c>
@@ -7670,7 +7672,7 @@
       </c>
       <c r="D515" s="5"/>
     </row>
-    <row r="516" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A516" s="3" t="s">
         <v>25</v>
       </c>
@@ -7680,7 +7682,7 @@
       </c>
       <c r="D516" s="5"/>
     </row>
-    <row r="517" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:4" ht="31" x14ac:dyDescent="0.35">
       <c r="A517" s="3" t="s">
         <v>294</v>
       </c>
@@ -7688,7 +7690,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="518" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:4" ht="31" x14ac:dyDescent="0.35">
       <c r="A518" s="3" t="s">
         <v>295</v>
       </c>
@@ -7698,7 +7700,7 @@
       <c r="C518" s="5"/>
       <c r="D518" s="5"/>
     </row>
-    <row r="519" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:4" ht="31" x14ac:dyDescent="0.35">
       <c r="A519" s="3" t="s">
         <v>296</v>
       </c>
@@ -7708,7 +7710,7 @@
       <c r="C519" s="5"/>
       <c r="D519" s="5"/>
     </row>
-    <row r="520" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:4" ht="31" x14ac:dyDescent="0.35">
       <c r="A520" s="3" t="s">
         <v>297</v>
       </c>
@@ -7718,7 +7720,7 @@
       <c r="C520" s="5"/>
       <c r="D520" s="5"/>
     </row>
-    <row r="521" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:4" ht="31" x14ac:dyDescent="0.35">
       <c r="A521" s="3" t="s">
         <v>298</v>
       </c>
@@ -7728,7 +7730,7 @@
       <c r="C521" s="5"/>
       <c r="D521" s="5"/>
     </row>
-    <row r="522" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A522" s="3" t="s">
         <v>53</v>
       </c>
@@ -7736,7 +7738,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="523" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A523" s="3" t="s">
         <v>47</v>
       </c>
@@ -7744,7 +7746,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="524" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A524" s="3" t="s">
         <v>24</v>
       </c>
@@ -7752,7 +7754,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="525" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A525" s="3" t="s">
         <v>25</v>
       </c>
@@ -7760,7 +7762,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="526" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A526" s="3" t="s">
         <v>299</v>
       </c>
@@ -7769,7 +7771,7 @@
       </c>
       <c r="C526" s="10"/>
     </row>
-    <row r="527" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A527" s="3" t="s">
         <v>300</v>
       </c>
@@ -7777,7 +7779,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="528" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A528" s="3" t="s">
         <v>301</v>
       </c>
@@ -7785,7 +7787,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="529" spans="1:2" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:2" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A529" s="3" t="s">
         <v>302</v>
       </c>
@@ -7793,7 +7795,7 @@
         <v>855</v>
       </c>
     </row>
-    <row r="530" spans="1:2" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:2" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A530" s="3" t="s">
         <v>303</v>
       </c>
@@ -7801,7 +7803,7 @@
         <v>856</v>
       </c>
     </row>
-    <row r="531" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A531" s="3" t="s">
         <v>304</v>
       </c>
@@ -7809,7 +7811,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="532" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:2" ht="31" x14ac:dyDescent="0.35">
       <c r="A532" s="3" t="s">
         <v>305</v>
       </c>
@@ -7817,7 +7819,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="533" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A533" s="3" t="s">
         <v>306</v>
       </c>
@@ -7825,7 +7827,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="534" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A534" s="3" t="s">
         <v>53</v>
       </c>
@@ -7833,7 +7835,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="535" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A535" s="3" t="s">
         <v>24</v>
       </c>
@@ -7841,7 +7843,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="536" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A536" s="3" t="s">
         <v>25</v>
       </c>
@@ -7849,7 +7851,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="537" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A537" s="3" t="s">
         <v>307</v>
       </c>
@@ -7857,7 +7859,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="538" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:2" ht="31" x14ac:dyDescent="0.35">
       <c r="A538" s="3" t="s">
         <v>59</v>
       </c>
@@ -7865,7 +7867,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="539" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:2" ht="31" x14ac:dyDescent="0.35">
       <c r="A539" s="3" t="s">
         <v>60</v>
       </c>
@@ -7873,7 +7875,7 @@
         <v>718</v>
       </c>
     </row>
-    <row r="540" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="540" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A540" s="3" t="s">
         <v>53</v>
       </c>
@@ -7881,7 +7883,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="541" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A541" s="3" t="s">
         <v>47</v>
       </c>
@@ -7889,7 +7891,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="542" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A542" s="3" t="s">
         <v>24</v>
       </c>
@@ -7897,7 +7899,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="543" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="543" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A543" s="3" t="s">
         <v>25</v>
       </c>
@@ -7905,7 +7907,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="544" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A544" s="3" t="s">
         <v>238</v>
       </c>
@@ -7913,7 +7915,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="545" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="545" spans="1:4" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A545" s="3" t="s">
         <v>308</v>
       </c>
@@ -7923,7 +7925,7 @@
       <c r="C545" s="5"/>
       <c r="D545" s="5"/>
     </row>
-    <row r="546" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="546" spans="1:4" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A546" s="3" t="s">
         <v>309</v>
       </c>
@@ -7933,7 +7935,7 @@
       <c r="C546" s="5"/>
       <c r="D546" s="5"/>
     </row>
-    <row r="547" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="547" spans="1:4" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A547" s="3" t="s">
         <v>310</v>
       </c>
@@ -7943,7 +7945,7 @@
       <c r="C547" s="5"/>
       <c r="D547" s="5"/>
     </row>
-    <row r="548" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="548" spans="1:4" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A548" s="3" t="s">
         <v>311</v>
       </c>
@@ -7953,7 +7955,7 @@
       <c r="C548" s="5"/>
       <c r="D548" s="7"/>
     </row>
-    <row r="549" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="549" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A549" s="3" t="s">
         <v>47</v>
       </c>
@@ -7961,7 +7963,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="550" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="550" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A550" s="3" t="s">
         <v>24</v>
       </c>
@@ -7969,7 +7971,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="551" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="551" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A551" s="3" t="s">
         <v>25</v>
       </c>
@@ -7977,7 +7979,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="552" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="552" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A552" s="3" t="s">
         <v>243</v>
       </c>
@@ -7985,7 +7987,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="553" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="553" spans="1:4" ht="31" x14ac:dyDescent="0.35">
       <c r="A553" s="3" t="s">
         <v>244</v>
       </c>
@@ -7995,7 +7997,7 @@
       <c r="C553" s="5"/>
       <c r="D553" s="5"/>
     </row>
-    <row r="554" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="554" spans="1:4" ht="31" x14ac:dyDescent="0.35">
       <c r="A554" s="3" t="s">
         <v>245</v>
       </c>
@@ -8005,7 +8007,7 @@
       <c r="C554" s="5"/>
       <c r="D554" s="5"/>
     </row>
-    <row r="555" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="555" spans="1:4" ht="31" x14ac:dyDescent="0.35">
       <c r="A555" s="3" t="s">
         <v>246</v>
       </c>
@@ -8015,7 +8017,7 @@
       <c r="C555" s="5"/>
       <c r="D555" s="7"/>
     </row>
-    <row r="556" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="556" spans="1:4" ht="31" x14ac:dyDescent="0.35">
       <c r="A556" s="3" t="s">
         <v>247</v>
       </c>
@@ -8025,7 +8027,7 @@
       <c r="C556" s="5"/>
       <c r="D556" s="5"/>
     </row>
-    <row r="557" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="557" spans="1:4" ht="31" x14ac:dyDescent="0.35">
       <c r="A557" s="3" t="s">
         <v>248</v>
       </c>
@@ -8035,7 +8037,7 @@
       <c r="C557" s="5"/>
       <c r="D557" s="5"/>
     </row>
-    <row r="558" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="558" spans="1:4" ht="31" x14ac:dyDescent="0.35">
       <c r="A558" s="3" t="s">
         <v>249</v>
       </c>
@@ -8045,7 +8047,7 @@
       <c r="C558" s="5"/>
       <c r="D558" s="5"/>
     </row>
-    <row r="559" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="559" spans="1:4" ht="31" x14ac:dyDescent="0.35">
       <c r="A559" s="3" t="s">
         <v>250</v>
       </c>
@@ -8055,7 +8057,7 @@
       <c r="C559" s="5"/>
       <c r="D559" s="5"/>
     </row>
-    <row r="560" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="560" spans="1:4" ht="31" x14ac:dyDescent="0.35">
       <c r="A560" s="3" t="s">
         <v>251</v>
       </c>
@@ -8065,7 +8067,7 @@
       <c r="C560" s="5"/>
       <c r="D560" s="7"/>
     </row>
-    <row r="561" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="561" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A561" s="3" t="s">
         <v>53</v>
       </c>
@@ -8073,7 +8075,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="562" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="562" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A562" s="3" t="s">
         <v>47</v>
       </c>
@@ -8081,7 +8083,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="563" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="563" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A563" s="3" t="s">
         <v>24</v>
       </c>
@@ -8089,7 +8091,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="564" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="564" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A564" s="3" t="s">
         <v>25</v>
       </c>
@@ -8097,7 +8099,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="565" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="565" spans="1:2" ht="31" x14ac:dyDescent="0.35">
       <c r="A565" s="3" t="s">
         <v>312</v>
       </c>
@@ -8105,122 +8107,122 @@
         <v>560</v>
       </c>
     </row>
-    <row r="566" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="566" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A566" s="3" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="567" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="567" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A567" s="3" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="568" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="568" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A568" s="3" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="569" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="569" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A569" s="3" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="570" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="570" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A570" s="3" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="571" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="571" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A571" s="3" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="572" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="572" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A572" s="3" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="573" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="573" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A573" s="3" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="574" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="574" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A574" s="3" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="575" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="575" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A575" s="3" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="576" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="576" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A576" s="3" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="577" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="577" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A577" s="3" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="578" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="578" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A578" s="3" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="579" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="579" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A579" s="3" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="580" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="580" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A580" s="3" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="581" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="581" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A581" s="3" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="582" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="582" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A582" s="3" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="583" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="583" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A583" s="3" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="584" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="584" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A584" s="3" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="585" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="585" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A585" s="3" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="586" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="586" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A586" s="3" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="587" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="587" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A587" s="3" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="588" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="588" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A588" s="3" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="589" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="589" spans="1:2" ht="31" x14ac:dyDescent="0.35">
       <c r="A589" s="3" t="s">
         <v>332</v>
       </c>
@@ -8228,47 +8230,47 @@
         <v>560</v>
       </c>
     </row>
-    <row r="590" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="590" spans="1:2" ht="31" x14ac:dyDescent="0.35">
       <c r="A590" s="3" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="591" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="591" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A591" s="3" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="592" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="592" spans="1:2" ht="31" x14ac:dyDescent="0.35">
       <c r="A592" s="3" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="593" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="593" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A593" s="3" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="594" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="594" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A594" s="3" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="595" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="595" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A595" s="3" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="596" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="596" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A596" s="3" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="597" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="597" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A597" s="3" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="598" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="598" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A598" s="3" t="s">
         <v>337</v>
       </c>
@@ -8276,67 +8278,67 @@
         <v>560</v>
       </c>
     </row>
-    <row r="599" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="599" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A599" s="3" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="600" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="600" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A600" s="3" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="601" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="601" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A601" s="3" t="s">
         <v>340</v>
       </c>
     </row>
-    <row r="602" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="602" spans="1:2" ht="31" x14ac:dyDescent="0.35">
       <c r="A602" s="3" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="603" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="603" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A603" s="3" t="s">
         <v>342</v>
       </c>
     </row>
-    <row r="604" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="604" spans="1:2" ht="31" x14ac:dyDescent="0.35">
       <c r="A604" s="3" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="605" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="605" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A605" s="3" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="606" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="606" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A606" s="3" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="607" spans="1:2" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="607" spans="1:2" ht="31" x14ac:dyDescent="0.35">
       <c r="A607" s="3" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="608" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="608" spans="1:2" ht="31" x14ac:dyDescent="0.35">
       <c r="A608" s="3" t="s">
         <v>347</v>
       </c>
     </row>
-    <row r="609" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="609" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A609" s="3" t="s">
         <v>348</v>
       </c>
     </row>
-    <row r="610" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="610" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A610" s="3" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="611" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="611" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A611" s="3" t="s">
         <v>349</v>
       </c>
@@ -8344,36 +8346,36 @@
         <v>560</v>
       </c>
     </row>
-    <row r="612" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="612" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A612" s="3" t="s">
         <v>350</v>
       </c>
       <c r="B612" s="7"/>
       <c r="E612" s="4"/>
     </row>
-    <row r="613" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="613" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A613" s="3" t="s">
         <v>351</v>
       </c>
       <c r="B613" s="7"/>
       <c r="E613" s="4"/>
     </row>
-    <row r="614" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="614" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A614" s="3" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="615" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="615" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A615" s="3" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="616" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="616" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A616" s="3" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="617" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="617" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A617" s="3" t="s">
         <v>352</v>
       </c>
@@ -8381,18 +8383,18 @@
         <v>3</v>
       </c>
     </row>
-    <row r="619" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="619" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A619" s="1" t="s">
         <v>438</v>
       </c>
     </row>
-    <row r="620" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="620" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A620" s="3" t="s">
         <v>63</v>
       </c>
       <c r="C620" s="6"/>
     </row>
-    <row r="621" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+    <row r="621" spans="1:5" ht="62" x14ac:dyDescent="0.35">
       <c r="A621" s="3" t="s">
         <v>439</v>
       </c>
@@ -8404,7 +8406,7 @@
       </c>
       <c r="D621" s="7"/>
     </row>
-    <row r="622" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="622" spans="1:5" ht="31" x14ac:dyDescent="0.35">
       <c r="A622" s="3" t="s">
         <v>14</v>
       </c>
@@ -8416,7 +8418,7 @@
       </c>
       <c r="D622" s="7"/>
     </row>
-    <row r="623" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="623" spans="1:5" ht="31" x14ac:dyDescent="0.35">
       <c r="A623" s="3" t="s">
         <v>178</v>
       </c>
@@ -8426,7 +8428,7 @@
       </c>
       <c r="D623" s="7"/>
     </row>
-    <row r="624" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="624" spans="1:5" ht="31" x14ac:dyDescent="0.35">
       <c r="A624" s="3" t="s">
         <v>440</v>
       </c>
@@ -8436,7 +8438,7 @@
       </c>
       <c r="D624" s="7"/>
     </row>
-    <row r="625" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="625" spans="1:4" ht="31" x14ac:dyDescent="0.35">
       <c r="A625" s="3" t="s">
         <v>441</v>
       </c>
@@ -8446,7 +8448,7 @@
       </c>
       <c r="D625" s="7"/>
     </row>
-    <row r="626" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="626" spans="1:4" ht="31" x14ac:dyDescent="0.35">
       <c r="A626" s="3" t="s">
         <v>442</v>
       </c>
@@ -8456,7 +8458,7 @@
       </c>
       <c r="D626" s="7"/>
     </row>
-    <row r="627" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="627" spans="1:4" ht="31" x14ac:dyDescent="0.35">
       <c r="A627" s="3" t="s">
         <v>443</v>
       </c>
@@ -8466,7 +8468,7 @@
       </c>
       <c r="D627" s="7"/>
     </row>
-    <row r="628" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="628" spans="1:4" ht="31" x14ac:dyDescent="0.35">
       <c r="A628" s="3" t="s">
         <v>572</v>
       </c>
@@ -8476,7 +8478,7 @@
       </c>
       <c r="D628" s="7"/>
     </row>
-    <row r="629" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="629" spans="1:4" ht="31" x14ac:dyDescent="0.35">
       <c r="A629" s="3" t="s">
         <v>444</v>
       </c>
@@ -8486,7 +8488,7 @@
       </c>
       <c r="D629" s="7"/>
     </row>
-    <row r="630" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="630" spans="1:4" ht="31" x14ac:dyDescent="0.35">
       <c r="A630" s="3" t="s">
         <v>445</v>
       </c>
@@ -8495,7 +8497,7 @@
       </c>
       <c r="D630" s="7"/>
     </row>
-    <row r="631" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="631" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A631" s="3" t="s">
         <v>22</v>
       </c>
@@ -8504,7 +8506,7 @@
       </c>
       <c r="D631" s="7"/>
     </row>
-    <row r="632" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="632" spans="1:4" ht="31" x14ac:dyDescent="0.35">
       <c r="A632" s="3" t="s">
         <v>446</v>
       </c>
@@ -8513,7 +8515,7 @@
       </c>
       <c r="D632" s="7"/>
     </row>
-    <row r="633" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="633" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A633" s="3" t="s">
         <v>24</v>
       </c>
@@ -8522,7 +8524,7 @@
       </c>
       <c r="D633" s="7"/>
     </row>
-    <row r="634" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="634" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A634" s="3" t="s">
         <v>25</v>
       </c>
@@ -8531,7 +8533,7 @@
       </c>
       <c r="D634" s="7"/>
     </row>
-    <row r="635" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="635" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A635" s="3" t="s">
         <v>26</v>
       </c>
@@ -8539,7 +8541,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="636" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="636" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A636" s="3" t="s">
         <v>447</v>
       </c>
@@ -8547,7 +8549,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="637" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="637" spans="1:4" ht="31" x14ac:dyDescent="0.35">
       <c r="A637" s="3" t="s">
         <v>448</v>
       </c>
@@ -8557,7 +8559,7 @@
       <c r="C637" s="5"/>
       <c r="D637" s="5"/>
     </row>
-    <row r="638" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="638" spans="1:4" ht="31" x14ac:dyDescent="0.35">
       <c r="A638" s="3" t="s">
         <v>449</v>
       </c>
@@ -8567,7 +8569,7 @@
       <c r="C638" s="8"/>
       <c r="D638" s="8"/>
     </row>
-    <row r="639" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="639" spans="1:4" ht="31" x14ac:dyDescent="0.35">
       <c r="A639" s="3" t="s">
         <v>450</v>
       </c>
@@ -8577,7 +8579,7 @@
       <c r="C639" s="5"/>
       <c r="D639" s="5"/>
     </row>
-    <row r="640" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="640" spans="1:4" ht="31" x14ac:dyDescent="0.35">
       <c r="A640" s="3" t="s">
         <v>451</v>
       </c>
@@ -8587,7 +8589,7 @@
       <c r="C640" s="5"/>
       <c r="D640" s="5"/>
     </row>
-    <row r="641" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="641" spans="1:4" ht="31" x14ac:dyDescent="0.35">
       <c r="A641" s="3" t="s">
         <v>452</v>
       </c>
@@ -8597,7 +8599,7 @@
       <c r="C641" s="5"/>
       <c r="D641" s="5"/>
     </row>
-    <row r="642" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="642" spans="1:4" ht="31" x14ac:dyDescent="0.35">
       <c r="A642" s="3" t="s">
         <v>453</v>
       </c>
@@ -8607,7 +8609,7 @@
       <c r="C642" s="5"/>
       <c r="D642" s="5"/>
     </row>
-    <row r="643" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="643" spans="1:4" ht="31" x14ac:dyDescent="0.35">
       <c r="A643" s="3" t="s">
         <v>454</v>
       </c>
@@ -8617,7 +8619,7 @@
       <c r="C643" s="5"/>
       <c r="D643" s="5"/>
     </row>
-    <row r="644" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="644" spans="1:4" ht="31" x14ac:dyDescent="0.35">
       <c r="A644" s="3" t="s">
         <v>455</v>
       </c>
@@ -8627,7 +8629,7 @@
       <c r="C644" s="5"/>
       <c r="D644" s="5"/>
     </row>
-    <row r="645" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="645" spans="1:4" ht="31" x14ac:dyDescent="0.35">
       <c r="A645" s="3" t="s">
         <v>456</v>
       </c>
@@ -8637,7 +8639,7 @@
       <c r="C645" s="5"/>
       <c r="D645" s="5"/>
     </row>
-    <row r="646" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="646" spans="1:4" ht="31" x14ac:dyDescent="0.35">
       <c r="A646" s="3" t="s">
         <v>457</v>
       </c>
@@ -8647,7 +8649,7 @@
       <c r="C646" s="5"/>
       <c r="D646" s="5"/>
     </row>
-    <row r="647" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="647" spans="1:4" ht="31" x14ac:dyDescent="0.35">
       <c r="A647" s="3" t="s">
         <v>458</v>
       </c>
@@ -8657,7 +8659,7 @@
       <c r="C647" s="5"/>
       <c r="D647" s="5"/>
     </row>
-    <row r="648" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="648" spans="1:4" ht="31" x14ac:dyDescent="0.35">
       <c r="A648" s="3" t="s">
         <v>459</v>
       </c>
@@ -8667,7 +8669,7 @@
       <c r="C648" s="5"/>
       <c r="D648" s="5"/>
     </row>
-    <row r="649" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="649" spans="1:4" ht="31" x14ac:dyDescent="0.35">
       <c r="A649" s="3" t="s">
         <v>460</v>
       </c>
@@ -8677,7 +8679,7 @@
       <c r="C649" s="5"/>
       <c r="D649" s="5"/>
     </row>
-    <row r="650" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="650" spans="1:4" ht="31" x14ac:dyDescent="0.35">
       <c r="A650" s="3" t="s">
         <v>461</v>
       </c>
@@ -8687,7 +8689,7 @@
       <c r="C650" s="5"/>
       <c r="D650" s="5"/>
     </row>
-    <row r="651" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="651" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A651" s="3" t="s">
         <v>47</v>
       </c>
@@ -8695,7 +8697,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="652" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="652" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A652" s="3" t="s">
         <v>24</v>
       </c>
@@ -8703,7 +8705,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="653" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="653" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A653" s="3" t="s">
         <v>25</v>
       </c>
@@ -8711,7 +8713,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="654" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="654" spans="1:4" ht="31" x14ac:dyDescent="0.35">
       <c r="A654" s="3" t="s">
         <v>462</v>
       </c>
@@ -8719,7 +8721,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="655" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="655" spans="1:4" ht="31" x14ac:dyDescent="0.35">
       <c r="A655" s="3" t="s">
         <v>296</v>
       </c>
@@ -8729,7 +8731,7 @@
       <c r="C655" s="5"/>
       <c r="D655" s="5"/>
     </row>
-    <row r="656" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="656" spans="1:4" ht="31" x14ac:dyDescent="0.35">
       <c r="A656" s="3" t="s">
         <v>297</v>
       </c>
@@ -8739,7 +8741,7 @@
       <c r="C656" s="5"/>
       <c r="D656" s="5"/>
     </row>
-    <row r="657" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="657" spans="1:4" ht="31" x14ac:dyDescent="0.35">
       <c r="A657" s="3" t="s">
         <v>298</v>
       </c>
@@ -8749,7 +8751,7 @@
       <c r="C657" s="5"/>
       <c r="D657" s="5"/>
     </row>
-    <row r="658" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="658" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A658" s="3" t="s">
         <v>47</v>
       </c>
@@ -8757,7 +8759,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="659" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="659" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A659" s="3" t="s">
         <v>24</v>
       </c>
@@ -8765,7 +8767,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="660" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="660" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A660" s="3" t="s">
         <v>25</v>
       </c>
@@ -8773,7 +8775,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="661" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="661" spans="1:4" ht="31" x14ac:dyDescent="0.35">
       <c r="A661" s="3" t="s">
         <v>463</v>
       </c>
@@ -8781,7 +8783,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="662" spans="1:4" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="662" spans="1:4" ht="93" x14ac:dyDescent="0.35">
       <c r="A662" s="3" t="s">
         <v>464</v>
       </c>
@@ -8791,7 +8793,7 @@
       <c r="C662" s="5"/>
       <c r="D662" s="5"/>
     </row>
-    <row r="663" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="663" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A663" s="3" t="s">
         <v>53</v>
       </c>
@@ -8799,7 +8801,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="664" spans="1:4" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="664" spans="1:4" ht="93" x14ac:dyDescent="0.35">
       <c r="A664" s="3" t="s">
         <v>465</v>
       </c>
@@ -8809,7 +8811,7 @@
       <c r="C664" s="5"/>
       <c r="D664" s="5"/>
     </row>
-    <row r="665" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="665" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A665" s="3" t="s">
         <v>47</v>
       </c>
@@ -8817,7 +8819,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="666" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="666" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A666" s="3" t="s">
         <v>24</v>
       </c>
@@ -8825,7 +8827,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="667" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="667" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A667" s="3" t="s">
         <v>25</v>
       </c>
@@ -8833,7 +8835,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="668" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="668" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A668" s="3" t="s">
         <v>466</v>
       </c>
@@ -8845,7 +8847,7 @@
       </c>
       <c r="D668" s="5"/>
     </row>
-    <row r="669" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="669" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A669" s="3" t="s">
         <v>467</v>
       </c>
@@ -8855,7 +8857,7 @@
       </c>
       <c r="D669" s="5"/>
     </row>
-    <row r="670" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="670" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A670" s="3" t="s">
         <v>468</v>
       </c>
@@ -8865,7 +8867,7 @@
       </c>
       <c r="D670" s="5"/>
     </row>
-    <row r="671" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="671" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A671" s="3" t="s">
         <v>469</v>
       </c>
@@ -8875,7 +8877,7 @@
       </c>
       <c r="D671" s="5"/>
     </row>
-    <row r="672" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="672" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A672" s="3" t="s">
         <v>470</v>
       </c>
@@ -8885,7 +8887,7 @@
       </c>
       <c r="D672" s="5"/>
     </row>
-    <row r="673" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="673" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A673" s="3" t="s">
         <v>82</v>
       </c>
@@ -8895,7 +8897,7 @@
       </c>
       <c r="D673" s="5"/>
     </row>
-    <row r="674" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="674" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A674" s="3" t="s">
         <v>471</v>
       </c>
@@ -8905,7 +8907,7 @@
       </c>
       <c r="D674" s="5"/>
     </row>
-    <row r="675" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="675" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A675" s="3" t="s">
         <v>83</v>
       </c>
@@ -8915,7 +8917,7 @@
       </c>
       <c r="D675" s="7"/>
     </row>
-    <row r="676" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="676" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A676" s="3" t="s">
         <v>85</v>
       </c>
@@ -8925,7 +8927,7 @@
       </c>
       <c r="D676" s="5"/>
     </row>
-    <row r="677" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="677" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A677" s="3" t="s">
         <v>472</v>
       </c>
@@ -8935,7 +8937,7 @@
       </c>
       <c r="D677" s="5"/>
     </row>
-    <row r="678" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="678" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A678" s="3" t="s">
         <v>53</v>
       </c>
@@ -8945,7 +8947,7 @@
       </c>
       <c r="D678" s="5"/>
     </row>
-    <row r="679" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="679" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A679" s="3" t="s">
         <v>473</v>
       </c>
@@ -8955,7 +8957,7 @@
       </c>
       <c r="D679" s="5"/>
     </row>
-    <row r="680" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="680" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A680" s="3" t="s">
         <v>47</v>
       </c>
@@ -8965,7 +8967,7 @@
       </c>
       <c r="D680" s="5"/>
     </row>
-    <row r="681" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="681" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A681" s="3" t="s">
         <v>24</v>
       </c>
@@ -8975,7 +8977,7 @@
       </c>
       <c r="D681" s="5"/>
     </row>
-    <row r="682" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="682" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A682" s="3" t="s">
         <v>25</v>
       </c>
@@ -8985,7 +8987,7 @@
       </c>
       <c r="D682" s="5"/>
     </row>
-    <row r="683" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="683" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A683" s="3" t="s">
         <v>474</v>
       </c>
@@ -8997,7 +8999,7 @@
       </c>
       <c r="D683" s="5"/>
     </row>
-    <row r="684" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="684" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A684" s="3" t="s">
         <v>475</v>
       </c>
@@ -9007,7 +9009,7 @@
       </c>
       <c r="D684" s="5"/>
     </row>
-    <row r="685" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="685" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A685" s="3" t="s">
         <v>476</v>
       </c>
@@ -9017,7 +9019,7 @@
       </c>
       <c r="D685" s="5"/>
     </row>
-    <row r="686" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="686" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A686" s="3" t="s">
         <v>53</v>
       </c>
@@ -9027,7 +9029,7 @@
       </c>
       <c r="D686" s="5"/>
     </row>
-    <row r="687" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="687" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A687" s="3" t="s">
         <v>477</v>
       </c>
@@ -9037,7 +9039,7 @@
       </c>
       <c r="D687" s="5"/>
     </row>
-    <row r="688" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="688" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A688" s="3" t="s">
         <v>478</v>
       </c>
@@ -9047,7 +9049,7 @@
       </c>
       <c r="D688" s="5"/>
     </row>
-    <row r="689" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="689" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A689" s="3" t="s">
         <v>47</v>
       </c>
@@ -9057,7 +9059,7 @@
       </c>
       <c r="D689" s="5"/>
     </row>
-    <row r="690" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="690" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A690" s="3" t="s">
         <v>24</v>
       </c>
@@ -9067,7 +9069,7 @@
       </c>
       <c r="D690" s="5"/>
     </row>
-    <row r="691" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="691" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A691" s="3" t="s">
         <v>25</v>
       </c>
@@ -9077,7 +9079,7 @@
       </c>
       <c r="D691" s="5"/>
     </row>
-    <row r="692" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="692" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A692" s="3" t="s">
         <v>479</v>
       </c>
@@ -9087,7 +9089,7 @@
       <c r="C692" s="5"/>
       <c r="D692" s="5"/>
     </row>
-    <row r="693" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="693" spans="1:4" ht="31" x14ac:dyDescent="0.35">
       <c r="A693" s="3" t="s">
         <v>480</v>
       </c>
@@ -9097,7 +9099,7 @@
       <c r="C693" s="5"/>
       <c r="D693" s="7"/>
     </row>
-    <row r="694" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="694" spans="1:4" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A694" s="3" t="s">
         <v>481</v>
       </c>
@@ -9107,7 +9109,7 @@
       <c r="C694" s="5"/>
       <c r="D694" s="7"/>
     </row>
-    <row r="695" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="695" spans="1:4" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A695" s="3" t="s">
         <v>482</v>
       </c>
@@ -9117,7 +9119,7 @@
       <c r="C695" s="5"/>
       <c r="D695" s="7"/>
     </row>
-    <row r="696" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="696" spans="1:4" ht="31" x14ac:dyDescent="0.35">
       <c r="A696" s="3" t="s">
         <v>483</v>
       </c>
@@ -9127,7 +9129,7 @@
       <c r="C696" s="5"/>
       <c r="D696" s="7"/>
     </row>
-    <row r="697" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="697" spans="1:4" ht="31" x14ac:dyDescent="0.35">
       <c r="A697" s="3" t="s">
         <v>484</v>
       </c>
@@ -9137,7 +9139,7 @@
       <c r="C697" s="5"/>
       <c r="D697" s="7"/>
     </row>
-    <row r="698" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="698" spans="1:4" ht="31" x14ac:dyDescent="0.35">
       <c r="A698" s="3" t="s">
         <v>485</v>
       </c>
@@ -9147,7 +9149,7 @@
       <c r="C698" s="5"/>
       <c r="D698" s="7"/>
     </row>
-    <row r="699" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="699" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A699" s="3" t="s">
         <v>53</v>
       </c>
@@ -9155,7 +9157,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="700" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="700" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A700" s="3" t="s">
         <v>47</v>
       </c>
@@ -9163,7 +9165,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="701" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="701" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A701" s="3" t="s">
         <v>24</v>
       </c>
@@ -9171,7 +9173,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="702" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="702" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A702" s="3" t="s">
         <v>25</v>
       </c>
@@ -9179,7 +9181,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="703" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="703" spans="1:4" ht="31" x14ac:dyDescent="0.35">
       <c r="A703" s="3" t="s">
         <v>486</v>
       </c>
@@ -9187,7 +9189,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="704" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="704" spans="1:4" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A704" s="3" t="s">
         <v>487</v>
       </c>
@@ -9197,7 +9199,7 @@
       <c r="C704" s="5"/>
       <c r="D704" s="5"/>
     </row>
-    <row r="705" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="705" spans="1:4" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A705" s="3" t="s">
         <v>488</v>
       </c>
@@ -9207,7 +9209,7 @@
       <c r="C705" s="5"/>
       <c r="D705" s="5"/>
     </row>
-    <row r="706" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="706" spans="1:4" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A706" s="3" t="s">
         <v>489</v>
       </c>
@@ -9217,7 +9219,7 @@
       <c r="C706" s="5"/>
       <c r="D706" s="7"/>
     </row>
-    <row r="707" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="707" spans="1:4" ht="31" x14ac:dyDescent="0.35">
       <c r="A707" s="3" t="s">
         <v>490</v>
       </c>
@@ -9227,7 +9229,7 @@
       <c r="C707" s="5"/>
       <c r="D707" s="5"/>
     </row>
-    <row r="708" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="708" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A708" s="3" t="s">
         <v>491</v>
       </c>
@@ -9237,7 +9239,7 @@
       <c r="C708" s="5"/>
       <c r="D708" s="5"/>
     </row>
-    <row r="709" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="709" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A709" s="3" t="s">
         <v>53</v>
       </c>
@@ -9247,7 +9249,7 @@
       <c r="C709" s="5"/>
       <c r="D709" s="5"/>
     </row>
-    <row r="710" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="710" spans="1:4" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A710" s="3" t="s">
         <v>492</v>
       </c>
@@ -9257,7 +9259,7 @@
       <c r="C710" s="5"/>
       <c r="D710" s="7"/>
     </row>
-    <row r="711" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="711" spans="1:4" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A711" s="3" t="s">
         <v>493</v>
       </c>
@@ -9267,7 +9269,7 @@
       <c r="C711" s="5"/>
       <c r="D711" s="7"/>
     </row>
-    <row r="712" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="712" spans="1:4" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A712" s="3" t="s">
         <v>494</v>
       </c>
@@ -9277,7 +9279,7 @@
       <c r="C712" s="5"/>
       <c r="D712" s="5"/>
     </row>
-    <row r="713" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="713" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A713" s="3" t="s">
         <v>47</v>
       </c>
@@ -9285,7 +9287,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="714" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="714" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A714" s="3" t="s">
         <v>24</v>
       </c>
@@ -9293,7 +9295,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="715" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="715" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A715" s="3" t="s">
         <v>25</v>
       </c>
@@ -9301,7 +9303,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="716" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="716" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A716" s="3" t="s">
         <v>495</v>
       </c>
@@ -9311,7 +9313,7 @@
       <c r="C716" s="5"/>
       <c r="D716" s="5"/>
     </row>
-    <row r="717" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="717" spans="1:4" ht="31" x14ac:dyDescent="0.35">
       <c r="A717" s="3" t="s">
         <v>496</v>
       </c>
@@ -9321,7 +9323,7 @@
       <c r="C717" s="5"/>
       <c r="D717" s="7"/>
     </row>
-    <row r="718" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="718" spans="1:4" ht="31" x14ac:dyDescent="0.35">
       <c r="A718" s="3" t="s">
         <v>497</v>
       </c>
@@ -9331,7 +9333,7 @@
       <c r="C718" s="5"/>
       <c r="D718" s="7"/>
     </row>
-    <row r="719" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+    <row r="719" spans="1:4" ht="62" x14ac:dyDescent="0.35">
       <c r="A719" s="3" t="s">
         <v>498</v>
       </c>
@@ -9341,7 +9343,7 @@
       <c r="C719" s="5"/>
       <c r="D719" s="7"/>
     </row>
-    <row r="720" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+    <row r="720" spans="1:4" ht="62" x14ac:dyDescent="0.35">
       <c r="A720" s="3" t="s">
         <v>499</v>
       </c>
@@ -9351,7 +9353,7 @@
       <c r="C720" s="5"/>
       <c r="D720" s="5"/>
     </row>
-    <row r="721" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+    <row r="721" spans="1:4" ht="62" x14ac:dyDescent="0.35">
       <c r="A721" s="3" t="s">
         <v>500</v>
       </c>
@@ -9361,7 +9363,7 @@
       <c r="C721" s="5"/>
       <c r="D721" s="5"/>
     </row>
-    <row r="722" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="722" spans="1:4" ht="31" x14ac:dyDescent="0.35">
       <c r="A722" s="3" t="s">
         <v>501</v>
       </c>
@@ -9371,7 +9373,7 @@
       <c r="C722" s="5"/>
       <c r="D722" s="5"/>
     </row>
-    <row r="723" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="723" spans="1:4" ht="31" x14ac:dyDescent="0.35">
       <c r="A723" s="3" t="s">
         <v>502</v>
       </c>
@@ -9381,7 +9383,7 @@
       <c r="C723" s="5"/>
       <c r="D723" s="5"/>
     </row>
-    <row r="724" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+    <row r="724" spans="1:4" ht="62" x14ac:dyDescent="0.35">
       <c r="A724" s="3" t="s">
         <v>503</v>
       </c>
@@ -9391,7 +9393,7 @@
       <c r="C724" s="5"/>
       <c r="D724" s="5"/>
     </row>
-    <row r="725" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="725" spans="1:4" ht="31" x14ac:dyDescent="0.35">
       <c r="A725" s="3" t="s">
         <v>504</v>
       </c>
@@ -9401,7 +9403,7 @@
       <c r="C725" s="5"/>
       <c r="D725" s="5"/>
     </row>
-    <row r="726" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="726" spans="1:4" ht="31" x14ac:dyDescent="0.35">
       <c r="A726" s="3" t="s">
         <v>505</v>
       </c>
@@ -9411,7 +9413,7 @@
       <c r="C726" s="5"/>
       <c r="D726" s="5"/>
     </row>
-    <row r="727" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="727" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A727" s="3" t="s">
         <v>47</v>
       </c>
@@ -9421,7 +9423,7 @@
       <c r="C727" s="5"/>
       <c r="D727" s="5"/>
     </row>
-    <row r="728" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="728" spans="1:4" ht="31" x14ac:dyDescent="0.35">
       <c r="A728" s="3" t="s">
         <v>506</v>
       </c>
@@ -9431,7 +9433,7 @@
       <c r="C728" s="5"/>
       <c r="D728" s="5"/>
     </row>
-    <row r="729" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="729" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A729" s="3" t="s">
         <v>24</v>
       </c>
@@ -9439,7 +9441,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="730" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="730" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A730" s="3" t="s">
         <v>25</v>
       </c>
@@ -9447,7 +9449,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="731" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="731" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A731" s="3" t="s">
         <v>507</v>
       </c>
@@ -9455,7 +9457,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="732" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="732" spans="1:4" ht="62" x14ac:dyDescent="0.35">
       <c r="A732" s="3" t="s">
         <v>508</v>
       </c>
@@ -9465,7 +9467,7 @@
       <c r="C732" s="5"/>
       <c r="D732" s="5"/>
     </row>
-    <row r="733" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="733" spans="1:4" ht="31" x14ac:dyDescent="0.35">
       <c r="A733" s="3" t="s">
         <v>509</v>
       </c>
@@ -9475,7 +9477,7 @@
       <c r="C733" s="5"/>
       <c r="D733" s="5"/>
     </row>
-    <row r="734" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="734" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A734" s="3" t="s">
         <v>53</v>
       </c>
@@ -9483,7 +9485,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="735" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="735" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A735" s="3" t="s">
         <v>47</v>
       </c>
@@ -9491,7 +9493,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="736" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="736" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A736" s="3" t="s">
         <v>25</v>
       </c>
@@ -9499,12 +9501,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="737" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="737" spans="1:4" ht="31" x14ac:dyDescent="0.35">
       <c r="A737" s="3" t="s">
         <v>510</v>
       </c>
     </row>
-    <row r="738" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="738" spans="1:4" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A738" s="3" t="s">
         <v>511</v>
       </c>
@@ -9514,7 +9516,7 @@
       <c r="C738" s="5"/>
       <c r="D738" s="5"/>
     </row>
-    <row r="739" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="739" spans="1:4" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A739" s="3" t="s">
         <v>512</v>
       </c>
@@ -9524,7 +9526,7 @@
       <c r="C739" s="5"/>
       <c r="D739" s="7"/>
     </row>
-    <row r="740" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="740" spans="1:4" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A740" s="3" t="s">
         <v>513</v>
       </c>
@@ -9534,7 +9536,7 @@
       <c r="C740" s="5"/>
       <c r="D740" s="5"/>
     </row>
-    <row r="741" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="741" spans="1:4" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A741" s="3" t="s">
         <v>514</v>
       </c>
@@ -9544,7 +9546,7 @@
       <c r="C741" s="5"/>
       <c r="D741" s="5"/>
     </row>
-    <row r="742" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="742" spans="1:4" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A742" s="3" t="s">
         <v>515</v>
       </c>
@@ -9554,7 +9556,7 @@
       <c r="C742" s="5"/>
       <c r="D742" s="7"/>
     </row>
-    <row r="743" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="743" spans="1:4" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A743" s="3" t="s">
         <v>516</v>
       </c>
@@ -9564,7 +9566,7 @@
       <c r="C743" s="5"/>
       <c r="D743" s="5"/>
     </row>
-    <row r="744" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="744" spans="1:4" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A744" s="3" t="s">
         <v>517</v>
       </c>
@@ -9574,7 +9576,7 @@
       <c r="C744" s="5"/>
       <c r="D744" s="5"/>
     </row>
-    <row r="745" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="745" spans="1:4" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A745" s="3" t="s">
         <v>518</v>
       </c>
@@ -9584,7 +9586,7 @@
       <c r="C745" s="5"/>
       <c r="D745" s="5"/>
     </row>
-    <row r="746" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="746" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A746" s="3" t="s">
         <v>53</v>
       </c>
@@ -9592,7 +9594,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="747" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="747" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A747" s="3" t="s">
         <v>47</v>
       </c>
@@ -9600,7 +9602,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="748" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="748" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A748" s="3" t="s">
         <v>24</v>
       </c>
@@ -9608,7 +9610,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="749" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="749" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A749" s="3" t="s">
         <v>25</v>
       </c>
@@ -9616,7 +9618,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="750" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="750" spans="1:4" ht="31" x14ac:dyDescent="0.35">
       <c r="A750" s="5" t="s">
         <v>519</v>
       </c>
@@ -9626,7 +9628,7 @@
       <c r="C750" s="5"/>
       <c r="D750" s="5"/>
     </row>
-    <row r="751" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+    <row r="751" spans="1:4" ht="62" x14ac:dyDescent="0.35">
       <c r="A751" s="5" t="s">
         <v>520</v>
       </c>
@@ -9636,7 +9638,7 @@
       <c r="C751" s="5"/>
       <c r="D751" s="5"/>
     </row>
-    <row r="752" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+    <row r="752" spans="1:4" ht="62" x14ac:dyDescent="0.35">
       <c r="A752" s="5" t="s">
         <v>521</v>
       </c>
@@ -9646,7 +9648,7 @@
       <c r="C752" s="5"/>
       <c r="D752" s="5"/>
     </row>
-    <row r="753" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+    <row r="753" spans="1:4" ht="62" x14ac:dyDescent="0.35">
       <c r="A753" s="5" t="s">
         <v>522</v>
       </c>
@@ -9656,7 +9658,7 @@
       <c r="C753" s="5"/>
       <c r="D753" s="5"/>
     </row>
-    <row r="754" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+    <row r="754" spans="1:4" ht="62" x14ac:dyDescent="0.35">
       <c r="A754" s="5" t="s">
         <v>523</v>
       </c>
@@ -9666,7 +9668,7 @@
       <c r="C754" s="5"/>
       <c r="D754" s="5"/>
     </row>
-    <row r="755" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="755" spans="1:4" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A755" s="5" t="s">
         <v>47</v>
       </c>
@@ -9676,7 +9678,7 @@
       <c r="C755" s="5"/>
       <c r="D755" s="5"/>
     </row>
-    <row r="756" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="756" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A756" s="5" t="s">
         <v>24</v>
       </c>
@@ -9686,7 +9688,7 @@
       <c r="C756" s="5"/>
       <c r="D756" s="5"/>
     </row>
-    <row r="757" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="757" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A757" s="5" t="s">
         <v>25</v>
       </c>
@@ -9696,19 +9698,19 @@
       <c r="C757" s="5"/>
       <c r="D757" s="5"/>
     </row>
-    <row r="759" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="759" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A759" s="1" t="s">
         <v>530</v>
       </c>
     </row>
-    <row r="760" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="760" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A760" s="3" t="s">
         <v>63</v>
       </c>
       <c r="C760" s="6"/>
       <c r="D760" s="4"/>
     </row>
-    <row r="761" spans="1:4" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="761" spans="1:4" ht="77.5" x14ac:dyDescent="0.35">
       <c r="A761" s="3" t="s">
         <v>531</v>
       </c>
@@ -9722,7 +9724,7 @@
         <v>696</v>
       </c>
     </row>
-    <row r="762" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="762" spans="1:4" ht="31" x14ac:dyDescent="0.35">
       <c r="A762" s="3" t="s">
         <v>14</v>
       </c>
@@ -9734,7 +9736,7 @@
       </c>
       <c r="D762" s="5"/>
     </row>
-    <row r="763" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="763" spans="1:4" ht="31" x14ac:dyDescent="0.35">
       <c r="A763" s="3" t="s">
         <v>532</v>
       </c>
@@ -9744,7 +9746,7 @@
       </c>
       <c r="D763" s="5"/>
     </row>
-    <row r="764" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="764" spans="1:4" ht="31" x14ac:dyDescent="0.35">
       <c r="A764" s="3" t="s">
         <v>533</v>
       </c>
@@ -9754,7 +9756,7 @@
       </c>
       <c r="D764" s="5"/>
     </row>
-    <row r="765" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="765" spans="1:4" ht="31" x14ac:dyDescent="0.35">
       <c r="A765" s="3" t="s">
         <v>534</v>
       </c>
@@ -9764,7 +9766,7 @@
       </c>
       <c r="D765" s="5"/>
     </row>
-    <row r="766" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="766" spans="1:4" ht="31" x14ac:dyDescent="0.35">
       <c r="A766" s="3" t="s">
         <v>535</v>
       </c>
@@ -9774,7 +9776,7 @@
       </c>
       <c r="D766" s="5"/>
     </row>
-    <row r="767" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="767" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A767" s="3" t="s">
         <v>22</v>
       </c>
@@ -9784,7 +9786,7 @@
       </c>
       <c r="D767" s="5"/>
     </row>
-    <row r="768" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="768" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A768" s="3" t="s">
         <v>24</v>
       </c>
@@ -9794,7 +9796,7 @@
       </c>
       <c r="D768" s="5"/>
     </row>
-    <row r="769" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="769" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A769" s="3" t="s">
         <v>25</v>
       </c>
@@ -9804,7 +9806,7 @@
       </c>
       <c r="D769" s="5"/>
     </row>
-    <row r="770" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="770" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A770" s="3" t="s">
         <v>26</v>
       </c>
@@ -9812,7 +9814,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="771" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="771" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A771" s="3" t="s">
         <v>27</v>
       </c>
@@ -9820,7 +9822,7 @@
         <v>862</v>
       </c>
     </row>
-    <row r="772" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="772" spans="1:4" ht="31" x14ac:dyDescent="0.35">
       <c r="A772" s="3" t="s">
         <v>28</v>
       </c>
@@ -9830,7 +9832,7 @@
       <c r="C772" s="5"/>
       <c r="D772" s="5"/>
     </row>
-    <row r="773" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="773" spans="1:4" ht="31" x14ac:dyDescent="0.35">
       <c r="A773" s="3" t="s">
         <v>77</v>
       </c>
@@ -9840,7 +9842,7 @@
       <c r="C773" s="5"/>
       <c r="D773" s="5"/>
     </row>
-    <row r="774" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="774" spans="1:4" ht="31" x14ac:dyDescent="0.35">
       <c r="A774" s="3" t="s">
         <v>29</v>
       </c>
@@ -9850,7 +9852,7 @@
       <c r="C774" s="5"/>
       <c r="D774" s="7"/>
     </row>
-    <row r="775" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="775" spans="1:4" ht="31" x14ac:dyDescent="0.35">
       <c r="A775" s="3" t="s">
         <v>79</v>
       </c>
@@ -9860,7 +9862,7 @@
       <c r="C775" s="5"/>
       <c r="D775" s="7"/>
     </row>
-    <row r="776" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="776" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A776" s="3" t="s">
         <v>53</v>
       </c>
@@ -9869,7 +9871,7 @@
       </c>
       <c r="C776" s="5"/>
     </row>
-    <row r="777" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="777" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A777" s="3" t="s">
         <v>47</v>
       </c>
@@ -9878,7 +9880,7 @@
       </c>
       <c r="C777" s="5"/>
     </row>
-    <row r="778" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="778" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A778" s="3" t="s">
         <v>24</v>
       </c>
@@ -9887,7 +9889,7 @@
       </c>
       <c r="C778" s="5"/>
     </row>
-    <row r="779" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="779" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A779" s="3" t="s">
         <v>25</v>
       </c>
@@ -9896,7 +9898,7 @@
       </c>
       <c r="C779" s="5"/>
     </row>
-    <row r="780" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="780" spans="1:4" ht="31" x14ac:dyDescent="0.35">
       <c r="A780" s="3" t="s">
         <v>536</v>
       </c>
@@ -9905,7 +9907,7 @@
       </c>
       <c r="C780" s="5"/>
     </row>
-    <row r="781" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="781" spans="1:4" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A781" s="3" t="s">
         <v>537</v>
       </c>
@@ -9915,7 +9917,7 @@
       <c r="C781" s="5"/>
       <c r="D781" s="7"/>
     </row>
-    <row r="782" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="782" spans="1:4" ht="31" x14ac:dyDescent="0.35">
       <c r="A782" s="3" t="s">
         <v>538</v>
       </c>
@@ -9925,7 +9927,7 @@
       <c r="C782" s="5"/>
       <c r="D782" s="7"/>
     </row>
-    <row r="783" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="783" spans="1:4" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A783" s="3" t="s">
         <v>539</v>
       </c>
@@ -9935,7 +9937,7 @@
       <c r="C783" s="5"/>
       <c r="D783" s="7"/>
     </row>
-    <row r="784" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="784" spans="1:4" ht="31" x14ac:dyDescent="0.35">
       <c r="A784" s="3" t="s">
         <v>540</v>
       </c>
@@ -9945,7 +9947,7 @@
       <c r="C784" s="5"/>
       <c r="D784" s="7"/>
     </row>
-    <row r="785" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="785" spans="1:5" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A785" s="3" t="s">
         <v>541</v>
       </c>
@@ -9955,7 +9957,7 @@
       <c r="C785" s="5"/>
       <c r="D785" s="7"/>
     </row>
-    <row r="786" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="786" spans="1:5" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A786" s="3" t="s">
         <v>542</v>
       </c>
@@ -9965,7 +9967,7 @@
       <c r="C786" s="5"/>
       <c r="D786" s="7"/>
     </row>
-    <row r="787" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="787" spans="1:5" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A787" s="3" t="s">
         <v>543</v>
       </c>
@@ -9975,7 +9977,7 @@
       <c r="C787" s="5"/>
       <c r="D787" s="7"/>
     </row>
-    <row r="788" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="788" spans="1:5" ht="31" x14ac:dyDescent="0.35">
       <c r="A788" s="3" t="s">
         <v>544</v>
       </c>
@@ -9985,7 +9987,7 @@
       <c r="C788" s="5"/>
       <c r="D788" s="7"/>
     </row>
-    <row r="789" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="789" spans="1:5" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A789" s="3" t="s">
         <v>545</v>
       </c>
@@ -9995,7 +9997,7 @@
       <c r="C789" s="5"/>
       <c r="D789" s="7"/>
     </row>
-    <row r="790" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="790" spans="1:5" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A790" s="3" t="s">
         <v>546</v>
       </c>
@@ -10005,7 +10007,7 @@
       <c r="C790" s="5"/>
       <c r="D790" s="7"/>
     </row>
-    <row r="791" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="791" spans="1:5" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A791" s="3" t="s">
         <v>547</v>
       </c>
@@ -10015,7 +10017,7 @@
       <c r="C791" s="5"/>
       <c r="D791" s="7"/>
     </row>
-    <row r="792" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="792" spans="1:5" ht="31" x14ac:dyDescent="0.35">
       <c r="A792" s="3" t="s">
         <v>548</v>
       </c>
@@ -10025,7 +10027,7 @@
       <c r="C792" s="5"/>
       <c r="D792" s="7"/>
     </row>
-    <row r="793" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="793" spans="1:5" ht="31" x14ac:dyDescent="0.35">
       <c r="A793" s="3" t="s">
         <v>549</v>
       </c>
@@ -10035,7 +10037,7 @@
       <c r="C793" s="5"/>
       <c r="D793" s="7"/>
     </row>
-    <row r="794" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="794" spans="1:5" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A794" s="3" t="s">
         <v>550</v>
       </c>
@@ -10045,7 +10047,7 @@
       <c r="C794" s="5"/>
       <c r="D794" s="7"/>
     </row>
-    <row r="795" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="795" spans="1:5" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A795" s="3" t="s">
         <v>551</v>
       </c>
@@ -10055,7 +10057,7 @@
       <c r="C795" s="5"/>
       <c r="D795" s="7"/>
     </row>
-    <row r="796" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="796" spans="1:5" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A796" s="3" t="s">
         <v>552</v>
       </c>
@@ -10066,7 +10068,7 @@
       <c r="D796" s="7"/>
       <c r="E796" s="4"/>
     </row>
-    <row r="797" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="797" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A797" s="3" t="s">
         <v>47</v>
       </c>
@@ -10076,7 +10078,7 @@
       <c r="C797" s="5"/>
       <c r="D797" s="5"/>
     </row>
-    <row r="798" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="798" spans="1:5" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A798" s="3" t="s">
         <v>553</v>
       </c>
@@ -10087,7 +10089,7 @@
       <c r="D798" s="7"/>
       <c r="E798" s="4"/>
     </row>
-    <row r="799" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="799" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A799" s="3" t="s">
         <v>24</v>
       </c>
@@ -10095,7 +10097,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="800" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="800" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A800" s="3" t="s">
         <v>25</v>
       </c>
@@ -10103,7 +10105,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="801" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="801" spans="1:4" ht="31" x14ac:dyDescent="0.35">
       <c r="A801" s="3" t="s">
         <v>172</v>
       </c>
@@ -10111,7 +10113,7 @@
         <v>863</v>
       </c>
     </row>
-    <row r="802" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="802" spans="1:4" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A802" s="3" t="s">
         <v>89</v>
       </c>
@@ -10121,7 +10123,7 @@
       <c r="C802" s="5"/>
       <c r="D802" s="5"/>
     </row>
-    <row r="803" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="803" spans="1:4" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A803" s="3" t="s">
         <v>90</v>
       </c>
@@ -10131,7 +10133,7 @@
       <c r="C803" s="5"/>
       <c r="D803" s="5"/>
     </row>
-    <row r="804" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="804" spans="1:4" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A804" s="3" t="s">
         <v>173</v>
       </c>
@@ -10141,7 +10143,7 @@
       <c r="C804" s="5"/>
       <c r="D804" s="5"/>
     </row>
-    <row r="805" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="805" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A805" s="3" t="s">
         <v>47</v>
       </c>
@@ -10149,7 +10151,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="806" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="806" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A806" s="3" t="s">
         <v>554</v>
       </c>
@@ -10157,7 +10159,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="807" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="807" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A807" s="3" t="s">
         <v>174</v>
       </c>
@@ -10165,7 +10167,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="808" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="808" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A808" s="3" t="s">
         <v>89</v>
       </c>
@@ -10173,7 +10175,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="809" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="809" spans="1:4" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A809" s="3" t="s">
         <v>175</v>
       </c>
@@ -10183,7 +10185,7 @@
       <c r="C809" s="5"/>
       <c r="D809" s="7"/>
     </row>
-    <row r="810" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="810" spans="1:4" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A810" s="3" t="s">
         <v>176</v>
       </c>
@@ -10193,7 +10195,7 @@
       <c r="C810" s="5"/>
       <c r="D810" s="7"/>
     </row>
-    <row r="811" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="811" spans="1:4" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A811" s="3" t="s">
         <v>177</v>
       </c>
@@ -10203,7 +10205,7 @@
       <c r="C811" s="5"/>
       <c r="D811" s="7"/>
     </row>
-    <row r="812" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="812" spans="1:4" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A812" s="3" t="s">
         <v>178</v>
       </c>
@@ -10213,7 +10215,7 @@
       <c r="C812" s="5"/>
       <c r="D812" s="7"/>
     </row>
-    <row r="813" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="813" spans="1:4" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A813" s="3" t="s">
         <v>179</v>
       </c>
@@ -10223,7 +10225,7 @@
       <c r="C813" s="5"/>
       <c r="D813" s="7"/>
     </row>
-    <row r="814" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="814" spans="1:4" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A814" s="3" t="s">
         <v>180</v>
       </c>
@@ -10233,7 +10235,7 @@
       <c r="C814" s="5"/>
       <c r="D814" s="7"/>
     </row>
-    <row r="815" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="815" spans="1:4" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A815" s="3" t="s">
         <v>181</v>
       </c>
@@ -10243,7 +10245,7 @@
       <c r="C815" s="5"/>
       <c r="D815" s="7"/>
     </row>
-    <row r="816" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="816" spans="1:4" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A816" s="3" t="s">
         <v>182</v>
       </c>
@@ -10253,7 +10255,7 @@
       <c r="C816" s="5"/>
       <c r="D816" s="7"/>
     </row>
-    <row r="817" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="817" spans="1:4" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A817" s="3" t="s">
         <v>183</v>
       </c>
@@ -10263,7 +10265,7 @@
       <c r="C817" s="5"/>
       <c r="D817" s="7"/>
     </row>
-    <row r="818" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="818" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A818" s="3" t="s">
         <v>47</v>
       </c>
@@ -10271,7 +10273,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="819" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="819" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A819" s="3" t="s">
         <v>24</v>
       </c>
@@ -10279,7 +10281,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="820" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="820" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A820" s="3" t="s">
         <v>25</v>
       </c>
@@ -10287,7 +10289,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="821" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="821" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A821" s="3" t="s">
         <v>184</v>
       </c>
@@ -10299,7 +10301,7 @@
       </c>
       <c r="D821" s="5"/>
     </row>
-    <row r="822" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="822" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A822" s="3" t="s">
         <v>217</v>
       </c>
@@ -10309,7 +10311,7 @@
       </c>
       <c r="D822" s="5"/>
     </row>
-    <row r="823" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="823" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A823" s="3" t="s">
         <v>476</v>
       </c>
@@ -10319,7 +10321,7 @@
       </c>
       <c r="D823" s="5"/>
     </row>
-    <row r="824" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="824" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A824" s="3" t="s">
         <v>477</v>
       </c>
@@ -10329,7 +10331,7 @@
       </c>
       <c r="D824" s="5"/>
     </row>
-    <row r="825" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="825" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A825" s="3" t="s">
         <v>478</v>
       </c>
@@ -10339,7 +10341,7 @@
       </c>
       <c r="D825" s="5"/>
     </row>
-    <row r="826" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="826" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A826" s="3" t="s">
         <v>555</v>
       </c>
@@ -10349,7 +10351,7 @@
       </c>
       <c r="D826" s="5"/>
     </row>
-    <row r="827" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="827" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A827" s="3" t="s">
         <v>556</v>
       </c>
@@ -10359,7 +10361,7 @@
       </c>
       <c r="D827" s="5"/>
     </row>
-    <row r="828" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="828" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A828" s="3" t="s">
         <v>47</v>
       </c>
@@ -10369,7 +10371,7 @@
       </c>
       <c r="D828" s="5"/>
     </row>
-    <row r="829" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="829" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A829" s="3" t="s">
         <v>24</v>
       </c>
@@ -10379,7 +10381,7 @@
       </c>
       <c r="D829" s="5"/>
     </row>
-    <row r="830" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="830" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A830" s="3" t="s">
         <v>25</v>
       </c>
@@ -10389,7 +10391,7 @@
       </c>
       <c r="D830" s="5"/>
     </row>
-    <row r="831" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="831" spans="1:4" ht="31" x14ac:dyDescent="0.35">
       <c r="A831" s="3" t="s">
         <v>294</v>
       </c>
@@ -10397,7 +10399,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="832" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="832" spans="1:4" ht="31" x14ac:dyDescent="0.35">
       <c r="A832" s="3" t="s">
         <v>295</v>
       </c>
@@ -10407,7 +10409,7 @@
       <c r="C832" s="5"/>
       <c r="D832" s="5"/>
     </row>
-    <row r="833" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="833" spans="1:4" ht="31" x14ac:dyDescent="0.35">
       <c r="A833" s="3" t="s">
         <v>296</v>
       </c>
@@ -10417,7 +10419,7 @@
       <c r="C833" s="5"/>
       <c r="D833" s="5"/>
     </row>
-    <row r="834" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="834" spans="1:4" ht="31" x14ac:dyDescent="0.35">
       <c r="A834" s="3" t="s">
         <v>297</v>
       </c>
@@ -10427,7 +10429,7 @@
       <c r="C834" s="5"/>
       <c r="D834" s="5"/>
     </row>
-    <row r="835" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="835" spans="1:4" ht="31" x14ac:dyDescent="0.35">
       <c r="A835" s="3" t="s">
         <v>298</v>
       </c>
@@ -10437,13 +10439,13 @@
       <c r="C835" s="5"/>
       <c r="D835" s="5"/>
     </row>
-    <row r="836" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="836" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A836" s="3" t="s">
         <v>53</v>
       </c>
       <c r="B836" s="7"/>
     </row>
-    <row r="837" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="837" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A837" s="3" t="s">
         <v>47</v>
       </c>
@@ -10451,7 +10453,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="838" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="838" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A838" s="3" t="s">
         <v>24</v>
       </c>
@@ -10459,7 +10461,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="839" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="839" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A839" s="3" t="s">
         <v>25</v>
       </c>
@@ -10467,7 +10469,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="842" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="842" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A842" s="1" t="s">
         <v>357</v>
       </c>
@@ -10475,542 +10477,542 @@
         <v>560</v>
       </c>
     </row>
-    <row r="843" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="843" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A843" s="3" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="844" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="844" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A844" s="3" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="845" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="845" spans="1:4" ht="31" x14ac:dyDescent="0.35">
       <c r="A845" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="846" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="846" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A846" s="3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="847" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="847" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A847" s="3" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="848" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="848" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A848" s="3" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="849" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="849" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A849" s="3" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="850" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="850" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A850" s="3" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="851" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="851" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A851" s="3" t="s">
         <v>360</v>
       </c>
     </row>
-    <row r="852" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="852" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A852" s="3" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="853" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="853" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A853" s="3" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="854" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="854" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A854" s="3" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="855" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="855" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A855" s="3" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="856" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="856" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A856" s="3" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="857" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="857" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A857" s="3" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="858" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="858" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A858" s="3" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="859" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="859" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A859" s="3" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="860" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="860" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A860" s="3" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="861" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="861" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A861" s="3" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="862" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="862" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A862" s="3" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="863" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="863" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A863" s="3" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="864" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="864" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A864" s="3" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="865" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="865" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A865" s="3" t="s">
         <v>367</v>
       </c>
     </row>
-    <row r="866" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="866" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A866" s="3" t="s">
         <v>368</v>
       </c>
     </row>
-    <row r="867" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="867" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A867" s="3" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="868" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="868" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A868" s="3" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="869" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="869" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A869" s="3" t="s">
         <v>371</v>
       </c>
     </row>
-    <row r="870" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="870" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A870" s="3" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="871" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="871" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A871" s="3" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="872" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="872" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A872" s="3" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="873" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="873" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A873" s="3" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="874" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="874" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A874" s="3" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="875" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="875" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A875" s="3" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="876" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="876" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A876" s="3" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="877" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="877" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A877" s="3" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="878" spans="1:1" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="878" spans="1:1" ht="31" x14ac:dyDescent="0.35">
       <c r="A878" s="3" t="s">
         <v>377</v>
       </c>
     </row>
-    <row r="879" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="879" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A879" s="3" t="s">
         <v>378</v>
       </c>
     </row>
-    <row r="880" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="880" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A880" s="3" t="s">
         <v>379</v>
       </c>
     </row>
-    <row r="881" spans="1:1" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="881" spans="1:1" ht="31" x14ac:dyDescent="0.35">
       <c r="A881" s="3" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="882" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="882" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A882" s="3" t="s">
         <v>381</v>
       </c>
     </row>
-    <row r="883" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="883" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A883" s="3" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="884" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="884" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A884" s="3" t="s">
         <v>383</v>
       </c>
     </row>
-    <row r="885" spans="1:1" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="885" spans="1:1" ht="31" x14ac:dyDescent="0.35">
       <c r="A885" s="3" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="886" spans="1:1" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="886" spans="1:1" ht="31" x14ac:dyDescent="0.35">
       <c r="A886" s="3" t="s">
         <v>385</v>
       </c>
     </row>
-    <row r="887" spans="1:1" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="887" spans="1:1" ht="31" x14ac:dyDescent="0.35">
       <c r="A887" s="3" t="s">
         <v>386</v>
       </c>
     </row>
-    <row r="888" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="888" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A888" s="3" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="889" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="889" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A889" s="3" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="890" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="890" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A890" s="3" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="891" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="891" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A891" s="3" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="892" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="892" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A892" s="3" t="s">
         <v>387</v>
       </c>
     </row>
-    <row r="893" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="893" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A893" s="3" t="s">
         <v>388</v>
       </c>
     </row>
-    <row r="894" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="894" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A894" s="3" t="s">
         <v>389</v>
       </c>
     </row>
-    <row r="895" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="895" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A895" s="3" t="s">
         <v>390</v>
       </c>
     </row>
-    <row r="896" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="896" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A896" s="3" t="s">
         <v>391</v>
       </c>
     </row>
-    <row r="897" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="897" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A897" s="3" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="898" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="898" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A898" s="3" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="899" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="899" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A899" s="3" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="900" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="900" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A900" s="3" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="901" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="901" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A901" s="3" t="s">
         <v>392</v>
       </c>
     </row>
-    <row r="902" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="902" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A902" s="3" t="s">
         <v>393</v>
       </c>
     </row>
-    <row r="903" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="903" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A903" s="3" t="s">
         <v>394</v>
       </c>
     </row>
-    <row r="904" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="904" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A904" s="3" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="905" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="905" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A905" s="3" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="906" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="906" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A906" s="3" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="907" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="907" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A907" s="3" t="s">
         <v>395</v>
       </c>
     </row>
-    <row r="908" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="908" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A908" s="3" t="s">
         <v>396</v>
       </c>
     </row>
-    <row r="909" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="909" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A909" s="3" t="s">
         <v>397</v>
       </c>
     </row>
-    <row r="910" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="910" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A910" s="3" t="s">
         <v>398</v>
       </c>
     </row>
-    <row r="911" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="911" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A911" s="3" t="s">
         <v>399</v>
       </c>
     </row>
-    <row r="912" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="912" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A912" s="3" t="s">
         <v>400</v>
       </c>
     </row>
-    <row r="913" spans="1:1" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="913" spans="1:1" ht="31" x14ac:dyDescent="0.35">
       <c r="A913" s="3" t="s">
         <v>401</v>
       </c>
     </row>
-    <row r="914" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="914" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A914" s="3" t="s">
         <v>402</v>
       </c>
     </row>
-    <row r="915" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="915" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A915" s="3" t="s">
         <v>403</v>
       </c>
     </row>
-    <row r="916" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="916" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A916" s="3" t="s">
         <v>404</v>
       </c>
     </row>
-    <row r="917" spans="1:1" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="917" spans="1:1" ht="31" x14ac:dyDescent="0.35">
       <c r="A917" s="3" t="s">
         <v>405</v>
       </c>
     </row>
-    <row r="918" spans="1:1" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="918" spans="1:1" ht="31" x14ac:dyDescent="0.35">
       <c r="A918" s="3" t="s">
         <v>406</v>
       </c>
     </row>
-    <row r="919" spans="1:1" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="919" spans="1:1" ht="31" x14ac:dyDescent="0.35">
       <c r="A919" s="3" t="s">
         <v>407</v>
       </c>
     </row>
-    <row r="920" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="920" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A920" s="3" t="s">
         <v>408</v>
       </c>
     </row>
-    <row r="921" spans="1:1" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="921" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A921" s="3" t="s">
         <v>409</v>
       </c>
     </row>
-    <row r="922" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="922" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A922" s="3" t="s">
         <v>410</v>
       </c>
     </row>
-    <row r="923" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="923" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A923" s="3" t="s">
         <v>411</v>
       </c>
     </row>
-    <row r="924" spans="1:1" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="924" spans="1:1" ht="31" x14ac:dyDescent="0.35">
       <c r="A924" s="3" t="s">
         <v>412</v>
       </c>
     </row>
-    <row r="925" spans="1:1" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="925" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A925" s="3" t="s">
         <v>413</v>
       </c>
     </row>
-    <row r="926" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="926" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A926" s="3" t="s">
         <v>414</v>
       </c>
     </row>
-    <row r="927" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="927" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A927" s="3" t="s">
         <v>415</v>
       </c>
     </row>
-    <row r="928" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="928" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A928" s="3" t="s">
         <v>416</v>
       </c>
     </row>
-    <row r="929" spans="1:1" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="929" spans="1:1" ht="31" x14ac:dyDescent="0.35">
       <c r="A929" s="3" t="s">
         <v>417</v>
       </c>
     </row>
-    <row r="930" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="930" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A930" s="3" t="s">
         <v>418</v>
       </c>
     </row>
-    <row r="931" spans="1:1" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="931" spans="1:1" ht="31" x14ac:dyDescent="0.35">
       <c r="A931" s="3" t="s">
         <v>419</v>
       </c>
     </row>
-    <row r="932" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="932" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A932" s="3" t="s">
         <v>420</v>
       </c>
     </row>
-    <row r="933" spans="1:1" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="933" spans="1:1" ht="31" x14ac:dyDescent="0.35">
       <c r="A933" s="3" t="s">
         <v>421</v>
       </c>
     </row>
-    <row r="934" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="934" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A934" s="3" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="935" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="935" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A935" s="3" t="s">
         <v>423</v>
       </c>
     </row>
-    <row r="936" spans="1:1" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="936" spans="1:1" ht="31" x14ac:dyDescent="0.35">
       <c r="A936" s="3" t="s">
         <v>424</v>
       </c>
     </row>
-    <row r="937" spans="1:1" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="937" spans="1:1" ht="31" x14ac:dyDescent="0.35">
       <c r="A937" s="3" t="s">
         <v>425</v>
       </c>
     </row>
-    <row r="938" spans="1:1" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="938" spans="1:1" ht="31" x14ac:dyDescent="0.35">
       <c r="A938" s="3" t="s">
         <v>426</v>
       </c>
     </row>
-    <row r="939" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="939" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A939" s="3" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="940" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="940" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A940" s="3" t="s">
         <v>428</v>
       </c>
     </row>
-    <row r="941" spans="1:1" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="941" spans="1:1" ht="31" x14ac:dyDescent="0.35">
       <c r="A941" s="3" t="s">
         <v>429</v>
       </c>
     </row>
-    <row r="942" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="942" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A942" s="3" t="s">
         <v>430</v>
       </c>
     </row>
-    <row r="943" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="943" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A943" s="3" t="s">
         <v>431</v>
       </c>
     </row>
-    <row r="944" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="944" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A944" s="3" t="s">
         <v>432</v>
       </c>
     </row>
-    <row r="945" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="945" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A945" s="3" t="s">
         <v>433</v>
       </c>
     </row>
-    <row r="946" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="946" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A946" s="3" t="s">
         <v>434</v>
       </c>
     </row>
-    <row r="947" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="947" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A947" s="3" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="948" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="948" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A948" s="3" t="s">
         <v>436</v>
       </c>
     </row>
-    <row r="949" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="949" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A949" s="3" t="s">
         <v>437</v>
       </c>
     </row>
-    <row r="951" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="951" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A951" s="1" t="s">
         <v>122</v>
       </c>
@@ -11019,282 +11021,282 @@
       </c>
       <c r="E951" s="4"/>
     </row>
-    <row r="952" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="952" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A952" s="3" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="953" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="953" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A953" s="3" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="954" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="954" spans="1:5" ht="31" x14ac:dyDescent="0.35">
       <c r="A954" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="955" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="955" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A955" s="3" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="956" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="956" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A956" s="3" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="957" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="957" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A957" s="3" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="958" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="958" spans="1:5" ht="31" x14ac:dyDescent="0.35">
       <c r="A958" s="3" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="959" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="959" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A959" s="3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="960" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="960" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A960" s="3" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="961" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="961" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A961" s="3" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="962" spans="1:1" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="962" spans="1:1" ht="31" x14ac:dyDescent="0.35">
       <c r="A962" s="3" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="963" spans="1:1" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="963" spans="1:1" ht="31" x14ac:dyDescent="0.35">
       <c r="A963" s="3" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="964" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="964" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A964" s="3" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="965" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="965" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A965" s="3" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="966" spans="1:1" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="966" spans="1:1" ht="31" x14ac:dyDescent="0.35">
       <c r="A966" s="3" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="967" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="967" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A967" s="3" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="968" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="968" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A968" s="3" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="969" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="969" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A969" s="3" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="970" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="970" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A970" s="3" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="971" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="971" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A971" s="3" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="972" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="972" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A972" s="3" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="973" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="973" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A973" s="3" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="974" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="974" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A974" s="3" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="975" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="975" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A975" s="3" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="976" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="976" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A976" s="3" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="977" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="977" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A977" s="3" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="978" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="978" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A978" s="3" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="979" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="979" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A979" s="3" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="980" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="980" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A980" s="3" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="981" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="981" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A981" s="3" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="982" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="982" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A982" s="3" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="983" spans="1:1" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="983" spans="1:1" ht="31" x14ac:dyDescent="0.35">
       <c r="A983" s="3" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="984" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="984" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A984" s="3" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="985" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="985" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A985" s="3" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="986" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="986" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A986" s="3" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="987" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="987" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A987" s="3" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="988" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="988" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A988" s="3" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="989" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="989" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A989" s="3" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="990" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="990" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A990" s="3" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="991" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="991" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A991" s="3" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="992" spans="1:1" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="992" spans="1:1" ht="31" x14ac:dyDescent="0.35">
       <c r="A992" s="3" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="993" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="993" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A993" s="3" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="994" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="994" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A994" s="3" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="995" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="995" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A995" s="3" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="996" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="996" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A996" s="3" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="997" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="997" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A997" s="3" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="998" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="998" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A998" s="3" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="999" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="999" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A999" s="3" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="1000" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="1000" spans="1:2" ht="31" x14ac:dyDescent="0.35">
       <c r="A1000" s="3" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="1001" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1001" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1001" s="3" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="1002" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="1002" spans="1:2" ht="31" x14ac:dyDescent="0.35">
       <c r="A1002" s="3" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="1003" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1003" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1003" s="3" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="1004" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1004" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1004" s="3" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="1005" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1005" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1005" s="3" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="1006" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1006" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1006" s="3" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="1008" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1008" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1008" s="1" t="s">
         <v>353</v>
       </c>
@@ -11302,32 +11304,32 @@
         <v>560</v>
       </c>
     </row>
-    <row r="1009" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1009" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1009" s="3" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="1010" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1010" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1010" s="3" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="1011" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="1011" spans="1:2" ht="31" x14ac:dyDescent="0.35">
       <c r="A1011" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="1012" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1012" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1012" s="3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="1013" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1013" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1013" s="3" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="1015" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1015" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1015" s="1" t="s">
         <v>355</v>
       </c>
@@ -11335,37 +11337,37 @@
         <v>560</v>
       </c>
     </row>
-    <row r="1016" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1016" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1016" s="3" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="1017" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1017" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1017" s="3" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="1018" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="1018" spans="1:2" ht="31" x14ac:dyDescent="0.35">
       <c r="A1018" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="1019" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1019" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1019" s="3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="1020" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1020" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1020" s="3" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="1022" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1022" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1022" s="1" t="s">
         <v>524</v>
       </c>
     </row>
-    <row r="1023" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1023" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1023" s="3" t="s">
         <v>63</v>
       </c>
@@ -11373,52 +11375,52 @@
         <v>560</v>
       </c>
     </row>
-    <row r="1024" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1024" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1024" s="3" t="s">
         <v>525</v>
       </c>
     </row>
-    <row r="1025" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="1025" spans="1:2" ht="31" x14ac:dyDescent="0.35">
       <c r="A1025" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="1026" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1026" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1026" s="3" t="s">
         <v>526</v>
       </c>
     </row>
-    <row r="1027" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1027" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1027" s="3" t="s">
         <v>527</v>
       </c>
     </row>
-    <row r="1028" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1028" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1028" s="3" t="s">
         <v>528</v>
       </c>
     </row>
-    <row r="1029" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="1029" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1029" s="3" t="s">
         <v>529</v>
       </c>
     </row>
-    <row r="1030" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1030" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1030" s="3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="1031" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1031" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1031" s="3" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="1032" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1032" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1032" s="3" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="1034" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1034" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1034" s="1" t="s">
         <v>557</v>
       </c>
@@ -11426,37 +11428,37 @@
         <v>560</v>
       </c>
     </row>
-    <row r="1035" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1035" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1035" s="3" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="1036" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1036" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1036" s="3" t="s">
         <v>558</v>
       </c>
     </row>
-    <row r="1037" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="1037" spans="1:2" ht="31" x14ac:dyDescent="0.35">
       <c r="A1037" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="1038" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="1038" spans="1:2" ht="31" x14ac:dyDescent="0.35">
       <c r="A1038" s="3" t="s">
         <v>559</v>
       </c>
     </row>
-    <row r="1039" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1039" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1039" s="3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="1040" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1040" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1040" s="3" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="1041" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1041" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1041" s="3" t="s">
         <v>25</v>
       </c>

--- a/spec/ConvSpec-001-007-v2.4.xlsx
+++ b/spec/ConvSpec-001-007-v2.4.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\share\BF 2.0 Bib specs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDCB4D62-9A19-46A4-8AE3-53D58533521E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8637989B-AFAF-45E6-A409-EDCE7130A5D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1820" uniqueCount="869">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1820" uniqueCount="870">
   <si>
     <t>Conversion 1</t>
   </si>
@@ -2658,9 +2658,6 @@
     <t xml:space="preserve">I - soundContent - SoundContent </t>
   </si>
   <si>
-    <t>Fields 001-005, 007 - Control, Physical Description fixed fields - v2.4, 11/01/2023</t>
-  </si>
-  <si>
     <t xml:space="preserve">I - genreForm - GenreForm - </t>
   </si>
   <si>
@@ -2685,6 +2682,12 @@
   </si>
   <si>
     <t>I - aspectRatio - AspectRatio - http://id.loc.gov/vocabulary/maspect/wide ; add rdfs:label "wide-screen"</t>
+  </si>
+  <si>
+    <t>## - http://id.loc.gov/vocabulary/carriers/mz ; add rdfs:label "other projected carrier"</t>
+  </si>
+  <si>
+    <t>Fields 001-005, 007 - Control, Physical Description fixed fields - v2.4, 11/06/2023</t>
   </si>
 </sst>
 </file>
@@ -3073,23 +3076,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E1041"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.5" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.5" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="26.5" style="3" customWidth="1"/>
-    <col min="2" max="2" width="42.625" style="3" customWidth="1"/>
-    <col min="3" max="4" width="38.125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="42.58203125" style="3" customWidth="1"/>
+    <col min="3" max="4" width="38.08203125" style="3" customWidth="1"/>
     <col min="5" max="5" width="21.75" style="3" customWidth="1"/>
     <col min="6" max="6" width="13.5" style="3" customWidth="1"/>
     <col min="7" max="16384" width="10.5" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" s="1" customFormat="1" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>860</v>
+        <v>869</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -3104,10 +3105,10 @@
         <v>567</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="C2" s="3"/>
     </row>
-    <row r="3" spans="1:5" ht="126" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="124" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>9</v>
       </c>
@@ -3115,10 +3116,10 @@
         <v>675</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B4" s="2"/>
     </row>
-    <row r="5" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" ht="31" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>10</v>
       </c>
@@ -3128,7 +3129,7 @@
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
     </row>
-    <row r="7" spans="1:5" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" ht="77.5" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>11</v>
       </c>
@@ -3136,10 +3137,10 @@
         <v>830</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" s="1"/>
     </row>
-    <row r="9" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" ht="31" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
         <v>569</v>
       </c>
@@ -3147,21 +3148,21 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" s="1"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" s="3" t="s">
         <v>573</v>
       </c>
       <c r="C12" s="4"/>
     </row>
-    <row r="13" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" ht="62" x14ac:dyDescent="0.35">
       <c r="A13" s="3" t="s">
         <v>574</v>
       </c>
@@ -3173,12 +3174,12 @@
       </c>
       <c r="D13" s="4"/>
     </row>
-    <row r="14" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" ht="31" x14ac:dyDescent="0.35">
       <c r="A14" s="3" t="s">
         <v>13</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>685</v>
@@ -3187,12 +3188,12 @@
         <v>689</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B15" s="7"/>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
     </row>
-    <row r="16" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A16" s="3" t="s">
         <v>14</v>
       </c>
@@ -3206,7 +3207,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A17" s="3" t="s">
         <v>15</v>
       </c>
@@ -3220,7 +3221,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A18" s="3" t="s">
         <v>16</v>
       </c>
@@ -3234,7 +3235,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A19" s="3" t="s">
         <v>17</v>
       </c>
@@ -3248,7 +3249,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" ht="62" x14ac:dyDescent="0.35">
       <c r="A20" s="3" t="s">
         <v>18</v>
       </c>
@@ -3262,7 +3263,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A21" s="3" t="s">
         <v>19</v>
       </c>
@@ -3276,7 +3277,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A22" s="3" t="s">
         <v>20</v>
       </c>
@@ -3290,7 +3291,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A23" s="3" t="s">
         <v>21</v>
       </c>
@@ -3302,7 +3303,7 @@
       </c>
       <c r="D23" s="2"/>
     </row>
-    <row r="24" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A24" s="3" t="s">
         <v>22</v>
       </c>
@@ -3316,7 +3317,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A25" s="3" t="s">
         <v>23</v>
       </c>
@@ -3324,7 +3325,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A26" s="3" t="s">
         <v>24</v>
       </c>
@@ -3332,7 +3333,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A27" s="3" t="s">
         <v>26</v>
       </c>
@@ -3340,7 +3341,7 @@
         <v>858</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" ht="31" x14ac:dyDescent="0.35">
       <c r="A28" s="3" t="s">
         <v>27</v>
       </c>
@@ -3350,7 +3351,7 @@
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
     </row>
-    <row r="29" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" ht="31" x14ac:dyDescent="0.35">
       <c r="A29" s="3" t="s">
         <v>28</v>
       </c>
@@ -3360,7 +3361,7 @@
       <c r="C29" s="2"/>
       <c r="D29" s="4"/>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A30" s="3" t="s">
         <v>24</v>
       </c>
@@ -3368,7 +3369,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A31" s="3" t="s">
         <v>29</v>
       </c>
@@ -3376,7 +3377,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" ht="31" x14ac:dyDescent="0.35">
       <c r="A32" s="3" t="s">
         <v>30</v>
       </c>
@@ -3384,7 +3385,7 @@
         <v>697</v>
       </c>
     </row>
-    <row r="33" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" ht="31" x14ac:dyDescent="0.35">
       <c r="A33" s="3" t="s">
         <v>31</v>
       </c>
@@ -3392,7 +3393,7 @@
         <v>698</v>
       </c>
     </row>
-    <row r="34" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" ht="31" x14ac:dyDescent="0.35">
       <c r="A34" s="3" t="s">
         <v>32</v>
       </c>
@@ -3400,7 +3401,7 @@
         <v>699</v>
       </c>
     </row>
-    <row r="35" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" ht="31" x14ac:dyDescent="0.35">
       <c r="A35" s="3" t="s">
         <v>33</v>
       </c>
@@ -3408,7 +3409,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="36" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" ht="31" x14ac:dyDescent="0.35">
       <c r="A36" s="3" t="s">
         <v>34</v>
       </c>
@@ -3416,7 +3417,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="37" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" ht="31" x14ac:dyDescent="0.35">
       <c r="A37" s="3" t="s">
         <v>35</v>
       </c>
@@ -3424,7 +3425,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="38" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" ht="31" x14ac:dyDescent="0.35">
       <c r="A38" s="3" t="s">
         <v>36</v>
       </c>
@@ -3432,7 +3433,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="39" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2" ht="31" x14ac:dyDescent="0.35">
       <c r="A39" s="3" t="s">
         <v>37</v>
       </c>
@@ -3440,7 +3441,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="40" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2" ht="31" x14ac:dyDescent="0.35">
       <c r="A40" s="3" t="s">
         <v>38</v>
       </c>
@@ -3448,7 +3449,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="41" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2" ht="31" x14ac:dyDescent="0.35">
       <c r="A41" s="3" t="s">
         <v>39</v>
       </c>
@@ -3456,7 +3457,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="42" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2" ht="31" x14ac:dyDescent="0.35">
       <c r="A42" s="3" t="s">
         <v>40</v>
       </c>
@@ -3464,7 +3465,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="43" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2" ht="31" x14ac:dyDescent="0.35">
       <c r="A43" s="3" t="s">
         <v>41</v>
       </c>
@@ -3472,7 +3473,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="44" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2" ht="31" x14ac:dyDescent="0.35">
       <c r="A44" s="3" t="s">
         <v>42</v>
       </c>
@@ -3480,7 +3481,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="45" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:2" ht="31" x14ac:dyDescent="0.35">
       <c r="A45" s="3" t="s">
         <v>43</v>
       </c>
@@ -3488,7 +3489,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="46" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:2" ht="31" x14ac:dyDescent="0.35">
       <c r="A46" s="3" t="s">
         <v>44</v>
       </c>
@@ -3496,7 +3497,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="47" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:2" ht="31" x14ac:dyDescent="0.35">
       <c r="A47" s="3" t="s">
         <v>45</v>
       </c>
@@ -3504,7 +3505,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A48" s="3" t="s">
         <v>46</v>
       </c>
@@ -3512,7 +3513,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="49" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" ht="31" x14ac:dyDescent="0.35">
       <c r="A49" s="3" t="s">
         <v>47</v>
       </c>
@@ -3520,7 +3521,7 @@
         <v>709</v>
       </c>
     </row>
-    <row r="50" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" ht="31" x14ac:dyDescent="0.35">
       <c r="A50" s="3" t="s">
         <v>48</v>
       </c>
@@ -3528,7 +3529,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A51" s="2" t="s">
         <v>576</v>
       </c>
@@ -3536,7 +3537,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="52" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4" ht="31" x14ac:dyDescent="0.35">
       <c r="A52" s="3" t="s">
         <v>49</v>
       </c>
@@ -3544,7 +3545,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A53" s="3" t="s">
         <v>23</v>
       </c>
@@ -3552,7 +3553,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A54" s="3" t="s">
         <v>24</v>
       </c>
@@ -3560,7 +3561,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A55" s="3" t="s">
         <v>50</v>
       </c>
@@ -3568,7 +3569,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="56" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:4" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A56" s="3" t="s">
         <v>51</v>
       </c>
@@ -3578,7 +3579,7 @@
       <c r="C56" s="2"/>
       <c r="D56" s="2"/>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A57" s="3" t="s">
         <v>52</v>
       </c>
@@ -3588,7 +3589,7 @@
       <c r="C57" s="2"/>
       <c r="D57" s="2"/>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A58" s="3" t="s">
         <v>46</v>
       </c>
@@ -3598,7 +3599,7 @@
       <c r="C58" s="2"/>
       <c r="D58" s="2"/>
     </row>
-    <row r="59" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:4" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A59" s="3" t="s">
         <v>23</v>
       </c>
@@ -3608,7 +3609,7 @@
       <c r="C59" s="2"/>
       <c r="D59" s="4"/>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A60" s="3" t="s">
         <v>24</v>
       </c>
@@ -3617,7 +3618,7 @@
       </c>
       <c r="C60" s="2"/>
     </row>
-    <row r="61" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:4" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A61" s="3" t="s">
         <v>53</v>
       </c>
@@ -3627,7 +3628,7 @@
       <c r="C61" s="2"/>
       <c r="D61" s="2"/>
     </row>
-    <row r="62" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:4" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A62" s="3" t="s">
         <v>54</v>
       </c>
@@ -3637,7 +3638,7 @@
       <c r="C62" s="2"/>
       <c r="D62" s="4"/>
     </row>
-    <row r="63" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:4" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A63" s="3" t="s">
         <v>55</v>
       </c>
@@ -3647,7 +3648,7 @@
       <c r="C63" s="2"/>
       <c r="D63" s="4"/>
     </row>
-    <row r="64" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:4" ht="31" x14ac:dyDescent="0.35">
       <c r="A64" s="3" t="s">
         <v>577</v>
       </c>
@@ -3657,7 +3658,7 @@
       <c r="C64" s="2"/>
       <c r="D64" s="2"/>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A65" s="3" t="s">
         <v>56</v>
       </c>
@@ -3665,7 +3666,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A66" s="3" t="s">
         <v>46</v>
       </c>
@@ -3673,7 +3674,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A67" s="3" t="s">
         <v>23</v>
       </c>
@@ -3681,7 +3682,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A68" s="3" t="s">
         <v>24</v>
       </c>
@@ -3689,7 +3690,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="69" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A69" s="3" t="s">
         <v>57</v>
       </c>
@@ -3697,7 +3698,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="70" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:4" ht="31" x14ac:dyDescent="0.35">
       <c r="A70" s="3" t="s">
         <v>58</v>
       </c>
@@ -3705,7 +3706,7 @@
         <v>715</v>
       </c>
     </row>
-    <row r="71" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:4" ht="31" x14ac:dyDescent="0.35">
       <c r="A71" s="3" t="s">
         <v>59</v>
       </c>
@@ -3713,7 +3714,7 @@
         <v>716</v>
       </c>
     </row>
-    <row r="72" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:4" ht="31" x14ac:dyDescent="0.35">
       <c r="A72" s="3" t="s">
         <v>60</v>
       </c>
@@ -3723,7 +3724,7 @@
       <c r="C72" s="2"/>
       <c r="D72" s="4"/>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A73" s="3" t="s">
         <v>52</v>
       </c>
@@ -3731,7 +3732,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A74" s="3" t="s">
         <v>24</v>
       </c>
@@ -3739,18 +3740,18 @@
         <v>3</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A76" s="1" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A77" s="3" t="s">
         <v>62</v>
       </c>
       <c r="C77" s="4"/>
     </row>
-    <row r="78" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:4" ht="62" x14ac:dyDescent="0.35">
       <c r="A78" s="3" t="s">
         <v>63</v>
       </c>
@@ -3762,7 +3763,7 @@
       </c>
       <c r="D78" s="4"/>
     </row>
-    <row r="79" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:4" ht="31" x14ac:dyDescent="0.35">
       <c r="A79" s="3" t="s">
         <v>13</v>
       </c>
@@ -3774,7 +3775,7 @@
       </c>
       <c r="D79" s="4"/>
     </row>
-    <row r="80" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:4" ht="31" x14ac:dyDescent="0.35">
       <c r="A80" s="3" t="s">
         <v>64</v>
       </c>
@@ -3784,7 +3785,7 @@
       </c>
       <c r="D80" s="4"/>
     </row>
-    <row r="81" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:4" ht="31" x14ac:dyDescent="0.35">
       <c r="A81" s="3" t="s">
         <v>65</v>
       </c>
@@ -3794,7 +3795,7 @@
       </c>
       <c r="D81" s="4"/>
     </row>
-    <row r="82" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:4" ht="31" x14ac:dyDescent="0.35">
       <c r="A82" s="3" t="s">
         <v>66</v>
       </c>
@@ -3804,7 +3805,7 @@
       </c>
       <c r="D82" s="4"/>
     </row>
-    <row r="83" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:4" ht="31" x14ac:dyDescent="0.35">
       <c r="A83" s="3" t="s">
         <v>67</v>
       </c>
@@ -3814,7 +3815,7 @@
       </c>
       <c r="D83" s="4"/>
     </row>
-    <row r="84" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:4" ht="31" x14ac:dyDescent="0.35">
       <c r="A84" s="3" t="s">
         <v>68</v>
       </c>
@@ -3824,7 +3825,7 @@
       </c>
       <c r="D84" s="4"/>
     </row>
-    <row r="85" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:4" ht="31" x14ac:dyDescent="0.35">
       <c r="A85" s="3" t="s">
         <v>69</v>
       </c>
@@ -3833,7 +3834,7 @@
       </c>
       <c r="D85" s="4"/>
     </row>
-    <row r="86" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:4" ht="31" x14ac:dyDescent="0.35">
       <c r="A86" s="3" t="s">
         <v>70</v>
       </c>
@@ -3842,7 +3843,7 @@
       </c>
       <c r="D86" s="4"/>
     </row>
-    <row r="87" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:4" ht="31" x14ac:dyDescent="0.35">
       <c r="A87" s="3" t="s">
         <v>71</v>
       </c>
@@ -3851,7 +3852,7 @@
       </c>
       <c r="D87" s="4"/>
     </row>
-    <row r="88" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:4" ht="31" x14ac:dyDescent="0.35">
       <c r="A88" s="3" t="s">
         <v>72</v>
       </c>
@@ -3860,7 +3861,7 @@
       </c>
       <c r="D88" s="4"/>
     </row>
-    <row r="89" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:4" ht="31" x14ac:dyDescent="0.35">
       <c r="A89" s="3" t="s">
         <v>73</v>
       </c>
@@ -3869,7 +3870,7 @@
       </c>
       <c r="D89" s="4"/>
     </row>
-    <row r="90" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:4" ht="31" x14ac:dyDescent="0.35">
       <c r="A90" s="3" t="s">
         <v>74</v>
       </c>
@@ -3878,7 +3879,7 @@
       </c>
       <c r="D90" s="4"/>
     </row>
-    <row r="91" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:4" ht="31" x14ac:dyDescent="0.35">
       <c r="A91" s="3" t="s">
         <v>75</v>
       </c>
@@ -3887,7 +3888,7 @@
       </c>
       <c r="D91" s="4"/>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A92" s="3" t="s">
         <v>21</v>
       </c>
@@ -3896,7 +3897,7 @@
       </c>
       <c r="D92" s="4"/>
     </row>
-    <row r="93" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:4" ht="31" x14ac:dyDescent="0.35">
       <c r="A93" s="3" t="s">
         <v>23</v>
       </c>
@@ -3905,7 +3906,7 @@
       </c>
       <c r="D93" s="4"/>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A94" s="3" t="s">
         <v>24</v>
       </c>
@@ -3914,7 +3915,7 @@
       </c>
       <c r="D94" s="4"/>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A95" s="3" t="s">
         <v>26</v>
       </c>
@@ -3922,7 +3923,7 @@
         <v>858</v>
       </c>
     </row>
-    <row r="96" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:4" ht="31" x14ac:dyDescent="0.35">
       <c r="A96" s="3" t="s">
         <v>27</v>
       </c>
@@ -3932,7 +3933,7 @@
       <c r="C96" s="2"/>
       <c r="D96" s="2"/>
     </row>
-    <row r="97" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:4" ht="31" x14ac:dyDescent="0.35">
       <c r="A97" s="3" t="s">
         <v>76</v>
       </c>
@@ -3942,7 +3943,7 @@
       <c r="C97" s="2"/>
       <c r="D97" s="2"/>
     </row>
-    <row r="98" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:4" ht="31" x14ac:dyDescent="0.35">
       <c r="A98" s="3" t="s">
         <v>28</v>
       </c>
@@ -3952,7 +3953,7 @@
       <c r="C98" s="2"/>
       <c r="D98" s="4"/>
     </row>
-    <row r="99" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:4" ht="31" x14ac:dyDescent="0.35">
       <c r="A99" s="3" t="s">
         <v>77</v>
       </c>
@@ -3962,7 +3963,7 @@
       <c r="C99" s="2"/>
       <c r="D99" s="2"/>
     </row>
-    <row r="100" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:4" ht="31" x14ac:dyDescent="0.35">
       <c r="A100" s="3" t="s">
         <v>78</v>
       </c>
@@ -3972,7 +3973,7 @@
       <c r="C100" s="2"/>
       <c r="D100" s="4"/>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A101" s="3" t="s">
         <v>52</v>
       </c>
@@ -3980,7 +3981,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A102" s="3" t="s">
         <v>46</v>
       </c>
@@ -3988,7 +3989,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A103" s="3" t="s">
         <v>23</v>
       </c>
@@ -3996,7 +3997,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A104" s="3" t="s">
         <v>24</v>
       </c>
@@ -4004,7 +4005,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A105" s="3" t="s">
         <v>79</v>
       </c>
@@ -4016,7 +4017,7 @@
       </c>
       <c r="D105" s="5"/>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A106" s="3" t="s">
         <v>80</v>
       </c>
@@ -4026,7 +4027,7 @@
       </c>
       <c r="D106" s="2"/>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A107" s="3" t="s">
         <v>81</v>
       </c>
@@ -4036,7 +4037,7 @@
       </c>
       <c r="D107" s="2"/>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A108" s="3" t="s">
         <v>82</v>
       </c>
@@ -4046,7 +4047,7 @@
       </c>
       <c r="D108" s="4"/>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A109" s="3" t="s">
         <v>83</v>
       </c>
@@ -4056,7 +4057,7 @@
       </c>
       <c r="D109" s="2"/>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A110" s="3" t="s">
         <v>84</v>
       </c>
@@ -4066,7 +4067,7 @@
       </c>
       <c r="D110" s="2"/>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A111" s="3" t="s">
         <v>52</v>
       </c>
@@ -4076,7 +4077,7 @@
       </c>
       <c r="D111" s="2"/>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A112" s="3" t="s">
         <v>85</v>
       </c>
@@ -4086,7 +4087,7 @@
       </c>
       <c r="D112" s="2"/>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A113" s="3" t="s">
         <v>46</v>
       </c>
@@ -4096,7 +4097,7 @@
       </c>
       <c r="D113" s="2"/>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A114" s="3" t="s">
         <v>86</v>
       </c>
@@ -4106,7 +4107,7 @@
       </c>
       <c r="D114" s="2"/>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A115" s="3" t="s">
         <v>23</v>
       </c>
@@ -4116,7 +4117,7 @@
       </c>
       <c r="D115" s="2"/>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A116" s="3" t="s">
         <v>24</v>
       </c>
@@ -4126,7 +4127,7 @@
       </c>
       <c r="D116" s="2"/>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A117" s="3" t="s">
         <v>87</v>
       </c>
@@ -4134,7 +4135,7 @@
         <v>859</v>
       </c>
     </row>
-    <row r="118" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:4" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A118" s="3" t="s">
         <v>88</v>
       </c>
@@ -4144,7 +4145,7 @@
       <c r="C118" s="2"/>
       <c r="D118" s="2"/>
     </row>
-    <row r="119" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:4" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A119" s="3" t="s">
         <v>89</v>
       </c>
@@ -4154,7 +4155,7 @@
       <c r="C119" s="2"/>
       <c r="D119" s="2"/>
     </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A120" s="3" t="s">
         <v>46</v>
       </c>
@@ -4162,7 +4163,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A121" s="3" t="s">
         <v>24</v>
       </c>
@@ -4170,7 +4171,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A122" s="3" t="s">
         <v>90</v>
       </c>
@@ -4178,34 +4179,34 @@
         <v>559</v>
       </c>
     </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A123" s="3" t="s">
         <v>91</v>
       </c>
       <c r="B123" s="2"/>
     </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A124" s="3" t="s">
         <v>92</v>
       </c>
       <c r="B124" s="5"/>
     </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A125" s="3" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A126" s="3" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A127" s="3" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A128" s="3" t="s">
         <v>96</v>
       </c>
@@ -4213,27 +4214,27 @@
         <v>559</v>
       </c>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A129" s="3" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A130" s="3" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A131" s="3" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A132" s="3" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="133" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:2" ht="31" x14ac:dyDescent="0.35">
       <c r="A133" s="3" t="s">
         <v>99</v>
       </c>
@@ -4241,32 +4242,32 @@
         <v>559</v>
       </c>
     </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A134" s="3" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A135" s="3" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A136" s="3" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A137" s="3" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A138" s="3" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A139" s="3" t="s">
         <v>102</v>
       </c>
@@ -4274,47 +4275,47 @@
         <v>559</v>
       </c>
     </row>
-    <row r="140" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:2" ht="31" x14ac:dyDescent="0.35">
       <c r="A140" s="3" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="141" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:2" ht="31" x14ac:dyDescent="0.35">
       <c r="A141" s="3" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="142" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:2" ht="31" x14ac:dyDescent="0.35">
       <c r="A142" s="3" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="143" spans="1:2" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:2" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A143" s="3" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A144" s="3" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A145" s="3" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A146" s="3" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A147" s="3" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A148" s="3" t="s">
         <v>107</v>
       </c>
@@ -4322,37 +4323,37 @@
         <v>559</v>
       </c>
     </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A149" s="3" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A150" s="3" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A151" s="3" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A152" s="3" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A153" s="3" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A154" s="3" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A155" s="3" t="s">
         <v>111</v>
       </c>
@@ -4360,48 +4361,48 @@
         <v>559</v>
       </c>
     </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A156" s="3" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A157" s="3" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A158" s="3" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A159" s="3" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A160" s="3" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A161" s="3" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A163" s="1" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A164" s="3" t="s">
         <v>62</v>
       </c>
       <c r="C164" s="4"/>
     </row>
-    <row r="165" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:4" ht="62" x14ac:dyDescent="0.35">
       <c r="A165" s="3" t="s">
         <v>116</v>
       </c>
@@ -4412,12 +4413,12 @@
         <v>679</v>
       </c>
     </row>
-    <row r="166" spans="1:4" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:4" ht="77.5" x14ac:dyDescent="0.35">
       <c r="A166" s="3" t="s">
         <v>13</v>
       </c>
       <c r="B166" s="4" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="C166" s="2" t="s">
         <v>683</v>
@@ -4426,12 +4427,12 @@
         <v>692</v>
       </c>
     </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B167" s="7"/>
       <c r="C167" s="2"/>
       <c r="D167" s="2"/>
     </row>
-    <row r="168" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:4" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A168" s="3" t="s">
         <v>117</v>
       </c>
@@ -4441,7 +4442,7 @@
       <c r="C168" s="4"/>
       <c r="D168" s="4"/>
     </row>
-    <row r="169" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:4" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A169" s="3" t="s">
         <v>118</v>
       </c>
@@ -4451,7 +4452,7 @@
       <c r="C169" s="4"/>
       <c r="D169" s="4"/>
     </row>
-    <row r="170" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:4" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A170" s="3" t="s">
         <v>119</v>
       </c>
@@ -4459,7 +4460,7 @@
         <v>854</v>
       </c>
     </row>
-    <row r="171" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:4" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A171" s="3" t="s">
         <v>120</v>
       </c>
@@ -4469,7 +4470,7 @@
       <c r="C171" s="4"/>
       <c r="D171" s="4"/>
     </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A172" s="3" t="s">
         <v>21</v>
       </c>
@@ -4480,7 +4481,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A173" s="3" t="s">
         <v>23</v>
       </c>
@@ -4491,7 +4492,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A174" s="3" t="s">
         <v>24</v>
       </c>
@@ -4502,7 +4503,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A175" s="3" t="s">
         <v>26</v>
       </c>
@@ -4510,7 +4511,7 @@
         <v>858</v>
       </c>
     </row>
-    <row r="176" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:4" ht="31" x14ac:dyDescent="0.35">
       <c r="A176" s="3" t="s">
         <v>27</v>
       </c>
@@ -4520,7 +4521,7 @@
       <c r="C176" s="2"/>
       <c r="D176" s="2"/>
     </row>
-    <row r="177" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:4" ht="31" x14ac:dyDescent="0.35">
       <c r="A177" s="3" t="s">
         <v>28</v>
       </c>
@@ -4530,7 +4531,7 @@
       <c r="C177" s="2"/>
       <c r="D177" s="4"/>
     </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A178" s="3" t="s">
         <v>24</v>
       </c>
@@ -4538,7 +4539,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A179" s="3" t="s">
         <v>29</v>
       </c>
@@ -4546,7 +4547,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="180" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:4" ht="31" x14ac:dyDescent="0.35">
       <c r="A180" s="3" t="s">
         <v>30</v>
       </c>
@@ -4556,7 +4557,7 @@
       <c r="C180" s="2"/>
       <c r="D180" s="2"/>
     </row>
-    <row r="181" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:4" ht="31" x14ac:dyDescent="0.35">
       <c r="A181" s="3" t="s">
         <v>31</v>
       </c>
@@ -4566,7 +4567,7 @@
       <c r="C181" s="2"/>
       <c r="D181" s="2"/>
     </row>
-    <row r="182" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:4" ht="31" x14ac:dyDescent="0.35">
       <c r="A182" s="3" t="s">
         <v>32</v>
       </c>
@@ -4576,7 +4577,7 @@
       <c r="C182" s="2"/>
       <c r="D182" s="2"/>
     </row>
-    <row r="183" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:4" ht="31" x14ac:dyDescent="0.35">
       <c r="A183" s="3" t="s">
         <v>33</v>
       </c>
@@ -4586,7 +4587,7 @@
       <c r="C183" s="2"/>
       <c r="D183" s="2"/>
     </row>
-    <row r="184" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:4" ht="31" x14ac:dyDescent="0.35">
       <c r="A184" s="3" t="s">
         <v>34</v>
       </c>
@@ -4596,7 +4597,7 @@
       <c r="C184" s="2"/>
       <c r="D184" s="2"/>
     </row>
-    <row r="185" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:4" ht="31" x14ac:dyDescent="0.35">
       <c r="A185" s="3" t="s">
         <v>35</v>
       </c>
@@ -4606,7 +4607,7 @@
       <c r="C185" s="2"/>
       <c r="D185" s="2"/>
     </row>
-    <row r="186" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:4" ht="31" x14ac:dyDescent="0.35">
       <c r="A186" s="3" t="s">
         <v>36</v>
       </c>
@@ -4616,7 +4617,7 @@
       <c r="C186" s="2"/>
       <c r="D186" s="2"/>
     </row>
-    <row r="187" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:4" ht="31" x14ac:dyDescent="0.35">
       <c r="A187" s="3" t="s">
         <v>37</v>
       </c>
@@ -4626,7 +4627,7 @@
       <c r="C187" s="2"/>
       <c r="D187" s="2"/>
     </row>
-    <row r="188" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:4" ht="31" x14ac:dyDescent="0.35">
       <c r="A188" s="3" t="s">
         <v>39</v>
       </c>
@@ -4636,7 +4637,7 @@
       <c r="C188" s="2"/>
       <c r="D188" s="2"/>
     </row>
-    <row r="189" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:4" ht="31" x14ac:dyDescent="0.35">
       <c r="A189" s="3" t="s">
         <v>40</v>
       </c>
@@ -4646,7 +4647,7 @@
       <c r="C189" s="2"/>
       <c r="D189" s="2"/>
     </row>
-    <row r="190" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:4" ht="31" x14ac:dyDescent="0.35">
       <c r="A190" s="3" t="s">
         <v>41</v>
       </c>
@@ -4656,7 +4657,7 @@
       <c r="C190" s="2"/>
       <c r="D190" s="2"/>
     </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A191" s="3" t="s">
         <v>46</v>
       </c>
@@ -4666,7 +4667,7 @@
       <c r="C191" s="2"/>
       <c r="D191" s="2"/>
     </row>
-    <row r="192" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:4" ht="31" x14ac:dyDescent="0.35">
       <c r="A192" s="3" t="s">
         <v>47</v>
       </c>
@@ -4676,7 +4677,7 @@
       <c r="C192" s="2"/>
       <c r="D192" s="2"/>
     </row>
-    <row r="193" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:4" ht="31" x14ac:dyDescent="0.35">
       <c r="A193" s="3" t="s">
         <v>48</v>
       </c>
@@ -4686,7 +4687,7 @@
       <c r="C193" s="2"/>
       <c r="D193" s="2"/>
     </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A194" s="3" t="s">
         <v>23</v>
       </c>
@@ -4694,7 +4695,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A195" s="3" t="s">
         <v>24</v>
       </c>
@@ -4702,7 +4703,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="196" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A196" s="3" t="s">
         <v>50</v>
       </c>
@@ -4710,7 +4711,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="197" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:4" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A197" s="3" t="s">
         <v>51</v>
       </c>
@@ -4720,7 +4721,7 @@
       <c r="C197" s="2"/>
       <c r="D197" s="2"/>
     </row>
-    <row r="198" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A198" s="3" t="s">
         <v>52</v>
       </c>
@@ -4728,7 +4729,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A199" s="3" t="s">
         <v>46</v>
       </c>
@@ -4736,7 +4737,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A200" s="3" t="s">
         <v>23</v>
       </c>
@@ -4744,7 +4745,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="201" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A201" s="3" t="s">
         <v>24</v>
       </c>
@@ -4752,18 +4753,18 @@
         <v>3</v>
       </c>
     </row>
-    <row r="203" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A203" s="1" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="204" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A204" s="3" t="s">
         <v>62</v>
       </c>
       <c r="C204" s="4"/>
     </row>
-    <row r="205" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:4" ht="62" x14ac:dyDescent="0.35">
       <c r="A205" s="3" t="s">
         <v>157</v>
       </c>
@@ -4775,7 +4776,7 @@
       </c>
       <c r="D205" s="2"/>
     </row>
-    <row r="206" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:4" ht="62" x14ac:dyDescent="0.35">
       <c r="A206" s="3" t="s">
         <v>13</v>
       </c>
@@ -4789,7 +4790,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="207" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:4" ht="31" x14ac:dyDescent="0.35">
       <c r="A207" s="3" t="s">
         <v>158</v>
       </c>
@@ -4799,7 +4800,7 @@
       </c>
       <c r="D207" s="2"/>
     </row>
-    <row r="208" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:4" ht="31" x14ac:dyDescent="0.35">
       <c r="A208" s="3" t="s">
         <v>159</v>
       </c>
@@ -4809,7 +4810,7 @@
       </c>
       <c r="D208" s="2"/>
     </row>
-    <row r="209" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:4" ht="31" x14ac:dyDescent="0.35">
       <c r="A209" s="3" t="s">
         <v>160</v>
       </c>
@@ -4819,7 +4820,7 @@
       </c>
       <c r="D209" s="2"/>
     </row>
-    <row r="210" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:4" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A210" s="3" t="s">
         <v>161</v>
       </c>
@@ -4829,7 +4830,7 @@
       </c>
       <c r="D210" s="2"/>
     </row>
-    <row r="211" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:4" ht="31" x14ac:dyDescent="0.35">
       <c r="A211" s="3" t="s">
         <v>162</v>
       </c>
@@ -4839,7 +4840,7 @@
       </c>
       <c r="D211" s="2"/>
     </row>
-    <row r="212" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:4" ht="31" x14ac:dyDescent="0.35">
       <c r="A212" s="3" t="s">
         <v>163</v>
       </c>
@@ -4849,7 +4850,7 @@
       </c>
       <c r="D212" s="2"/>
     </row>
-    <row r="213" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A213" s="3" t="s">
         <v>21</v>
       </c>
@@ -4859,7 +4860,7 @@
       </c>
       <c r="D213" s="2"/>
     </row>
-    <row r="214" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A214" s="3" t="s">
         <v>23</v>
       </c>
@@ -4869,7 +4870,7 @@
       </c>
       <c r="D214" s="2"/>
     </row>
-    <row r="215" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A215" s="3" t="s">
         <v>24</v>
       </c>
@@ -4879,7 +4880,7 @@
       </c>
       <c r="D215" s="2"/>
     </row>
-    <row r="216" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A216" s="3" t="s">
         <v>26</v>
       </c>
@@ -4887,7 +4888,7 @@
         <v>858</v>
       </c>
     </row>
-    <row r="217" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:4" ht="31" x14ac:dyDescent="0.35">
       <c r="A217" s="3" t="s">
         <v>27</v>
       </c>
@@ -4897,7 +4898,7 @@
       <c r="C217" s="2"/>
       <c r="D217" s="2"/>
     </row>
-    <row r="218" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:4" ht="31" x14ac:dyDescent="0.35">
       <c r="A218" s="3" t="s">
         <v>76</v>
       </c>
@@ -4907,7 +4908,7 @@
       <c r="C218" s="2"/>
       <c r="D218" s="2"/>
     </row>
-    <row r="219" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:4" ht="31" x14ac:dyDescent="0.35">
       <c r="A219" s="3" t="s">
         <v>28</v>
       </c>
@@ -4917,7 +4918,7 @@
       <c r="C219" s="2"/>
       <c r="D219" s="4"/>
     </row>
-    <row r="220" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:4" ht="31" x14ac:dyDescent="0.35">
       <c r="A220" s="3" t="s">
         <v>164</v>
       </c>
@@ -4927,7 +4928,7 @@
       <c r="C220" s="2"/>
       <c r="D220" s="2"/>
     </row>
-    <row r="221" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:4" ht="31" x14ac:dyDescent="0.35">
       <c r="A221" s="3" t="s">
         <v>78</v>
       </c>
@@ -4937,7 +4938,7 @@
       <c r="C221" s="2"/>
       <c r="D221" s="4"/>
     </row>
-    <row r="222" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A222" s="3" t="s">
         <v>52</v>
       </c>
@@ -4945,7 +4946,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="223" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A223" s="3" t="s">
         <v>46</v>
       </c>
@@ -4953,7 +4954,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="224" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A224" s="3" t="s">
         <v>23</v>
       </c>
@@ -4961,7 +4962,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="225" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A225" s="3" t="s">
         <v>24</v>
       </c>
@@ -4969,7 +4970,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="226" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A226" s="3" t="s">
         <v>165</v>
       </c>
@@ -4977,7 +4978,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="227" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:4" ht="31" x14ac:dyDescent="0.35">
       <c r="A227" s="3" t="s">
         <v>166</v>
       </c>
@@ -4985,7 +4986,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="228" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:4" ht="31" x14ac:dyDescent="0.35">
       <c r="A228" s="3" t="s">
         <v>34</v>
       </c>
@@ -4993,7 +4994,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="229" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:4" ht="31" x14ac:dyDescent="0.35">
       <c r="A229" s="3" t="s">
         <v>167</v>
       </c>
@@ -5003,7 +5004,7 @@
       <c r="C229" s="2"/>
       <c r="D229" s="4"/>
     </row>
-    <row r="230" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:4" ht="31" x14ac:dyDescent="0.35">
       <c r="A230" s="3" t="s">
         <v>168</v>
       </c>
@@ -5013,7 +5014,7 @@
       <c r="C230" s="2"/>
       <c r="D230" s="4"/>
     </row>
-    <row r="231" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:4" ht="31" x14ac:dyDescent="0.35">
       <c r="A231" s="3" t="s">
         <v>169</v>
       </c>
@@ -5023,7 +5024,7 @@
       <c r="C231" s="2"/>
       <c r="D231" s="4"/>
     </row>
-    <row r="232" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:4" ht="31" x14ac:dyDescent="0.35">
       <c r="A232" s="3" t="s">
         <v>170</v>
       </c>
@@ -5031,7 +5032,7 @@
         <v>697</v>
       </c>
     </row>
-    <row r="233" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A233" s="3" t="s">
         <v>46</v>
       </c>
@@ -5039,7 +5040,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="234" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A234" s="3" t="s">
         <v>23</v>
       </c>
@@ -5047,7 +5048,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="235" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A235" s="3" t="s">
         <v>24</v>
       </c>
@@ -5055,7 +5056,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="236" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:4" ht="31" x14ac:dyDescent="0.35">
       <c r="A236" s="3" t="s">
         <v>171</v>
       </c>
@@ -5063,7 +5064,7 @@
         <v>859</v>
       </c>
     </row>
-    <row r="237" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:4" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A237" s="3" t="s">
         <v>88</v>
       </c>
@@ -5073,7 +5074,7 @@
       <c r="C237" s="2"/>
       <c r="D237" s="2"/>
     </row>
-    <row r="238" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:4" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A238" s="3" t="s">
         <v>89</v>
       </c>
@@ -5083,7 +5084,7 @@
       <c r="C238" s="2"/>
       <c r="D238" s="2"/>
     </row>
-    <row r="239" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:4" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A239" s="3" t="s">
         <v>172</v>
       </c>
@@ -5093,7 +5094,7 @@
       <c r="C239" s="2"/>
       <c r="D239" s="2"/>
     </row>
-    <row r="240" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A240" s="3" t="s">
         <v>46</v>
       </c>
@@ -5101,7 +5102,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="241" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A241" s="3" t="s">
         <v>24</v>
       </c>
@@ -5109,7 +5110,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="242" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A242" s="3" t="s">
         <v>173</v>
       </c>
@@ -5117,7 +5118,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="243" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A243" s="3" t="s">
         <v>88</v>
       </c>
@@ -5125,7 +5126,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="244" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:4" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A244" s="3" t="s">
         <v>174</v>
       </c>
@@ -5135,7 +5136,7 @@
       <c r="C244" s="2"/>
       <c r="D244" s="4"/>
     </row>
-    <row r="245" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:4" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A245" s="3" t="s">
         <v>175</v>
       </c>
@@ -5145,7 +5146,7 @@
       <c r="C245" s="2"/>
       <c r="D245" s="4"/>
     </row>
-    <row r="246" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:4" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A246" s="3" t="s">
         <v>176</v>
       </c>
@@ -5155,7 +5156,7 @@
       <c r="C246" s="2"/>
       <c r="D246" s="4"/>
     </row>
-    <row r="247" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:4" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A247" s="3" t="s">
         <v>177</v>
       </c>
@@ -5165,7 +5166,7 @@
       <c r="C247" s="2"/>
       <c r="D247" s="4"/>
     </row>
-    <row r="248" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:4" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A248" s="3" t="s">
         <v>178</v>
       </c>
@@ -5175,7 +5176,7 @@
       <c r="C248" s="2"/>
       <c r="D248" s="4"/>
     </row>
-    <row r="249" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:4" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A249" s="3" t="s">
         <v>179</v>
       </c>
@@ -5185,7 +5186,7 @@
       <c r="C249" s="2"/>
       <c r="D249" s="4"/>
     </row>
-    <row r="250" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:4" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A250" s="3" t="s">
         <v>180</v>
       </c>
@@ -5195,7 +5196,7 @@
       <c r="C250" s="2"/>
       <c r="D250" s="4"/>
     </row>
-    <row r="251" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:4" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A251" s="3" t="s">
         <v>181</v>
       </c>
@@ -5205,7 +5206,7 @@
       <c r="C251" s="2"/>
       <c r="D251" s="4"/>
     </row>
-    <row r="252" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:4" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A252" s="3" t="s">
         <v>182</v>
       </c>
@@ -5215,7 +5216,7 @@
       <c r="C252" s="2"/>
       <c r="D252" s="4"/>
     </row>
-    <row r="253" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A253" s="3" t="s">
         <v>46</v>
       </c>
@@ -5223,7 +5224,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="254" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A254" s="3" t="s">
         <v>23</v>
       </c>
@@ -5231,7 +5232,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="255" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A255" s="3" t="s">
         <v>24</v>
       </c>
@@ -5239,7 +5240,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="256" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A256" s="3" t="s">
         <v>183</v>
       </c>
@@ -5251,7 +5252,7 @@
       </c>
       <c r="D256" s="2"/>
     </row>
-    <row r="257" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A257" s="3" t="s">
         <v>184</v>
       </c>
@@ -5261,7 +5262,7 @@
       </c>
       <c r="D257" s="2"/>
     </row>
-    <row r="258" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:4" ht="31" x14ac:dyDescent="0.35">
       <c r="A258" s="3" t="s">
         <v>579</v>
       </c>
@@ -5271,7 +5272,7 @@
       </c>
       <c r="D258" s="2"/>
     </row>
-    <row r="259" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A259" s="3" t="s">
         <v>185</v>
       </c>
@@ -5281,7 +5282,7 @@
       </c>
       <c r="D259" s="2"/>
     </row>
-    <row r="260" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A260" s="3" t="s">
         <v>186</v>
       </c>
@@ -5291,7 +5292,7 @@
       </c>
       <c r="D260" s="2"/>
     </row>
-    <row r="261" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A261" s="3" t="s">
         <v>187</v>
       </c>
@@ -5301,7 +5302,7 @@
       </c>
       <c r="D261" s="2"/>
     </row>
-    <row r="262" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A262" s="3" t="s">
         <v>188</v>
       </c>
@@ -5311,7 +5312,7 @@
       </c>
       <c r="D262" s="2"/>
     </row>
-    <row r="263" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A263" s="3" t="s">
         <v>189</v>
       </c>
@@ -5321,7 +5322,7 @@
       </c>
       <c r="D263" s="2"/>
     </row>
-    <row r="264" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A264" s="3" t="s">
         <v>190</v>
       </c>
@@ -5331,7 +5332,7 @@
       </c>
       <c r="D264" s="2"/>
     </row>
-    <row r="265" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:4" ht="31" x14ac:dyDescent="0.35">
       <c r="A265" s="3" t="s">
         <v>191</v>
       </c>
@@ -5341,7 +5342,7 @@
       </c>
       <c r="D265" s="2"/>
     </row>
-    <row r="266" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A266" s="3" t="s">
         <v>192</v>
       </c>
@@ -5351,7 +5352,7 @@
       </c>
       <c r="D266" s="2"/>
     </row>
-    <row r="267" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A267" s="3" t="s">
         <v>193</v>
       </c>
@@ -5361,7 +5362,7 @@
       </c>
       <c r="D267" s="2"/>
     </row>
-    <row r="268" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A268" s="3" t="s">
         <v>46</v>
       </c>
@@ -5371,7 +5372,7 @@
       </c>
       <c r="D268" s="2"/>
     </row>
-    <row r="269" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A269" s="3" t="s">
         <v>194</v>
       </c>
@@ -5381,7 +5382,7 @@
       </c>
       <c r="D269" s="2"/>
     </row>
-    <row r="270" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A270" s="3" t="s">
         <v>195</v>
       </c>
@@ -5391,7 +5392,7 @@
       </c>
       <c r="D270" s="2"/>
     </row>
-    <row r="271" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A271" s="3" t="s">
         <v>196</v>
       </c>
@@ -5401,7 +5402,7 @@
       </c>
       <c r="D271" s="2"/>
     </row>
-    <row r="272" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A272" s="3" t="s">
         <v>197</v>
       </c>
@@ -5411,7 +5412,7 @@
       </c>
       <c r="D272" s="2"/>
     </row>
-    <row r="273" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A273" s="3" t="s">
         <v>23</v>
       </c>
@@ -5421,7 +5422,7 @@
       </c>
       <c r="D273" s="2"/>
     </row>
-    <row r="274" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A274" s="3" t="s">
         <v>24</v>
       </c>
@@ -5431,7 +5432,7 @@
       </c>
       <c r="D274" s="2"/>
     </row>
-    <row r="275" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:4" ht="31" x14ac:dyDescent="0.35">
       <c r="A275" s="3" t="s">
         <v>198</v>
       </c>
@@ -5439,7 +5440,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="276" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A276" s="3" t="s">
         <v>199</v>
       </c>
@@ -5447,7 +5448,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="277" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:4" ht="31" x14ac:dyDescent="0.35">
       <c r="A277" s="3" t="s">
         <v>200</v>
       </c>
@@ -5455,7 +5456,7 @@
         <v>730</v>
       </c>
     </row>
-    <row r="278" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:4" ht="31" x14ac:dyDescent="0.35">
       <c r="A278" s="3" t="s">
         <v>166</v>
       </c>
@@ -5463,7 +5464,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="279" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:4" ht="31" x14ac:dyDescent="0.35">
       <c r="A279" s="3" t="s">
         <v>34</v>
       </c>
@@ -5471,7 +5472,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="280" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:4" ht="31" x14ac:dyDescent="0.35">
       <c r="A280" s="3" t="s">
         <v>201</v>
       </c>
@@ -5479,7 +5480,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="281" spans="1:4" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:4" ht="77.5" x14ac:dyDescent="0.35">
       <c r="A281" s="3" t="s">
         <v>202</v>
       </c>
@@ -5487,7 +5488,7 @@
         <v>731</v>
       </c>
     </row>
-    <row r="282" spans="1:4" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:4" ht="77.5" x14ac:dyDescent="0.35">
       <c r="A282" s="3" t="s">
         <v>203</v>
       </c>
@@ -5495,7 +5496,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="283" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:4" ht="31" x14ac:dyDescent="0.35">
       <c r="A283" s="3" t="s">
         <v>169</v>
       </c>
@@ -5505,7 +5506,7 @@
       <c r="C283" s="2"/>
       <c r="D283" s="4"/>
     </row>
-    <row r="284" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A284" s="3" t="s">
         <v>46</v>
       </c>
@@ -5513,7 +5514,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="285" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A285" s="3" t="s">
         <v>23</v>
       </c>
@@ -5521,7 +5522,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="286" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A286" s="3" t="s">
         <v>24</v>
       </c>
@@ -5529,19 +5530,19 @@
         <v>3</v>
       </c>
     </row>
-    <row r="288" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A288" s="1" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="289" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A289" s="3" t="s">
         <v>62</v>
       </c>
       <c r="C289" s="4"/>
       <c r="D289" s="6"/>
     </row>
-    <row r="290" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:4" ht="62" x14ac:dyDescent="0.35">
       <c r="A290" s="3" t="s">
         <v>205</v>
       </c>
@@ -5553,7 +5554,7 @@
       </c>
       <c r="D290" s="4"/>
     </row>
-    <row r="291" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:4" ht="31" x14ac:dyDescent="0.35">
       <c r="A291" s="3" t="s">
         <v>13</v>
       </c>
@@ -5565,7 +5566,7 @@
       </c>
       <c r="D291" s="4"/>
     </row>
-    <row r="292" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:4" ht="31" x14ac:dyDescent="0.35">
       <c r="A292" s="3" t="s">
         <v>206</v>
       </c>
@@ -5575,7 +5576,7 @@
       </c>
       <c r="D292" s="4"/>
     </row>
-    <row r="293" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:4" ht="31" x14ac:dyDescent="0.35">
       <c r="A293" s="3" t="s">
         <v>207</v>
       </c>
@@ -5585,7 +5586,7 @@
       </c>
       <c r="D293" s="4"/>
     </row>
-    <row r="294" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:4" ht="31" x14ac:dyDescent="0.35">
       <c r="A294" s="3" t="s">
         <v>208</v>
       </c>
@@ -5595,7 +5596,7 @@
       </c>
       <c r="D294" s="4"/>
     </row>
-    <row r="295" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:4" ht="31" x14ac:dyDescent="0.35">
       <c r="A295" s="3" t="s">
         <v>209</v>
       </c>
@@ -5605,7 +5606,7 @@
       </c>
       <c r="D295" s="4"/>
     </row>
-    <row r="296" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:4" ht="31" x14ac:dyDescent="0.35">
       <c r="A296" s="3" t="s">
         <v>210</v>
       </c>
@@ -5615,7 +5616,7 @@
       </c>
       <c r="D296" s="4"/>
     </row>
-    <row r="297" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:4" ht="31" x14ac:dyDescent="0.35">
       <c r="A297" s="3" t="s">
         <v>211</v>
       </c>
@@ -5625,7 +5626,7 @@
       </c>
       <c r="D297" s="4"/>
     </row>
-    <row r="298" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:4" ht="31" x14ac:dyDescent="0.35">
       <c r="A298" s="3" t="s">
         <v>212</v>
       </c>
@@ -5635,7 +5636,7 @@
       </c>
       <c r="D298" s="4"/>
     </row>
-    <row r="299" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:4" ht="31" x14ac:dyDescent="0.35">
       <c r="A299" s="3" t="s">
         <v>213</v>
       </c>
@@ -5645,7 +5646,7 @@
       </c>
       <c r="D299" s="4"/>
     </row>
-    <row r="300" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:4" ht="31" x14ac:dyDescent="0.35">
       <c r="A300" s="3" t="s">
         <v>214</v>
       </c>
@@ -5655,7 +5656,7 @@
       </c>
       <c r="D300" s="4"/>
     </row>
-    <row r="301" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A301" s="3" t="s">
         <v>21</v>
       </c>
@@ -5665,7 +5666,7 @@
       </c>
       <c r="D301" s="4"/>
     </row>
-    <row r="302" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A302" s="3" t="s">
         <v>23</v>
       </c>
@@ -5675,7 +5676,7 @@
       </c>
       <c r="D302" s="4"/>
     </row>
-    <row r="303" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A303" s="3" t="s">
         <v>24</v>
       </c>
@@ -5685,7 +5686,7 @@
       </c>
       <c r="D303" s="4"/>
     </row>
-    <row r="304" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A304" s="3" t="s">
         <v>215</v>
       </c>
@@ -5693,7 +5694,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="305" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:4" ht="31" x14ac:dyDescent="0.35">
       <c r="A305" s="3" t="s">
         <v>58</v>
       </c>
@@ -5701,7 +5702,7 @@
         <v>715</v>
       </c>
     </row>
-    <row r="306" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:4" ht="31" x14ac:dyDescent="0.35">
       <c r="A306" s="3" t="s">
         <v>59</v>
       </c>
@@ -5709,7 +5710,7 @@
         <v>716</v>
       </c>
     </row>
-    <row r="307" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:4" ht="31" x14ac:dyDescent="0.35">
       <c r="A307" s="3" t="s">
         <v>60</v>
       </c>
@@ -5719,7 +5720,7 @@
       <c r="C307" s="2"/>
       <c r="D307" s="4"/>
     </row>
-    <row r="308" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A308" s="3" t="s">
         <v>46</v>
       </c>
@@ -5727,7 +5728,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="309" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A309" s="3" t="s">
         <v>24</v>
       </c>
@@ -5735,7 +5736,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="310" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A310" s="3" t="s">
         <v>79</v>
       </c>
@@ -5747,7 +5748,7 @@
       </c>
       <c r="D310" s="2"/>
     </row>
-    <row r="311" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A311" s="3" t="s">
         <v>216</v>
       </c>
@@ -5757,7 +5758,7 @@
       </c>
       <c r="D311" s="2"/>
     </row>
-    <row r="312" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A312" s="3" t="s">
         <v>186</v>
       </c>
@@ -5767,7 +5768,7 @@
       </c>
       <c r="D312" s="2"/>
     </row>
-    <row r="313" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A313" s="3" t="s">
         <v>188</v>
       </c>
@@ -5777,7 +5778,7 @@
       </c>
       <c r="D313" s="2"/>
     </row>
-    <row r="314" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A314" s="3" t="s">
         <v>189</v>
       </c>
@@ -5787,7 +5788,7 @@
       </c>
       <c r="D314" s="2"/>
     </row>
-    <row r="315" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A315" s="3" t="s">
         <v>217</v>
       </c>
@@ -5797,7 +5798,7 @@
       </c>
       <c r="D315" s="2"/>
     </row>
-    <row r="316" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A316" s="3" t="s">
         <v>218</v>
       </c>
@@ -5807,7 +5808,7 @@
       </c>
       <c r="D316" s="2"/>
     </row>
-    <row r="317" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A317" s="3" t="s">
         <v>219</v>
       </c>
@@ -5817,7 +5818,7 @@
       </c>
       <c r="D317" s="2"/>
     </row>
-    <row r="318" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A318" s="3" t="s">
         <v>220</v>
       </c>
@@ -5827,7 +5828,7 @@
       </c>
       <c r="D318" s="2"/>
     </row>
-    <row r="319" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:4" ht="31" x14ac:dyDescent="0.35">
       <c r="A319" s="3" t="s">
         <v>221</v>
       </c>
@@ -5837,7 +5838,7 @@
       </c>
       <c r="D319" s="2"/>
     </row>
-    <row r="320" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A320" s="3" t="s">
         <v>46</v>
       </c>
@@ -5847,7 +5848,7 @@
       </c>
       <c r="D320" s="2"/>
     </row>
-    <row r="321" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A321" s="3" t="s">
         <v>23</v>
       </c>
@@ -5857,7 +5858,7 @@
       </c>
       <c r="D321" s="2"/>
     </row>
-    <row r="322" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A322" s="3" t="s">
         <v>24</v>
       </c>
@@ -5867,7 +5868,7 @@
       </c>
       <c r="D322" s="2"/>
     </row>
-    <row r="323" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A323" s="3" t="s">
         <v>222</v>
       </c>
@@ -5877,7 +5878,7 @@
       <c r="C323" s="2"/>
       <c r="D323" s="2"/>
     </row>
-    <row r="324" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:5" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A324" s="3" t="s">
         <v>223</v>
       </c>
@@ -5888,7 +5889,7 @@
       <c r="D324" s="4"/>
       <c r="E324" s="4"/>
     </row>
-    <row r="325" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:5" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A325" s="3" t="s">
         <v>224</v>
       </c>
@@ -5898,7 +5899,7 @@
       <c r="C325" s="2"/>
       <c r="D325" s="4"/>
     </row>
-    <row r="326" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:5" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A326" s="3" t="s">
         <v>225</v>
       </c>
@@ -5908,7 +5909,7 @@
       <c r="C326" s="2"/>
       <c r="D326" s="4"/>
     </row>
-    <row r="327" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:5" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A327" s="3" t="s">
         <v>226</v>
       </c>
@@ -5918,7 +5919,7 @@
       <c r="C327" s="2"/>
       <c r="D327" s="4"/>
     </row>
-    <row r="328" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:5" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A328" s="3" t="s">
         <v>227</v>
       </c>
@@ -5928,7 +5929,7 @@
       <c r="C328" s="2"/>
       <c r="D328" s="4"/>
     </row>
-    <row r="329" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A329" s="3" t="s">
         <v>46</v>
       </c>
@@ -5936,7 +5937,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="330" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A330" s="3" t="s">
         <v>228</v>
       </c>
@@ -5945,7 +5946,7 @@
       </c>
       <c r="E330" s="4"/>
     </row>
-    <row r="331" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A331" s="3" t="s">
         <v>24</v>
       </c>
@@ -5953,7 +5954,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="332" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A332" s="3" t="s">
         <v>229</v>
       </c>
@@ -5962,7 +5963,7 @@
       </c>
       <c r="E332" s="4"/>
     </row>
-    <row r="333" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A333" s="3" t="s">
         <v>230</v>
       </c>
@@ -5970,7 +5971,7 @@
         <v>858</v>
       </c>
     </row>
-    <row r="334" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:5" ht="31" x14ac:dyDescent="0.35">
       <c r="A334" s="3" t="s">
         <v>231</v>
       </c>
@@ -5980,7 +5981,7 @@
       <c r="C334" s="2"/>
       <c r="D334" s="2"/>
     </row>
-    <row r="335" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:5" ht="31" x14ac:dyDescent="0.35">
       <c r="A335" s="3" t="s">
         <v>28</v>
       </c>
@@ -5990,7 +5991,7 @@
       <c r="C335" s="2"/>
       <c r="D335" s="4"/>
     </row>
-    <row r="336" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:5" ht="31" x14ac:dyDescent="0.35">
       <c r="A336" s="3" t="s">
         <v>78</v>
       </c>
@@ -6000,7 +6001,7 @@
       <c r="C336" s="2"/>
       <c r="D336" s="4"/>
     </row>
-    <row r="337" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A337" s="3" t="s">
         <v>46</v>
       </c>
@@ -6009,7 +6010,7 @@
       </c>
       <c r="C337" s="2"/>
     </row>
-    <row r="338" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A338" s="3" t="s">
         <v>23</v>
       </c>
@@ -6018,7 +6019,7 @@
       </c>
       <c r="C338" s="2"/>
     </row>
-    <row r="339" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A339" s="3" t="s">
         <v>24</v>
       </c>
@@ -6027,7 +6028,7 @@
       </c>
       <c r="C339" s="2"/>
     </row>
-    <row r="340" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A340" s="3" t="s">
         <v>232</v>
       </c>
@@ -6036,7 +6037,7 @@
       </c>
       <c r="C340" s="2"/>
     </row>
-    <row r="341" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:4" ht="31" x14ac:dyDescent="0.35">
       <c r="A341" s="3" t="s">
         <v>233</v>
       </c>
@@ -6046,7 +6047,7 @@
       <c r="C341" s="2"/>
       <c r="D341" s="4"/>
     </row>
-    <row r="342" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:4" ht="31" x14ac:dyDescent="0.35">
       <c r="A342" s="3" t="s">
         <v>234</v>
       </c>
@@ -6056,7 +6057,7 @@
       <c r="C342" s="2"/>
       <c r="D342" s="4"/>
     </row>
-    <row r="343" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:4" ht="31" x14ac:dyDescent="0.35">
       <c r="A343" s="3" t="s">
         <v>235</v>
       </c>
@@ -6066,7 +6067,7 @@
       <c r="C343" s="2"/>
       <c r="D343" s="4"/>
     </row>
-    <row r="344" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:4" ht="31" x14ac:dyDescent="0.35">
       <c r="A344" s="3" t="s">
         <v>236</v>
       </c>
@@ -6076,7 +6077,7 @@
       <c r="C344" s="2"/>
       <c r="D344" s="4"/>
     </row>
-    <row r="345" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A345" s="3" t="s">
         <v>52</v>
       </c>
@@ -6085,7 +6086,7 @@
       </c>
       <c r="C345" s="2"/>
     </row>
-    <row r="346" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A346" s="3" t="s">
         <v>46</v>
       </c>
@@ -6094,7 +6095,7 @@
       </c>
       <c r="C346" s="2"/>
     </row>
-    <row r="347" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A347" s="3" t="s">
         <v>23</v>
       </c>
@@ -6103,7 +6104,7 @@
       </c>
       <c r="C347" s="2"/>
     </row>
-    <row r="348" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A348" s="3" t="s">
         <v>24</v>
       </c>
@@ -6112,7 +6113,7 @@
       </c>
       <c r="C348" s="2"/>
     </row>
-    <row r="349" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A349" s="3" t="s">
         <v>237</v>
       </c>
@@ -6121,7 +6122,7 @@
       </c>
       <c r="C349" s="2"/>
     </row>
-    <row r="350" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:4" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A350" s="3" t="s">
         <v>238</v>
       </c>
@@ -6131,7 +6132,7 @@
       <c r="C350" s="2"/>
       <c r="D350" s="4"/>
     </row>
-    <row r="351" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:4" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A351" s="3" t="s">
         <v>239</v>
       </c>
@@ -6141,7 +6142,7 @@
       <c r="C351" s="2"/>
       <c r="D351" s="2"/>
     </row>
-    <row r="352" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:4" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A352" s="3" t="s">
         <v>240</v>
       </c>
@@ -6151,7 +6152,7 @@
       <c r="C352" s="2"/>
       <c r="D352" s="2"/>
     </row>
-    <row r="353" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:4" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A353" s="3" t="s">
         <v>241</v>
       </c>
@@ -6161,7 +6162,7 @@
       <c r="C353" s="2"/>
       <c r="D353" s="2"/>
     </row>
-    <row r="354" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A354" s="3" t="s">
         <v>46</v>
       </c>
@@ -6169,7 +6170,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="355" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A355" s="3" t="s">
         <v>24</v>
       </c>
@@ -6177,7 +6178,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="356" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A356" s="3" t="s">
         <v>242</v>
       </c>
@@ -6185,7 +6186,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="357" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:4" ht="31" x14ac:dyDescent="0.35">
       <c r="A357" s="3" t="s">
         <v>243</v>
       </c>
@@ -6195,7 +6196,7 @@
       <c r="C357" s="2"/>
       <c r="D357" s="2"/>
     </row>
-    <row r="358" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:4" ht="31" x14ac:dyDescent="0.35">
       <c r="A358" s="3" t="s">
         <v>244</v>
       </c>
@@ -6205,7 +6206,7 @@
       <c r="C358" s="2"/>
       <c r="D358" s="2"/>
     </row>
-    <row r="359" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:4" ht="31" x14ac:dyDescent="0.35">
       <c r="A359" s="3" t="s">
         <v>245</v>
       </c>
@@ -6215,7 +6216,7 @@
       <c r="C359" s="2"/>
       <c r="D359" s="4"/>
     </row>
-    <row r="360" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:4" ht="31" x14ac:dyDescent="0.35">
       <c r="A360" s="3" t="s">
         <v>246</v>
       </c>
@@ -6225,7 +6226,7 @@
       <c r="C360" s="2"/>
       <c r="D360" s="2"/>
     </row>
-    <row r="361" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:4" ht="31" x14ac:dyDescent="0.35">
       <c r="A361" s="3" t="s">
         <v>247</v>
       </c>
@@ -6235,7 +6236,7 @@
       <c r="C361" s="2"/>
       <c r="D361" s="4"/>
     </row>
-    <row r="362" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:4" ht="31" x14ac:dyDescent="0.35">
       <c r="A362" s="3" t="s">
         <v>248</v>
       </c>
@@ -6245,7 +6246,7 @@
       <c r="C362" s="2"/>
       <c r="D362" s="2"/>
     </row>
-    <row r="363" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:4" ht="31" x14ac:dyDescent="0.35">
       <c r="A363" s="3" t="s">
         <v>249</v>
       </c>
@@ -6255,7 +6256,7 @@
       <c r="C363" s="2"/>
       <c r="D363" s="4"/>
     </row>
-    <row r="364" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:4" ht="31" x14ac:dyDescent="0.35">
       <c r="A364" s="3" t="s">
         <v>250</v>
       </c>
@@ -6265,7 +6266,7 @@
       <c r="C364" s="2"/>
       <c r="D364" s="4"/>
     </row>
-    <row r="365" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A365" s="3" t="s">
         <v>52</v>
       </c>
@@ -6273,7 +6274,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="366" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A366" s="3" t="s">
         <v>46</v>
       </c>
@@ -6281,7 +6282,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="367" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A367" s="3" t="s">
         <v>23</v>
       </c>
@@ -6289,7 +6290,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="368" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A368" s="3" t="s">
         <v>24</v>
       </c>
@@ -6297,18 +6298,18 @@
         <v>3</v>
       </c>
     </row>
-    <row r="370" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:4" ht="31" x14ac:dyDescent="0.35">
       <c r="A370" s="1" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="371" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A371" s="3" t="s">
         <v>62</v>
       </c>
       <c r="C371" s="4"/>
     </row>
-    <row r="372" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:4" ht="62" x14ac:dyDescent="0.35">
       <c r="A372" s="3" t="s">
         <v>252</v>
       </c>
@@ -6322,24 +6323,24 @@
         <v>693</v>
       </c>
     </row>
-    <row r="373" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:4" ht="31" x14ac:dyDescent="0.35">
       <c r="A373" s="3" t="s">
         <v>13</v>
       </c>
       <c r="B373" s="4" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="C373" s="2" t="s">
         <v>641</v>
       </c>
       <c r="D373" s="4"/>
     </row>
-    <row r="374" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B374" s="7"/>
       <c r="C374" s="2"/>
       <c r="D374" s="4"/>
     </row>
-    <row r="375" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:4" ht="31" x14ac:dyDescent="0.35">
       <c r="A375" s="3" t="s">
         <v>253</v>
       </c>
@@ -6351,7 +6352,7 @@
       </c>
       <c r="D375" s="4"/>
     </row>
-    <row r="376" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:4" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A376" s="3" t="s">
         <v>254</v>
       </c>
@@ -6363,19 +6364,19 @@
       </c>
       <c r="D376" s="4"/>
     </row>
-    <row r="377" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:4" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A377" s="3" t="s">
         <v>255</v>
       </c>
       <c r="B377" s="4" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="C377" s="2" t="s">
         <v>687</v>
       </c>
       <c r="D377" s="4"/>
     </row>
-    <row r="378" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:4" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A378" s="3" t="s">
         <v>256</v>
       </c>
@@ -6387,7 +6388,7 @@
       </c>
       <c r="D378" s="4"/>
     </row>
-    <row r="379" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:4" ht="62" x14ac:dyDescent="0.35">
       <c r="A379" s="3" t="s">
         <v>257</v>
       </c>
@@ -6399,7 +6400,7 @@
       </c>
       <c r="D379" s="4"/>
     </row>
-    <row r="380" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:4" ht="62" x14ac:dyDescent="0.35">
       <c r="A380" s="3" t="s">
         <v>258</v>
       </c>
@@ -6411,7 +6412,7 @@
       </c>
       <c r="D380" s="4"/>
     </row>
-    <row r="381" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:4" ht="62" x14ac:dyDescent="0.35">
       <c r="A381" s="3" t="s">
         <v>259</v>
       </c>
@@ -6423,7 +6424,7 @@
       </c>
       <c r="D381" s="4"/>
     </row>
-    <row r="382" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:4" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A382" s="3" t="s">
         <v>260</v>
       </c>
@@ -6435,7 +6436,7 @@
       </c>
       <c r="D382" s="4"/>
     </row>
-    <row r="383" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:4" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A383" s="3" t="s">
         <v>261</v>
       </c>
@@ -6447,7 +6448,7 @@
       </c>
       <c r="D383" s="4"/>
     </row>
-    <row r="384" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:4" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A384" s="3" t="s">
         <v>262</v>
       </c>
@@ -6459,7 +6460,7 @@
       </c>
       <c r="D384" s="4"/>
     </row>
-    <row r="385" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:4" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A385" s="3" t="s">
         <v>263</v>
       </c>
@@ -6471,7 +6472,7 @@
       </c>
       <c r="D385" s="4"/>
     </row>
-    <row r="386" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:4" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A386" s="3" t="s">
         <v>264</v>
       </c>
@@ -6483,7 +6484,7 @@
       </c>
       <c r="D386" s="4"/>
     </row>
-    <row r="387" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:4" ht="31" x14ac:dyDescent="0.35">
       <c r="A387" s="3" t="s">
         <v>265</v>
       </c>
@@ -6495,7 +6496,7 @@
       </c>
       <c r="D387" s="4"/>
     </row>
-    <row r="388" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:4" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A388" s="3" t="s">
         <v>266</v>
       </c>
@@ -6507,7 +6508,7 @@
       </c>
       <c r="D388" s="4"/>
     </row>
-    <row r="389" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A389" s="3" t="s">
         <v>267</v>
       </c>
@@ -6519,7 +6520,7 @@
       </c>
       <c r="D389" s="4"/>
     </row>
-    <row r="390" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A390" s="3" t="s">
         <v>268</v>
       </c>
@@ -6531,7 +6532,7 @@
       </c>
       <c r="D390" s="4"/>
     </row>
-    <row r="391" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A391" s="3" t="s">
         <v>269</v>
       </c>
@@ -6543,7 +6544,7 @@
       </c>
       <c r="D391" s="4"/>
     </row>
-    <row r="392" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A392" s="3" t="s">
         <v>21</v>
       </c>
@@ -6554,7 +6555,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="393" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:4" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A393" s="3" t="s">
         <v>270</v>
       </c>
@@ -6566,7 +6567,7 @@
       </c>
       <c r="D393" s="4"/>
     </row>
-    <row r="394" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A394" s="3" t="s">
         <v>23</v>
       </c>
@@ -6577,7 +6578,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="395" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A395" s="3" t="s">
         <v>24</v>
       </c>
@@ -6588,7 +6589,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="396" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A396" s="3" t="s">
         <v>26</v>
       </c>
@@ -6597,7 +6598,7 @@
       </c>
       <c r="C396" s="2"/>
     </row>
-    <row r="397" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:4" ht="31" x14ac:dyDescent="0.35">
       <c r="A397" s="3" t="s">
         <v>27</v>
       </c>
@@ -6607,7 +6608,7 @@
       <c r="C397" s="2"/>
       <c r="D397" s="2"/>
     </row>
-    <row r="398" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:4" ht="31" x14ac:dyDescent="0.35">
       <c r="A398" s="3" t="s">
         <v>76</v>
       </c>
@@ -6617,7 +6618,7 @@
       <c r="C398" s="2"/>
       <c r="D398" s="2"/>
     </row>
-    <row r="399" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:4" ht="31" x14ac:dyDescent="0.35">
       <c r="A399" s="3" t="s">
         <v>28</v>
       </c>
@@ -6627,7 +6628,7 @@
       <c r="C399" s="2"/>
       <c r="D399" s="4"/>
     </row>
-    <row r="400" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:4" ht="31" x14ac:dyDescent="0.35">
       <c r="A400" s="3" t="s">
         <v>164</v>
       </c>
@@ -6637,7 +6638,7 @@
       <c r="C400" s="2"/>
       <c r="D400" s="2"/>
     </row>
-    <row r="401" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:4" ht="31" x14ac:dyDescent="0.35">
       <c r="A401" s="3" t="s">
         <v>78</v>
       </c>
@@ -6647,7 +6648,7 @@
       <c r="C401" s="2"/>
       <c r="D401" s="4"/>
     </row>
-    <row r="402" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A402" s="3" t="s">
         <v>46</v>
       </c>
@@ -6655,7 +6656,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="403" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A403" s="3" t="s">
         <v>23</v>
       </c>
@@ -6663,7 +6664,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="404" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A404" s="3" t="s">
         <v>24</v>
       </c>
@@ -6671,7 +6672,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="405" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:4" ht="31" x14ac:dyDescent="0.35">
       <c r="A405" s="3" t="s">
         <v>271</v>
       </c>
@@ -6679,7 +6680,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="406" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:4" ht="31" x14ac:dyDescent="0.35">
       <c r="A406" s="3" t="s">
         <v>272</v>
       </c>
@@ -6687,7 +6688,7 @@
         <v>748</v>
       </c>
     </row>
-    <row r="407" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:4" ht="31" x14ac:dyDescent="0.35">
       <c r="A407" s="3" t="s">
         <v>273</v>
       </c>
@@ -6695,7 +6696,7 @@
         <v>749</v>
       </c>
     </row>
-    <row r="408" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:4" ht="31" x14ac:dyDescent="0.35">
       <c r="A408" s="3" t="s">
         <v>274</v>
       </c>
@@ -6703,7 +6704,7 @@
         <v>730</v>
       </c>
     </row>
-    <row r="409" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:4" ht="31" x14ac:dyDescent="0.35">
       <c r="A409" s="3" t="s">
         <v>166</v>
       </c>
@@ -6711,7 +6712,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="410" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:4" ht="31" x14ac:dyDescent="0.35">
       <c r="A410" s="3" t="s">
         <v>34</v>
       </c>
@@ -6719,7 +6720,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="411" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:4" ht="31" x14ac:dyDescent="0.35">
       <c r="A411" s="3" t="s">
         <v>35</v>
       </c>
@@ -6727,7 +6728,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="412" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:4" ht="31" x14ac:dyDescent="0.35">
       <c r="A412" s="3" t="s">
         <v>36</v>
       </c>
@@ -6735,7 +6736,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="413" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:4" ht="31" x14ac:dyDescent="0.35">
       <c r="A413" s="3" t="s">
         <v>201</v>
       </c>
@@ -6743,7 +6744,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="414" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:4" ht="31" x14ac:dyDescent="0.35">
       <c r="A414" s="3" t="s">
         <v>37</v>
       </c>
@@ -6751,7 +6752,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="415" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:4" ht="31" x14ac:dyDescent="0.35">
       <c r="A415" s="3" t="s">
         <v>39</v>
       </c>
@@ -6759,7 +6760,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="416" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:4" ht="31" x14ac:dyDescent="0.35">
       <c r="A416" s="3" t="s">
         <v>169</v>
       </c>
@@ -6769,7 +6770,7 @@
       <c r="C416" s="2"/>
       <c r="D416" s="4"/>
     </row>
-    <row r="417" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:2" ht="31" x14ac:dyDescent="0.35">
       <c r="A417" s="3" t="s">
         <v>40</v>
       </c>
@@ -6777,7 +6778,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="418" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:2" ht="31" x14ac:dyDescent="0.35">
       <c r="A418" s="3" t="s">
         <v>170</v>
       </c>
@@ -6785,7 +6786,7 @@
         <v>697</v>
       </c>
     </row>
-    <row r="419" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:2" ht="31" x14ac:dyDescent="0.35">
       <c r="A419" s="3" t="s">
         <v>41</v>
       </c>
@@ -6793,7 +6794,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="420" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:2" ht="31" x14ac:dyDescent="0.35">
       <c r="A420" s="3" t="s">
         <v>275</v>
       </c>
@@ -6801,7 +6802,7 @@
         <v>751</v>
       </c>
     </row>
-    <row r="421" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:2" ht="31" x14ac:dyDescent="0.35">
       <c r="A421" s="3" t="s">
         <v>276</v>
       </c>
@@ -6809,7 +6810,7 @@
         <v>752</v>
       </c>
     </row>
-    <row r="422" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:2" ht="31" x14ac:dyDescent="0.35">
       <c r="A422" s="3" t="s">
         <v>277</v>
       </c>
@@ -6817,7 +6818,7 @@
         <v>699</v>
       </c>
     </row>
-    <row r="423" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:2" ht="31" x14ac:dyDescent="0.35">
       <c r="A423" s="3" t="s">
         <v>278</v>
       </c>
@@ -6825,7 +6826,7 @@
         <v>698</v>
       </c>
     </row>
-    <row r="424" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A424" s="3" t="s">
         <v>46</v>
       </c>
@@ -6833,7 +6834,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="425" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:2" ht="31" x14ac:dyDescent="0.35">
       <c r="A425" s="3" t="s">
         <v>47</v>
       </c>
@@ -6841,7 +6842,7 @@
         <v>709</v>
       </c>
     </row>
-    <row r="426" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:2" ht="31" x14ac:dyDescent="0.35">
       <c r="A426" s="3" t="s">
         <v>48</v>
       </c>
@@ -6849,7 +6850,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="427" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A427" s="3" t="s">
         <v>23</v>
       </c>
@@ -6857,7 +6858,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="428" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A428" s="3" t="s">
         <v>24</v>
       </c>
@@ -6865,7 +6866,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="429" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:2" ht="31" x14ac:dyDescent="0.35">
       <c r="A429" s="3" t="s">
         <v>279</v>
       </c>
@@ -6873,7 +6874,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="430" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A430" s="3" t="s">
         <v>199</v>
       </c>
@@ -6881,7 +6882,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="431" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:2" ht="31" x14ac:dyDescent="0.35">
       <c r="A431" s="3" t="s">
         <v>272</v>
       </c>
@@ -6889,7 +6890,7 @@
         <v>748</v>
       </c>
     </row>
-    <row r="432" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:2" ht="31" x14ac:dyDescent="0.35">
       <c r="A432" s="3" t="s">
         <v>273</v>
       </c>
@@ -6897,7 +6898,7 @@
         <v>749</v>
       </c>
     </row>
-    <row r="433" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:4" ht="31" x14ac:dyDescent="0.35">
       <c r="A433" s="3" t="s">
         <v>274</v>
       </c>
@@ -6905,7 +6906,7 @@
         <v>730</v>
       </c>
     </row>
-    <row r="434" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:4" ht="31" x14ac:dyDescent="0.35">
       <c r="A434" s="3" t="s">
         <v>166</v>
       </c>
@@ -6913,7 +6914,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="435" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:4" ht="31" x14ac:dyDescent="0.35">
       <c r="A435" s="3" t="s">
         <v>34</v>
       </c>
@@ -6921,7 +6922,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="436" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:4" ht="31" x14ac:dyDescent="0.35">
       <c r="A436" s="3" t="s">
         <v>35</v>
       </c>
@@ -6929,7 +6930,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="437" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:4" ht="31" x14ac:dyDescent="0.35">
       <c r="A437" s="3" t="s">
         <v>36</v>
       </c>
@@ -6937,7 +6938,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="438" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:4" ht="31" x14ac:dyDescent="0.35">
       <c r="A438" s="3" t="s">
         <v>201</v>
       </c>
@@ -6945,7 +6946,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="439" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:4" ht="31" x14ac:dyDescent="0.35">
       <c r="A439" s="3" t="s">
         <v>37</v>
       </c>
@@ -6953,7 +6954,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="440" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:4" ht="31" x14ac:dyDescent="0.35">
       <c r="A440" s="3" t="s">
         <v>39</v>
       </c>
@@ -6961,7 +6962,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="441" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:4" ht="31" x14ac:dyDescent="0.35">
       <c r="A441" s="3" t="s">
         <v>169</v>
       </c>
@@ -6971,7 +6972,7 @@
       <c r="C441" s="2"/>
       <c r="D441" s="4"/>
     </row>
-    <row r="442" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:4" ht="31" x14ac:dyDescent="0.35">
       <c r="A442" s="3" t="s">
         <v>40</v>
       </c>
@@ -6979,7 +6980,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="443" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:4" ht="31" x14ac:dyDescent="0.35">
       <c r="A443" s="3" t="s">
         <v>170</v>
       </c>
@@ -6987,7 +6988,7 @@
         <v>697</v>
       </c>
     </row>
-    <row r="444" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:4" ht="31" x14ac:dyDescent="0.35">
       <c r="A444" s="3" t="s">
         <v>41</v>
       </c>
@@ -6995,7 +6996,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="445" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:4" ht="31" x14ac:dyDescent="0.35">
       <c r="A445" s="3" t="s">
         <v>275</v>
       </c>
@@ -7003,7 +7004,7 @@
         <v>751</v>
       </c>
     </row>
-    <row r="446" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:4" ht="31" x14ac:dyDescent="0.35">
       <c r="A446" s="3" t="s">
         <v>276</v>
       </c>
@@ -7011,7 +7012,7 @@
         <v>752</v>
       </c>
     </row>
-    <row r="447" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:4" ht="31" x14ac:dyDescent="0.35">
       <c r="A447" s="3" t="s">
         <v>277</v>
       </c>
@@ -7019,7 +7020,7 @@
         <v>699</v>
       </c>
     </row>
-    <row r="448" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:4" ht="31" x14ac:dyDescent="0.35">
       <c r="A448" s="3" t="s">
         <v>278</v>
       </c>
@@ -7027,7 +7028,7 @@
         <v>698</v>
       </c>
     </row>
-    <row r="449" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A449" s="3" t="s">
         <v>46</v>
       </c>
@@ -7035,7 +7036,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="450" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:4" ht="31" x14ac:dyDescent="0.35">
       <c r="A450" s="3" t="s">
         <v>47</v>
       </c>
@@ -7043,7 +7044,7 @@
         <v>709</v>
       </c>
     </row>
-    <row r="451" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:4" ht="31" x14ac:dyDescent="0.35">
       <c r="A451" s="3" t="s">
         <v>48</v>
       </c>
@@ -7051,7 +7052,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="452" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A452" s="3" t="s">
         <v>23</v>
       </c>
@@ -7059,7 +7060,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="453" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A453" s="3" t="s">
         <v>24</v>
       </c>
@@ -7067,18 +7068,18 @@
         <v>3</v>
       </c>
     </row>
-    <row r="455" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A455" s="1" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="456" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A456" s="3" t="s">
         <v>62</v>
       </c>
       <c r="C456" s="4"/>
     </row>
-    <row r="457" spans="1:4" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:4" ht="77.5" x14ac:dyDescent="0.35">
       <c r="A457" s="3" t="s">
         <v>281</v>
       </c>
@@ -7092,7 +7093,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="458" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:4" ht="31" x14ac:dyDescent="0.35">
       <c r="A458" s="3" t="s">
         <v>13</v>
       </c>
@@ -7104,7 +7105,7 @@
       </c>
       <c r="D458" s="2"/>
     </row>
-    <row r="459" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:4" ht="31" x14ac:dyDescent="0.35">
       <c r="A459" s="3" t="s">
         <v>282</v>
       </c>
@@ -7114,7 +7115,7 @@
       </c>
       <c r="D459" s="2"/>
     </row>
-    <row r="460" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:4" ht="31" x14ac:dyDescent="0.35">
       <c r="A460" s="3" t="s">
         <v>283</v>
       </c>
@@ -7124,17 +7125,17 @@
       </c>
       <c r="D460" s="2"/>
     </row>
-    <row r="461" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:4" ht="31" x14ac:dyDescent="0.35">
       <c r="A461" s="3" t="s">
         <v>284</v>
       </c>
       <c r="B461" s="2"/>
-      <c r="C461" s="2" t="s">
-        <v>645</v>
+      <c r="C461" s="4" t="s">
+        <v>868</v>
       </c>
       <c r="D461" s="2"/>
     </row>
-    <row r="462" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:4" ht="31" x14ac:dyDescent="0.35">
       <c r="A462" s="3" t="s">
         <v>285</v>
       </c>
@@ -7144,7 +7145,7 @@
       </c>
       <c r="D462" s="2"/>
     </row>
-    <row r="463" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A463" s="3" t="s">
         <v>21</v>
       </c>
@@ -7154,7 +7155,7 @@
       </c>
       <c r="D463" s="2"/>
     </row>
-    <row r="464" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A464" s="3" t="s">
         <v>23</v>
       </c>
@@ -7164,7 +7165,7 @@
       </c>
       <c r="D464" s="2"/>
     </row>
-    <row r="465" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A465" s="3" t="s">
         <v>24</v>
       </c>
@@ -7174,7 +7175,7 @@
       </c>
       <c r="D465" s="2"/>
     </row>
-    <row r="466" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A466" s="3" t="s">
         <v>856</v>
       </c>
@@ -7182,7 +7183,7 @@
       <c r="C466" s="2"/>
       <c r="D466" s="2"/>
     </row>
-    <row r="467" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A467" s="3" t="s">
         <v>26</v>
       </c>
@@ -7192,7 +7193,7 @@
       <c r="C467" s="2"/>
       <c r="D467" s="2"/>
     </row>
-    <row r="468" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:4" ht="31" x14ac:dyDescent="0.35">
       <c r="A468" s="3" t="s">
         <v>76</v>
       </c>
@@ -7202,7 +7203,7 @@
       <c r="C468" s="2"/>
       <c r="D468" s="2"/>
     </row>
-    <row r="469" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:4" ht="31" x14ac:dyDescent="0.35">
       <c r="A469" s="3" t="s">
         <v>28</v>
       </c>
@@ -7212,7 +7213,7 @@
       <c r="C469" s="2"/>
       <c r="D469" s="2"/>
     </row>
-    <row r="470" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:4" ht="31" x14ac:dyDescent="0.35">
       <c r="A470" s="3" t="s">
         <v>164</v>
       </c>
@@ -7222,7 +7223,7 @@
       <c r="C470" s="2"/>
       <c r="D470" s="2"/>
     </row>
-    <row r="471" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:4" ht="31" x14ac:dyDescent="0.35">
       <c r="A471" s="3" t="s">
         <v>78</v>
       </c>
@@ -7232,7 +7233,7 @@
       <c r="C471" s="2"/>
       <c r="D471" s="2"/>
     </row>
-    <row r="472" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A472" s="3" t="s">
         <v>52</v>
       </c>
@@ -7242,7 +7243,7 @@
       <c r="C472" s="2"/>
       <c r="D472" s="2"/>
     </row>
-    <row r="473" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A473" s="3" t="s">
         <v>46</v>
       </c>
@@ -7252,7 +7253,7 @@
       <c r="C473" s="2"/>
       <c r="D473" s="2"/>
     </row>
-    <row r="474" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A474" s="3" t="s">
         <v>23</v>
       </c>
@@ -7262,7 +7263,7 @@
       <c r="C474" s="2"/>
       <c r="D474" s="2"/>
     </row>
-    <row r="475" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A475" s="3" t="s">
         <v>24</v>
       </c>
@@ -7272,7 +7273,7 @@
       <c r="C475" s="2"/>
       <c r="D475" s="2"/>
     </row>
-    <row r="476" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:4" ht="31" x14ac:dyDescent="0.35">
       <c r="A476" s="3" t="s">
         <v>286</v>
       </c>
@@ -7280,7 +7281,7 @@
       <c r="C476" s="2"/>
       <c r="D476" s="2"/>
     </row>
-    <row r="477" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:4" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A477" s="3" t="s">
         <v>287</v>
       </c>
@@ -7290,19 +7291,19 @@
       <c r="C477" s="2"/>
       <c r="D477" s="2"/>
     </row>
-    <row r="478" spans="1:4" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:4" ht="93" x14ac:dyDescent="0.35">
       <c r="A478" s="3" t="s">
         <v>288</v>
       </c>
       <c r="B478" s="4" t="s">
+        <v>863</v>
+      </c>
+      <c r="C478" s="4" t="s">
         <v>864</v>
       </c>
-      <c r="C478" s="4" t="s">
-        <v>865</v>
-      </c>
       <c r="D478" s="2"/>
     </row>
-    <row r="479" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:4" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A479" s="3" t="s">
         <v>289</v>
       </c>
@@ -7312,29 +7313,29 @@
       <c r="C479" s="2"/>
       <c r="D479" s="2"/>
     </row>
-    <row r="480" spans="1:4" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:4" ht="93" x14ac:dyDescent="0.35">
       <c r="A480" s="3" t="s">
         <v>290</v>
       </c>
       <c r="B480" s="4" t="s">
+        <v>865</v>
+      </c>
+      <c r="C480" s="4" t="s">
         <v>866</v>
       </c>
-      <c r="C480" s="4" t="s">
-        <v>867</v>
-      </c>
       <c r="D480" s="2"/>
     </row>
-    <row r="481" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:4" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A481" s="3" t="s">
         <v>291</v>
       </c>
       <c r="B481" s="4" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="C481" s="2"/>
       <c r="D481" s="2"/>
     </row>
-    <row r="482" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:4" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A482" s="3" t="s">
         <v>292</v>
       </c>
@@ -7344,7 +7345,7 @@
       <c r="C482" s="2"/>
       <c r="D482" s="2"/>
     </row>
-    <row r="483" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A483" s="3" t="s">
         <v>46</v>
       </c>
@@ -7352,7 +7353,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="484" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A484" s="3" t="s">
         <v>23</v>
       </c>
@@ -7360,7 +7361,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="485" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A485" s="3" t="s">
         <v>24</v>
       </c>
@@ -7368,7 +7369,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="486" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:4" ht="31" x14ac:dyDescent="0.35">
       <c r="A486" s="3" t="s">
         <v>171</v>
       </c>
@@ -7376,7 +7377,7 @@
         <v>859</v>
       </c>
     </row>
-    <row r="487" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:4" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A487" s="3" t="s">
         <v>88</v>
       </c>
@@ -7386,7 +7387,7 @@
       <c r="C487" s="2"/>
       <c r="D487" s="2"/>
     </row>
-    <row r="488" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:4" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A488" s="3" t="s">
         <v>89</v>
       </c>
@@ -7396,7 +7397,7 @@
       <c r="C488" s="2"/>
       <c r="D488" s="2"/>
     </row>
-    <row r="489" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:4" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A489" s="3" t="s">
         <v>172</v>
       </c>
@@ -7406,7 +7407,7 @@
       <c r="C489" s="2"/>
       <c r="D489" s="2"/>
     </row>
-    <row r="490" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A490" s="3" t="s">
         <v>46</v>
       </c>
@@ -7414,7 +7415,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="491" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A491" s="3" t="s">
         <v>24</v>
       </c>
@@ -7422,7 +7423,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="492" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A492" s="3" t="s">
         <v>173</v>
       </c>
@@ -7430,7 +7431,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="493" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A493" s="3" t="s">
         <v>88</v>
       </c>
@@ -7438,7 +7439,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="494" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:4" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A494" s="3" t="s">
         <v>174</v>
       </c>
@@ -7448,7 +7449,7 @@
       <c r="C494" s="2"/>
       <c r="D494" s="4"/>
     </row>
-    <row r="495" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:4" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A495" s="3" t="s">
         <v>175</v>
       </c>
@@ -7458,7 +7459,7 @@
       <c r="C495" s="2"/>
       <c r="D495" s="4"/>
     </row>
-    <row r="496" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:4" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A496" s="3" t="s">
         <v>176</v>
       </c>
@@ -7468,7 +7469,7 @@
       <c r="C496" s="2"/>
       <c r="D496" s="4"/>
     </row>
-    <row r="497" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:4" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A497" s="3" t="s">
         <v>177</v>
       </c>
@@ -7478,7 +7479,7 @@
       <c r="C497" s="2"/>
       <c r="D497" s="4"/>
     </row>
-    <row r="498" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:4" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A498" s="3" t="s">
         <v>178</v>
       </c>
@@ -7488,7 +7489,7 @@
       <c r="C498" s="2"/>
       <c r="D498" s="4"/>
     </row>
-    <row r="499" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:4" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A499" s="3" t="s">
         <v>179</v>
       </c>
@@ -7498,7 +7499,7 @@
       <c r="C499" s="2"/>
       <c r="D499" s="4"/>
     </row>
-    <row r="500" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:4" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A500" s="3" t="s">
         <v>180</v>
       </c>
@@ -7508,7 +7509,7 @@
       <c r="C500" s="2"/>
       <c r="D500" s="4"/>
     </row>
-    <row r="501" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:4" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A501" s="3" t="s">
         <v>181</v>
       </c>
@@ -7518,7 +7519,7 @@
       <c r="C501" s="2"/>
       <c r="D501" s="4"/>
     </row>
-    <row r="502" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:4" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A502" s="3" t="s">
         <v>182</v>
       </c>
@@ -7528,7 +7529,7 @@
       <c r="C502" s="2"/>
       <c r="D502" s="4"/>
     </row>
-    <row r="503" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A503" s="3" t="s">
         <v>46</v>
       </c>
@@ -7537,7 +7538,7 @@
       </c>
       <c r="C503" s="2"/>
     </row>
-    <row r="504" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A504" s="3" t="s">
         <v>23</v>
       </c>
@@ -7546,7 +7547,7 @@
       </c>
       <c r="C504" s="2"/>
     </row>
-    <row r="505" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A505" s="3" t="s">
         <v>24</v>
       </c>
@@ -7555,7 +7556,7 @@
       </c>
       <c r="C505" s="2"/>
     </row>
-    <row r="506" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A506" s="3" t="s">
         <v>183</v>
       </c>
@@ -7567,7 +7568,7 @@
       </c>
       <c r="D506" s="2"/>
     </row>
-    <row r="507" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A507" s="3" t="s">
         <v>184</v>
       </c>
@@ -7577,7 +7578,7 @@
       </c>
       <c r="D507" s="2"/>
     </row>
-    <row r="508" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:4" ht="31" x14ac:dyDescent="0.35">
       <c r="A508" s="3" t="s">
         <v>579</v>
       </c>
@@ -7587,7 +7588,7 @@
       </c>
       <c r="D508" s="2"/>
     </row>
-    <row r="509" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A509" s="3" t="s">
         <v>185</v>
       </c>
@@ -7597,7 +7598,7 @@
       </c>
       <c r="D509" s="2"/>
     </row>
-    <row r="510" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A510" s="3" t="s">
         <v>186</v>
       </c>
@@ -7607,7 +7608,7 @@
       </c>
       <c r="D510" s="2"/>
     </row>
-    <row r="511" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A511" s="3" t="s">
         <v>187</v>
       </c>
@@ -7617,7 +7618,7 @@
       </c>
       <c r="D511" s="2"/>
     </row>
-    <row r="512" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A512" s="3" t="s">
         <v>188</v>
       </c>
@@ -7627,7 +7628,7 @@
       </c>
       <c r="D512" s="2"/>
     </row>
-    <row r="513" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A513" s="3" t="s">
         <v>189</v>
       </c>
@@ -7637,7 +7638,7 @@
       </c>
       <c r="D513" s="2"/>
     </row>
-    <row r="514" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A514" s="3" t="s">
         <v>46</v>
       </c>
@@ -7647,7 +7648,7 @@
       </c>
       <c r="D514" s="2"/>
     </row>
-    <row r="515" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A515" s="3" t="s">
         <v>23</v>
       </c>
@@ -7657,7 +7658,7 @@
       </c>
       <c r="D515" s="2"/>
     </row>
-    <row r="516" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A516" s="3" t="s">
         <v>24</v>
       </c>
@@ -7667,7 +7668,7 @@
       </c>
       <c r="D516" s="2"/>
     </row>
-    <row r="517" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:4" ht="31" x14ac:dyDescent="0.35">
       <c r="A517" s="3" t="s">
         <v>293</v>
       </c>
@@ -7675,7 +7676,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="518" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:4" ht="31" x14ac:dyDescent="0.35">
       <c r="A518" s="3" t="s">
         <v>294</v>
       </c>
@@ -7685,7 +7686,7 @@
       <c r="C518" s="2"/>
       <c r="D518" s="2"/>
     </row>
-    <row r="519" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:4" ht="31" x14ac:dyDescent="0.35">
       <c r="A519" s="3" t="s">
         <v>295</v>
       </c>
@@ -7695,7 +7696,7 @@
       <c r="C519" s="2"/>
       <c r="D519" s="2"/>
     </row>
-    <row r="520" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:4" ht="31" x14ac:dyDescent="0.35">
       <c r="A520" s="3" t="s">
         <v>296</v>
       </c>
@@ -7705,7 +7706,7 @@
       <c r="C520" s="2"/>
       <c r="D520" s="2"/>
     </row>
-    <row r="521" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:4" ht="31" x14ac:dyDescent="0.35">
       <c r="A521" s="3" t="s">
         <v>297</v>
       </c>
@@ -7715,7 +7716,7 @@
       <c r="C521" s="2"/>
       <c r="D521" s="2"/>
     </row>
-    <row r="522" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A522" s="3" t="s">
         <v>52</v>
       </c>
@@ -7723,7 +7724,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="523" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A523" s="3" t="s">
         <v>46</v>
       </c>
@@ -7731,7 +7732,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="524" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A524" s="3" t="s">
         <v>23</v>
       </c>
@@ -7739,7 +7740,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="525" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A525" s="3" t="s">
         <v>24</v>
       </c>
@@ -7747,16 +7748,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="526" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A526" s="3" t="s">
         <v>298</v>
       </c>
       <c r="B526" s="4" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="C526" s="7"/>
     </row>
-    <row r="527" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A527" s="3" t="s">
         <v>299</v>
       </c>
@@ -7764,7 +7765,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="528" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A528" s="3" t="s">
         <v>300</v>
       </c>
@@ -7772,7 +7773,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="529" spans="1:2" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:2" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A529" s="3" t="s">
         <v>301</v>
       </c>
@@ -7780,7 +7781,7 @@
         <v>851</v>
       </c>
     </row>
-    <row r="530" spans="1:2" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:2" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A530" s="3" t="s">
         <v>302</v>
       </c>
@@ -7788,7 +7789,7 @@
         <v>852</v>
       </c>
     </row>
-    <row r="531" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A531" s="3" t="s">
         <v>303</v>
       </c>
@@ -7796,7 +7797,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="532" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:2" ht="31" x14ac:dyDescent="0.35">
       <c r="A532" s="3" t="s">
         <v>304</v>
       </c>
@@ -7804,7 +7805,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="533" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A533" s="3" t="s">
         <v>305</v>
       </c>
@@ -7812,7 +7813,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="534" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A534" s="3" t="s">
         <v>52</v>
       </c>
@@ -7820,7 +7821,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="535" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A535" s="3" t="s">
         <v>23</v>
       </c>
@@ -7828,7 +7829,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="536" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A536" s="3" t="s">
         <v>24</v>
       </c>
@@ -7836,7 +7837,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="537" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A537" s="3" t="s">
         <v>306</v>
       </c>
@@ -7844,7 +7845,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="538" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:2" ht="31" x14ac:dyDescent="0.35">
       <c r="A538" s="3" t="s">
         <v>58</v>
       </c>
@@ -7852,7 +7853,7 @@
         <v>715</v>
       </c>
     </row>
-    <row r="539" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:2" ht="31" x14ac:dyDescent="0.35">
       <c r="A539" s="3" t="s">
         <v>59</v>
       </c>
@@ -7860,7 +7861,7 @@
         <v>716</v>
       </c>
     </row>
-    <row r="540" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="540" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A540" s="3" t="s">
         <v>52</v>
       </c>
@@ -7868,7 +7869,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="541" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A541" s="3" t="s">
         <v>46</v>
       </c>
@@ -7876,7 +7877,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="542" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A542" s="3" t="s">
         <v>23</v>
       </c>
@@ -7884,7 +7885,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="543" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="543" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A543" s="3" t="s">
         <v>24</v>
       </c>
@@ -7892,7 +7893,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="544" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A544" s="3" t="s">
         <v>237</v>
       </c>
@@ -7900,7 +7901,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="545" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="545" spans="1:4" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A545" s="3" t="s">
         <v>307</v>
       </c>
@@ -7910,7 +7911,7 @@
       <c r="C545" s="2"/>
       <c r="D545" s="2"/>
     </row>
-    <row r="546" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="546" spans="1:4" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A546" s="3" t="s">
         <v>308</v>
       </c>
@@ -7920,7 +7921,7 @@
       <c r="C546" s="2"/>
       <c r="D546" s="2"/>
     </row>
-    <row r="547" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="547" spans="1:4" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A547" s="3" t="s">
         <v>309</v>
       </c>
@@ -7930,7 +7931,7 @@
       <c r="C547" s="2"/>
       <c r="D547" s="2"/>
     </row>
-    <row r="548" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="548" spans="1:4" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A548" s="3" t="s">
         <v>310</v>
       </c>
@@ -7940,7 +7941,7 @@
       <c r="C548" s="2"/>
       <c r="D548" s="4"/>
     </row>
-    <row r="549" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="549" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A549" s="3" t="s">
         <v>46</v>
       </c>
@@ -7948,7 +7949,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="550" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="550" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A550" s="3" t="s">
         <v>23</v>
       </c>
@@ -7956,7 +7957,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="551" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="551" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A551" s="3" t="s">
         <v>24</v>
       </c>
@@ -7964,7 +7965,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="552" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="552" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A552" s="3" t="s">
         <v>242</v>
       </c>
@@ -7972,7 +7973,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="553" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="553" spans="1:4" ht="31" x14ac:dyDescent="0.35">
       <c r="A553" s="3" t="s">
         <v>243</v>
       </c>
@@ -7982,7 +7983,7 @@
       <c r="C553" s="2"/>
       <c r="D553" s="2"/>
     </row>
-    <row r="554" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="554" spans="1:4" ht="31" x14ac:dyDescent="0.35">
       <c r="A554" s="3" t="s">
         <v>244</v>
       </c>
@@ -7992,7 +7993,7 @@
       <c r="C554" s="2"/>
       <c r="D554" s="2"/>
     </row>
-    <row r="555" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="555" spans="1:4" ht="31" x14ac:dyDescent="0.35">
       <c r="A555" s="3" t="s">
         <v>245</v>
       </c>
@@ -8002,7 +8003,7 @@
       <c r="C555" s="2"/>
       <c r="D555" s="4"/>
     </row>
-    <row r="556" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="556" spans="1:4" ht="31" x14ac:dyDescent="0.35">
       <c r="A556" s="3" t="s">
         <v>246</v>
       </c>
@@ -8012,7 +8013,7 @@
       <c r="C556" s="2"/>
       <c r="D556" s="2"/>
     </row>
-    <row r="557" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="557" spans="1:4" ht="31" x14ac:dyDescent="0.35">
       <c r="A557" s="3" t="s">
         <v>247</v>
       </c>
@@ -8022,7 +8023,7 @@
       <c r="C557" s="2"/>
       <c r="D557" s="2"/>
     </row>
-    <row r="558" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="558" spans="1:4" ht="31" x14ac:dyDescent="0.35">
       <c r="A558" s="3" t="s">
         <v>248</v>
       </c>
@@ -8032,7 +8033,7 @@
       <c r="C558" s="2"/>
       <c r="D558" s="2"/>
     </row>
-    <row r="559" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="559" spans="1:4" ht="31" x14ac:dyDescent="0.35">
       <c r="A559" s="3" t="s">
         <v>249</v>
       </c>
@@ -8042,7 +8043,7 @@
       <c r="C559" s="2"/>
       <c r="D559" s="2"/>
     </row>
-    <row r="560" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="560" spans="1:4" ht="31" x14ac:dyDescent="0.35">
       <c r="A560" s="3" t="s">
         <v>250</v>
       </c>
@@ -8052,7 +8053,7 @@
       <c r="C560" s="2"/>
       <c r="D560" s="4"/>
     </row>
-    <row r="561" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="561" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A561" s="3" t="s">
         <v>52</v>
       </c>
@@ -8060,7 +8061,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="562" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="562" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A562" s="3" t="s">
         <v>46</v>
       </c>
@@ -8068,7 +8069,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="563" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="563" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A563" s="3" t="s">
         <v>23</v>
       </c>
@@ -8076,7 +8077,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="564" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="564" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A564" s="3" t="s">
         <v>24</v>
       </c>
@@ -8084,7 +8085,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="565" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="565" spans="1:2" ht="31" x14ac:dyDescent="0.35">
       <c r="A565" s="3" t="s">
         <v>311</v>
       </c>
@@ -8092,122 +8093,122 @@
         <v>559</v>
       </c>
     </row>
-    <row r="566" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="566" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A566" s="3" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="567" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="567" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A567" s="3" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="568" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="568" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A568" s="3" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="569" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="569" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A569" s="3" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="570" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="570" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A570" s="3" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="571" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="571" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A571" s="3" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="572" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="572" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A572" s="3" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="573" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="573" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A573" s="3" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="574" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="574" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A574" s="3" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="575" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="575" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A575" s="3" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="576" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="576" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A576" s="3" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="577" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="577" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A577" s="3" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="578" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="578" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A578" s="3" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="579" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="579" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A579" s="3" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="580" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="580" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A580" s="3" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="581" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="581" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A581" s="3" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="582" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="582" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A582" s="3" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="583" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="583" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A583" s="3" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="584" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="584" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A584" s="3" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="585" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="585" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A585" s="3" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="586" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="586" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A586" s="3" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="587" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="587" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A587" s="3" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="588" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="588" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A588" s="3" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="589" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="589" spans="1:2" ht="31" x14ac:dyDescent="0.35">
       <c r="A589" s="3" t="s">
         <v>331</v>
       </c>
@@ -8215,47 +8216,47 @@
         <v>559</v>
       </c>
     </row>
-    <row r="590" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="590" spans="1:2" ht="31" x14ac:dyDescent="0.35">
       <c r="A590" s="3" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="591" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="591" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A591" s="3" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="592" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="592" spans="1:2" ht="31" x14ac:dyDescent="0.35">
       <c r="A592" s="3" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="593" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="593" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A593" s="3" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="594" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="594" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A594" s="3" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="595" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="595" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A595" s="3" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="596" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="596" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A596" s="3" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="597" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="597" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A597" s="3" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="598" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="598" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A598" s="3" t="s">
         <v>336</v>
       </c>
@@ -8263,67 +8264,67 @@
         <v>559</v>
       </c>
     </row>
-    <row r="599" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="599" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A599" s="3" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="600" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="600" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A600" s="3" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="601" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="601" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A601" s="3" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="602" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="602" spans="1:2" ht="31" x14ac:dyDescent="0.35">
       <c r="A602" s="3" t="s">
         <v>340</v>
       </c>
     </row>
-    <row r="603" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="603" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A603" s="3" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="604" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="604" spans="1:2" ht="31" x14ac:dyDescent="0.35">
       <c r="A604" s="3" t="s">
         <v>342</v>
       </c>
     </row>
-    <row r="605" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="605" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A605" s="3" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="606" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="606" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A606" s="3" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="607" spans="1:2" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="607" spans="1:2" ht="31" x14ac:dyDescent="0.35">
       <c r="A607" s="3" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="608" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="608" spans="1:2" ht="31" x14ac:dyDescent="0.35">
       <c r="A608" s="3" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="609" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="609" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A609" s="3" t="s">
         <v>347</v>
       </c>
     </row>
-    <row r="610" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="610" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A610" s="3" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="611" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="611" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A611" s="3" t="s">
         <v>348</v>
       </c>
@@ -8331,34 +8332,34 @@
         <v>559</v>
       </c>
     </row>
-    <row r="612" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="612" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A612" s="3" t="s">
         <v>349</v>
       </c>
       <c r="B612" s="4"/>
     </row>
-    <row r="613" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="613" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A613" s="3" t="s">
         <v>350</v>
       </c>
       <c r="B613" s="4"/>
     </row>
-    <row r="614" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="614" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A614" s="3" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="615" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="615" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A615" s="3" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="616" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="616" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A616" s="3" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="617" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="617" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A617" s="3" t="s">
         <v>351</v>
       </c>
@@ -8366,18 +8367,18 @@
         <v>3</v>
       </c>
     </row>
-    <row r="619" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="619" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A619" s="1" t="s">
         <v>437</v>
       </c>
     </row>
-    <row r="620" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="620" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A620" s="3" t="s">
         <v>62</v>
       </c>
       <c r="C620" s="4"/>
     </row>
-    <row r="621" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+    <row r="621" spans="1:4" ht="62" x14ac:dyDescent="0.35">
       <c r="A621" s="3" t="s">
         <v>438</v>
       </c>
@@ -8389,7 +8390,7 @@
       </c>
       <c r="D621" s="4"/>
     </row>
-    <row r="622" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="622" spans="1:4" ht="31" x14ac:dyDescent="0.35">
       <c r="A622" s="3" t="s">
         <v>13</v>
       </c>
@@ -8401,7 +8402,7 @@
       </c>
       <c r="D622" s="4"/>
     </row>
-    <row r="623" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="623" spans="1:4" ht="31" x14ac:dyDescent="0.35">
       <c r="A623" s="3" t="s">
         <v>177</v>
       </c>
@@ -8411,7 +8412,7 @@
       </c>
       <c r="D623" s="4"/>
     </row>
-    <row r="624" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="624" spans="1:4" ht="31" x14ac:dyDescent="0.35">
       <c r="A624" s="3" t="s">
         <v>439</v>
       </c>
@@ -8421,7 +8422,7 @@
       </c>
       <c r="D624" s="4"/>
     </row>
-    <row r="625" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="625" spans="1:4" ht="31" x14ac:dyDescent="0.35">
       <c r="A625" s="3" t="s">
         <v>440</v>
       </c>
@@ -8431,7 +8432,7 @@
       </c>
       <c r="D625" s="4"/>
     </row>
-    <row r="626" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="626" spans="1:4" ht="31" x14ac:dyDescent="0.35">
       <c r="A626" s="3" t="s">
         <v>441</v>
       </c>
@@ -8441,7 +8442,7 @@
       </c>
       <c r="D626" s="4"/>
     </row>
-    <row r="627" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="627" spans="1:4" ht="31" x14ac:dyDescent="0.35">
       <c r="A627" s="3" t="s">
         <v>442</v>
       </c>
@@ -8451,7 +8452,7 @@
       </c>
       <c r="D627" s="4"/>
     </row>
-    <row r="628" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="628" spans="1:4" ht="31" x14ac:dyDescent="0.35">
       <c r="A628" s="3" t="s">
         <v>570</v>
       </c>
@@ -8461,7 +8462,7 @@
       </c>
       <c r="D628" s="4"/>
     </row>
-    <row r="629" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="629" spans="1:4" ht="31" x14ac:dyDescent="0.35">
       <c r="A629" s="3" t="s">
         <v>443</v>
       </c>
@@ -8471,7 +8472,7 @@
       </c>
       <c r="D629" s="4"/>
     </row>
-    <row r="630" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="630" spans="1:4" ht="31" x14ac:dyDescent="0.35">
       <c r="A630" s="3" t="s">
         <v>444</v>
       </c>
@@ -8480,7 +8481,7 @@
       </c>
       <c r="D630" s="4"/>
     </row>
-    <row r="631" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="631" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A631" s="3" t="s">
         <v>21</v>
       </c>
@@ -8489,7 +8490,7 @@
       </c>
       <c r="D631" s="4"/>
     </row>
-    <row r="632" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="632" spans="1:4" ht="31" x14ac:dyDescent="0.35">
       <c r="A632" s="3" t="s">
         <v>445</v>
       </c>
@@ -8498,7 +8499,7 @@
       </c>
       <c r="D632" s="4"/>
     </row>
-    <row r="633" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="633" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A633" s="3" t="s">
         <v>23</v>
       </c>
@@ -8507,7 +8508,7 @@
       </c>
       <c r="D633" s="4"/>
     </row>
-    <row r="634" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="634" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A634" s="3" t="s">
         <v>24</v>
       </c>
@@ -8516,7 +8517,7 @@
       </c>
       <c r="D634" s="4"/>
     </row>
-    <row r="635" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="635" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A635" s="3" t="s">
         <v>25</v>
       </c>
@@ -8524,7 +8525,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="636" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="636" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A636" s="3" t="s">
         <v>446</v>
       </c>
@@ -8532,7 +8533,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="637" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="637" spans="1:4" ht="31" x14ac:dyDescent="0.35">
       <c r="A637" s="3" t="s">
         <v>447</v>
       </c>
@@ -8542,7 +8543,7 @@
       <c r="C637" s="2"/>
       <c r="D637" s="2"/>
     </row>
-    <row r="638" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="638" spans="1:4" ht="31" x14ac:dyDescent="0.35">
       <c r="A638" s="3" t="s">
         <v>448</v>
       </c>
@@ -8552,7 +8553,7 @@
       <c r="C638" s="5"/>
       <c r="D638" s="5"/>
     </row>
-    <row r="639" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="639" spans="1:4" ht="31" x14ac:dyDescent="0.35">
       <c r="A639" s="3" t="s">
         <v>449</v>
       </c>
@@ -8562,7 +8563,7 @@
       <c r="C639" s="2"/>
       <c r="D639" s="2"/>
     </row>
-    <row r="640" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="640" spans="1:4" ht="31" x14ac:dyDescent="0.35">
       <c r="A640" s="3" t="s">
         <v>450</v>
       </c>
@@ -8572,7 +8573,7 @@
       <c r="C640" s="2"/>
       <c r="D640" s="2"/>
     </row>
-    <row r="641" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="641" spans="1:4" ht="31" x14ac:dyDescent="0.35">
       <c r="A641" s="3" t="s">
         <v>451</v>
       </c>
@@ -8582,7 +8583,7 @@
       <c r="C641" s="2"/>
       <c r="D641" s="2"/>
     </row>
-    <row r="642" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="642" spans="1:4" ht="31" x14ac:dyDescent="0.35">
       <c r="A642" s="3" t="s">
         <v>452</v>
       </c>
@@ -8592,7 +8593,7 @@
       <c r="C642" s="2"/>
       <c r="D642" s="2"/>
     </row>
-    <row r="643" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="643" spans="1:4" ht="31" x14ac:dyDescent="0.35">
       <c r="A643" s="3" t="s">
         <v>453</v>
       </c>
@@ -8602,7 +8603,7 @@
       <c r="C643" s="2"/>
       <c r="D643" s="2"/>
     </row>
-    <row r="644" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="644" spans="1:4" ht="31" x14ac:dyDescent="0.35">
       <c r="A644" s="3" t="s">
         <v>454</v>
       </c>
@@ -8612,7 +8613,7 @@
       <c r="C644" s="2"/>
       <c r="D644" s="2"/>
     </row>
-    <row r="645" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="645" spans="1:4" ht="31" x14ac:dyDescent="0.35">
       <c r="A645" s="3" t="s">
         <v>455</v>
       </c>
@@ -8622,7 +8623,7 @@
       <c r="C645" s="2"/>
       <c r="D645" s="2"/>
     </row>
-    <row r="646" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="646" spans="1:4" ht="31" x14ac:dyDescent="0.35">
       <c r="A646" s="3" t="s">
         <v>456</v>
       </c>
@@ -8632,7 +8633,7 @@
       <c r="C646" s="2"/>
       <c r="D646" s="2"/>
     </row>
-    <row r="647" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="647" spans="1:4" ht="31" x14ac:dyDescent="0.35">
       <c r="A647" s="3" t="s">
         <v>457</v>
       </c>
@@ -8642,7 +8643,7 @@
       <c r="C647" s="2"/>
       <c r="D647" s="2"/>
     </row>
-    <row r="648" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="648" spans="1:4" ht="31" x14ac:dyDescent="0.35">
       <c r="A648" s="3" t="s">
         <v>458</v>
       </c>
@@ -8652,7 +8653,7 @@
       <c r="C648" s="2"/>
       <c r="D648" s="2"/>
     </row>
-    <row r="649" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="649" spans="1:4" ht="31" x14ac:dyDescent="0.35">
       <c r="A649" s="3" t="s">
         <v>459</v>
       </c>
@@ -8662,7 +8663,7 @@
       <c r="C649" s="2"/>
       <c r="D649" s="2"/>
     </row>
-    <row r="650" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="650" spans="1:4" ht="31" x14ac:dyDescent="0.35">
       <c r="A650" s="3" t="s">
         <v>460</v>
       </c>
@@ -8672,7 +8673,7 @@
       <c r="C650" s="2"/>
       <c r="D650" s="2"/>
     </row>
-    <row r="651" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="651" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A651" s="3" t="s">
         <v>46</v>
       </c>
@@ -8680,7 +8681,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="652" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="652" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A652" s="3" t="s">
         <v>23</v>
       </c>
@@ -8688,7 +8689,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="653" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="653" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A653" s="3" t="s">
         <v>24</v>
       </c>
@@ -8696,7 +8697,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="654" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="654" spans="1:4" ht="31" x14ac:dyDescent="0.35">
       <c r="A654" s="3" t="s">
         <v>461</v>
       </c>
@@ -8704,7 +8705,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="655" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="655" spans="1:4" ht="31" x14ac:dyDescent="0.35">
       <c r="A655" s="3" t="s">
         <v>295</v>
       </c>
@@ -8714,7 +8715,7 @@
       <c r="C655" s="2"/>
       <c r="D655" s="2"/>
     </row>
-    <row r="656" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="656" spans="1:4" ht="31" x14ac:dyDescent="0.35">
       <c r="A656" s="3" t="s">
         <v>296</v>
       </c>
@@ -8724,7 +8725,7 @@
       <c r="C656" s="2"/>
       <c r="D656" s="2"/>
     </row>
-    <row r="657" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="657" spans="1:4" ht="31" x14ac:dyDescent="0.35">
       <c r="A657" s="3" t="s">
         <v>297</v>
       </c>
@@ -8734,7 +8735,7 @@
       <c r="C657" s="2"/>
       <c r="D657" s="2"/>
     </row>
-    <row r="658" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="658" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A658" s="3" t="s">
         <v>46</v>
       </c>
@@ -8742,7 +8743,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="659" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="659" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A659" s="3" t="s">
         <v>23</v>
       </c>
@@ -8750,7 +8751,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="660" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="660" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A660" s="3" t="s">
         <v>24</v>
       </c>
@@ -8758,7 +8759,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="661" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="661" spans="1:4" ht="31" x14ac:dyDescent="0.35">
       <c r="A661" s="3" t="s">
         <v>462</v>
       </c>
@@ -8766,7 +8767,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="662" spans="1:4" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="662" spans="1:4" ht="93" x14ac:dyDescent="0.35">
       <c r="A662" s="3" t="s">
         <v>463</v>
       </c>
@@ -8776,7 +8777,7 @@
       <c r="C662" s="2"/>
       <c r="D662" s="2"/>
     </row>
-    <row r="663" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="663" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A663" s="3" t="s">
         <v>52</v>
       </c>
@@ -8784,7 +8785,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="664" spans="1:4" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="664" spans="1:4" ht="93" x14ac:dyDescent="0.35">
       <c r="A664" s="3" t="s">
         <v>464</v>
       </c>
@@ -8794,7 +8795,7 @@
       <c r="C664" s="2"/>
       <c r="D664" s="2"/>
     </row>
-    <row r="665" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="665" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A665" s="3" t="s">
         <v>46</v>
       </c>
@@ -8802,7 +8803,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="666" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="666" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A666" s="3" t="s">
         <v>23</v>
       </c>
@@ -8810,7 +8811,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="667" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="667" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A667" s="3" t="s">
         <v>24</v>
       </c>
@@ -8818,7 +8819,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="668" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="668" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A668" s="3" t="s">
         <v>465</v>
       </c>
@@ -8830,7 +8831,7 @@
       </c>
       <c r="D668" s="2"/>
     </row>
-    <row r="669" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="669" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A669" s="3" t="s">
         <v>466</v>
       </c>
@@ -8840,7 +8841,7 @@
       </c>
       <c r="D669" s="2"/>
     </row>
-    <row r="670" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="670" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A670" s="3" t="s">
         <v>467</v>
       </c>
@@ -8850,7 +8851,7 @@
       </c>
       <c r="D670" s="2"/>
     </row>
-    <row r="671" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="671" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A671" s="3" t="s">
         <v>468</v>
       </c>
@@ -8860,7 +8861,7 @@
       </c>
       <c r="D671" s="2"/>
     </row>
-    <row r="672" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="672" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A672" s="3" t="s">
         <v>469</v>
       </c>
@@ -8870,7 +8871,7 @@
       </c>
       <c r="D672" s="2"/>
     </row>
-    <row r="673" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="673" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A673" s="3" t="s">
         <v>81</v>
       </c>
@@ -8880,7 +8881,7 @@
       </c>
       <c r="D673" s="2"/>
     </row>
-    <row r="674" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="674" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A674" s="3" t="s">
         <v>470</v>
       </c>
@@ -8890,7 +8891,7 @@
       </c>
       <c r="D674" s="2"/>
     </row>
-    <row r="675" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="675" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A675" s="3" t="s">
         <v>82</v>
       </c>
@@ -8900,7 +8901,7 @@
       </c>
       <c r="D675" s="4"/>
     </row>
-    <row r="676" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="676" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A676" s="3" t="s">
         <v>84</v>
       </c>
@@ -8910,7 +8911,7 @@
       </c>
       <c r="D676" s="2"/>
     </row>
-    <row r="677" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="677" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A677" s="3" t="s">
         <v>471</v>
       </c>
@@ -8920,7 +8921,7 @@
       </c>
       <c r="D677" s="2"/>
     </row>
-    <row r="678" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="678" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A678" s="3" t="s">
         <v>52</v>
       </c>
@@ -8930,7 +8931,7 @@
       </c>
       <c r="D678" s="2"/>
     </row>
-    <row r="679" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="679" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A679" s="3" t="s">
         <v>472</v>
       </c>
@@ -8940,7 +8941,7 @@
       </c>
       <c r="D679" s="2"/>
     </row>
-    <row r="680" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="680" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A680" s="3" t="s">
         <v>46</v>
       </c>
@@ -8950,7 +8951,7 @@
       </c>
       <c r="D680" s="2"/>
     </row>
-    <row r="681" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="681" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A681" s="3" t="s">
         <v>23</v>
       </c>
@@ -8960,7 +8961,7 @@
       </c>
       <c r="D681" s="2"/>
     </row>
-    <row r="682" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="682" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A682" s="3" t="s">
         <v>24</v>
       </c>
@@ -8970,7 +8971,7 @@
       </c>
       <c r="D682" s="2"/>
     </row>
-    <row r="683" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="683" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A683" s="3" t="s">
         <v>473</v>
       </c>
@@ -8982,7 +8983,7 @@
       </c>
       <c r="D683" s="2"/>
     </row>
-    <row r="684" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="684" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A684" s="3" t="s">
         <v>474</v>
       </c>
@@ -8992,7 +8993,7 @@
       </c>
       <c r="D684" s="2"/>
     </row>
-    <row r="685" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="685" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A685" s="3" t="s">
         <v>475</v>
       </c>
@@ -9002,7 +9003,7 @@
       </c>
       <c r="D685" s="2"/>
     </row>
-    <row r="686" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="686" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A686" s="3" t="s">
         <v>52</v>
       </c>
@@ -9012,7 +9013,7 @@
       </c>
       <c r="D686" s="2"/>
     </row>
-    <row r="687" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="687" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A687" s="3" t="s">
         <v>476</v>
       </c>
@@ -9022,7 +9023,7 @@
       </c>
       <c r="D687" s="2"/>
     </row>
-    <row r="688" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="688" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A688" s="3" t="s">
         <v>477</v>
       </c>
@@ -9032,7 +9033,7 @@
       </c>
       <c r="D688" s="2"/>
     </row>
-    <row r="689" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="689" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A689" s="3" t="s">
         <v>46</v>
       </c>
@@ -9042,7 +9043,7 @@
       </c>
       <c r="D689" s="2"/>
     </row>
-    <row r="690" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="690" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A690" s="3" t="s">
         <v>23</v>
       </c>
@@ -9052,7 +9053,7 @@
       </c>
       <c r="D690" s="2"/>
     </row>
-    <row r="691" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="691" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A691" s="3" t="s">
         <v>24</v>
       </c>
@@ -9062,7 +9063,7 @@
       </c>
       <c r="D691" s="2"/>
     </row>
-    <row r="692" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="692" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A692" s="3" t="s">
         <v>478</v>
       </c>
@@ -9072,7 +9073,7 @@
       <c r="C692" s="2"/>
       <c r="D692" s="2"/>
     </row>
-    <row r="693" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="693" spans="1:4" ht="31" x14ac:dyDescent="0.35">
       <c r="A693" s="3" t="s">
         <v>479</v>
       </c>
@@ -9082,7 +9083,7 @@
       <c r="C693" s="2"/>
       <c r="D693" s="4"/>
     </row>
-    <row r="694" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="694" spans="1:4" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A694" s="3" t="s">
         <v>480</v>
       </c>
@@ -9092,7 +9093,7 @@
       <c r="C694" s="2"/>
       <c r="D694" s="4"/>
     </row>
-    <row r="695" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="695" spans="1:4" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A695" s="3" t="s">
         <v>481</v>
       </c>
@@ -9102,7 +9103,7 @@
       <c r="C695" s="2"/>
       <c r="D695" s="4"/>
     </row>
-    <row r="696" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="696" spans="1:4" ht="31" x14ac:dyDescent="0.35">
       <c r="A696" s="3" t="s">
         <v>482</v>
       </c>
@@ -9112,7 +9113,7 @@
       <c r="C696" s="2"/>
       <c r="D696" s="4"/>
     </row>
-    <row r="697" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="697" spans="1:4" ht="31" x14ac:dyDescent="0.35">
       <c r="A697" s="3" t="s">
         <v>483</v>
       </c>
@@ -9122,7 +9123,7 @@
       <c r="C697" s="2"/>
       <c r="D697" s="4"/>
     </row>
-    <row r="698" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="698" spans="1:4" ht="31" x14ac:dyDescent="0.35">
       <c r="A698" s="3" t="s">
         <v>484</v>
       </c>
@@ -9132,7 +9133,7 @@
       <c r="C698" s="2"/>
       <c r="D698" s="4"/>
     </row>
-    <row r="699" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="699" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A699" s="3" t="s">
         <v>52</v>
       </c>
@@ -9140,7 +9141,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="700" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="700" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A700" s="3" t="s">
         <v>46</v>
       </c>
@@ -9148,7 +9149,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="701" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="701" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A701" s="3" t="s">
         <v>23</v>
       </c>
@@ -9156,7 +9157,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="702" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="702" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A702" s="3" t="s">
         <v>24</v>
       </c>
@@ -9164,7 +9165,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="703" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="703" spans="1:4" ht="31" x14ac:dyDescent="0.35">
       <c r="A703" s="3" t="s">
         <v>485</v>
       </c>
@@ -9172,7 +9173,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="704" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="704" spans="1:4" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A704" s="3" t="s">
         <v>486</v>
       </c>
@@ -9182,7 +9183,7 @@
       <c r="C704" s="2"/>
       <c r="D704" s="2"/>
     </row>
-    <row r="705" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="705" spans="1:4" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A705" s="3" t="s">
         <v>487</v>
       </c>
@@ -9192,7 +9193,7 @@
       <c r="C705" s="2"/>
       <c r="D705" s="2"/>
     </row>
-    <row r="706" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="706" spans="1:4" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A706" s="3" t="s">
         <v>488</v>
       </c>
@@ -9202,7 +9203,7 @@
       <c r="C706" s="2"/>
       <c r="D706" s="4"/>
     </row>
-    <row r="707" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="707" spans="1:4" ht="31" x14ac:dyDescent="0.35">
       <c r="A707" s="3" t="s">
         <v>489</v>
       </c>
@@ -9212,7 +9213,7 @@
       <c r="C707" s="2"/>
       <c r="D707" s="2"/>
     </row>
-    <row r="708" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="708" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A708" s="3" t="s">
         <v>490</v>
       </c>
@@ -9222,7 +9223,7 @@
       <c r="C708" s="2"/>
       <c r="D708" s="2"/>
     </row>
-    <row r="709" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="709" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A709" s="3" t="s">
         <v>52</v>
       </c>
@@ -9232,7 +9233,7 @@
       <c r="C709" s="2"/>
       <c r="D709" s="2"/>
     </row>
-    <row r="710" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="710" spans="1:4" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A710" s="3" t="s">
         <v>491</v>
       </c>
@@ -9242,7 +9243,7 @@
       <c r="C710" s="2"/>
       <c r="D710" s="4"/>
     </row>
-    <row r="711" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="711" spans="1:4" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A711" s="3" t="s">
         <v>492</v>
       </c>
@@ -9252,7 +9253,7 @@
       <c r="C711" s="2"/>
       <c r="D711" s="4"/>
     </row>
-    <row r="712" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="712" spans="1:4" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A712" s="3" t="s">
         <v>493</v>
       </c>
@@ -9262,7 +9263,7 @@
       <c r="C712" s="2"/>
       <c r="D712" s="2"/>
     </row>
-    <row r="713" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="713" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A713" s="3" t="s">
         <v>46</v>
       </c>
@@ -9270,7 +9271,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="714" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="714" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A714" s="3" t="s">
         <v>23</v>
       </c>
@@ -9278,7 +9279,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="715" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="715" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A715" s="3" t="s">
         <v>24</v>
       </c>
@@ -9286,7 +9287,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="716" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="716" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A716" s="3" t="s">
         <v>494</v>
       </c>
@@ -9296,7 +9297,7 @@
       <c r="C716" s="2"/>
       <c r="D716" s="2"/>
     </row>
-    <row r="717" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="717" spans="1:4" ht="31" x14ac:dyDescent="0.35">
       <c r="A717" s="3" t="s">
         <v>495</v>
       </c>
@@ -9306,7 +9307,7 @@
       <c r="C717" s="2"/>
       <c r="D717" s="4"/>
     </row>
-    <row r="718" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="718" spans="1:4" ht="31" x14ac:dyDescent="0.35">
       <c r="A718" s="3" t="s">
         <v>496</v>
       </c>
@@ -9316,7 +9317,7 @@
       <c r="C718" s="2"/>
       <c r="D718" s="4"/>
     </row>
-    <row r="719" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+    <row r="719" spans="1:4" ht="62" x14ac:dyDescent="0.35">
       <c r="A719" s="3" t="s">
         <v>497</v>
       </c>
@@ -9326,7 +9327,7 @@
       <c r="C719" s="2"/>
       <c r="D719" s="4"/>
     </row>
-    <row r="720" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+    <row r="720" spans="1:4" ht="62" x14ac:dyDescent="0.35">
       <c r="A720" s="3" t="s">
         <v>498</v>
       </c>
@@ -9336,7 +9337,7 @@
       <c r="C720" s="2"/>
       <c r="D720" s="2"/>
     </row>
-    <row r="721" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+    <row r="721" spans="1:4" ht="62" x14ac:dyDescent="0.35">
       <c r="A721" s="3" t="s">
         <v>499</v>
       </c>
@@ -9346,7 +9347,7 @@
       <c r="C721" s="2"/>
       <c r="D721" s="2"/>
     </row>
-    <row r="722" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="722" spans="1:4" ht="31" x14ac:dyDescent="0.35">
       <c r="A722" s="3" t="s">
         <v>500</v>
       </c>
@@ -9356,7 +9357,7 @@
       <c r="C722" s="2"/>
       <c r="D722" s="2"/>
     </row>
-    <row r="723" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="723" spans="1:4" ht="31" x14ac:dyDescent="0.35">
       <c r="A723" s="3" t="s">
         <v>501</v>
       </c>
@@ -9366,7 +9367,7 @@
       <c r="C723" s="2"/>
       <c r="D723" s="2"/>
     </row>
-    <row r="724" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+    <row r="724" spans="1:4" ht="62" x14ac:dyDescent="0.35">
       <c r="A724" s="3" t="s">
         <v>502</v>
       </c>
@@ -9376,7 +9377,7 @@
       <c r="C724" s="2"/>
       <c r="D724" s="2"/>
     </row>
-    <row r="725" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="725" spans="1:4" ht="31" x14ac:dyDescent="0.35">
       <c r="A725" s="3" t="s">
         <v>503</v>
       </c>
@@ -9386,7 +9387,7 @@
       <c r="C725" s="2"/>
       <c r="D725" s="2"/>
     </row>
-    <row r="726" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="726" spans="1:4" ht="31" x14ac:dyDescent="0.35">
       <c r="A726" s="3" t="s">
         <v>504</v>
       </c>
@@ -9396,7 +9397,7 @@
       <c r="C726" s="2"/>
       <c r="D726" s="2"/>
     </row>
-    <row r="727" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="727" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A727" s="3" t="s">
         <v>46</v>
       </c>
@@ -9406,7 +9407,7 @@
       <c r="C727" s="2"/>
       <c r="D727" s="2"/>
     </row>
-    <row r="728" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="728" spans="1:4" ht="31" x14ac:dyDescent="0.35">
       <c r="A728" s="3" t="s">
         <v>505</v>
       </c>
@@ -9416,7 +9417,7 @@
       <c r="C728" s="2"/>
       <c r="D728" s="2"/>
     </row>
-    <row r="729" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="729" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A729" s="3" t="s">
         <v>23</v>
       </c>
@@ -9424,7 +9425,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="730" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="730" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A730" s="3" t="s">
         <v>24</v>
       </c>
@@ -9432,7 +9433,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="731" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="731" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A731" s="3" t="s">
         <v>506</v>
       </c>
@@ -9440,7 +9441,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="732" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="732" spans="1:4" ht="62" x14ac:dyDescent="0.35">
       <c r="A732" s="3" t="s">
         <v>507</v>
       </c>
@@ -9450,7 +9451,7 @@
       <c r="C732" s="2"/>
       <c r="D732" s="2"/>
     </row>
-    <row r="733" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="733" spans="1:4" ht="31" x14ac:dyDescent="0.35">
       <c r="A733" s="3" t="s">
         <v>508</v>
       </c>
@@ -9460,7 +9461,7 @@
       <c r="C733" s="2"/>
       <c r="D733" s="2"/>
     </row>
-    <row r="734" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="734" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A734" s="3" t="s">
         <v>52</v>
       </c>
@@ -9468,7 +9469,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="735" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="735" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A735" s="3" t="s">
         <v>46</v>
       </c>
@@ -9476,7 +9477,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="736" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="736" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A736" s="3" t="s">
         <v>24</v>
       </c>
@@ -9484,12 +9485,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="737" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="737" spans="1:4" ht="31" x14ac:dyDescent="0.35">
       <c r="A737" s="3" t="s">
         <v>509</v>
       </c>
     </row>
-    <row r="738" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="738" spans="1:4" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A738" s="3" t="s">
         <v>510</v>
       </c>
@@ -9499,7 +9500,7 @@
       <c r="C738" s="2"/>
       <c r="D738" s="2"/>
     </row>
-    <row r="739" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="739" spans="1:4" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A739" s="3" t="s">
         <v>511</v>
       </c>
@@ -9509,7 +9510,7 @@
       <c r="C739" s="2"/>
       <c r="D739" s="4"/>
     </row>
-    <row r="740" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="740" spans="1:4" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A740" s="3" t="s">
         <v>512</v>
       </c>
@@ -9519,7 +9520,7 @@
       <c r="C740" s="2"/>
       <c r="D740" s="2"/>
     </row>
-    <row r="741" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="741" spans="1:4" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A741" s="3" t="s">
         <v>513</v>
       </c>
@@ -9529,7 +9530,7 @@
       <c r="C741" s="2"/>
       <c r="D741" s="2"/>
     </row>
-    <row r="742" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="742" spans="1:4" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A742" s="3" t="s">
         <v>514</v>
       </c>
@@ -9539,7 +9540,7 @@
       <c r="C742" s="2"/>
       <c r="D742" s="4"/>
     </row>
-    <row r="743" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="743" spans="1:4" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A743" s="3" t="s">
         <v>515</v>
       </c>
@@ -9549,7 +9550,7 @@
       <c r="C743" s="2"/>
       <c r="D743" s="2"/>
     </row>
-    <row r="744" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="744" spans="1:4" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A744" s="3" t="s">
         <v>516</v>
       </c>
@@ -9559,7 +9560,7 @@
       <c r="C744" s="2"/>
       <c r="D744" s="2"/>
     </row>
-    <row r="745" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="745" spans="1:4" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A745" s="3" t="s">
         <v>517</v>
       </c>
@@ -9569,7 +9570,7 @@
       <c r="C745" s="2"/>
       <c r="D745" s="2"/>
     </row>
-    <row r="746" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="746" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A746" s="3" t="s">
         <v>52</v>
       </c>
@@ -9577,7 +9578,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="747" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="747" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A747" s="3" t="s">
         <v>46</v>
       </c>
@@ -9585,7 +9586,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="748" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="748" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A748" s="3" t="s">
         <v>23</v>
       </c>
@@ -9593,7 +9594,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="749" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="749" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A749" s="3" t="s">
         <v>24</v>
       </c>
@@ -9601,7 +9602,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="750" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="750" spans="1:4" ht="31" x14ac:dyDescent="0.35">
       <c r="A750" s="2" t="s">
         <v>518</v>
       </c>
@@ -9611,7 +9612,7 @@
       <c r="C750" s="2"/>
       <c r="D750" s="2"/>
     </row>
-    <row r="751" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+    <row r="751" spans="1:4" ht="62" x14ac:dyDescent="0.35">
       <c r="A751" s="2" t="s">
         <v>519</v>
       </c>
@@ -9621,7 +9622,7 @@
       <c r="C751" s="2"/>
       <c r="D751" s="2"/>
     </row>
-    <row r="752" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+    <row r="752" spans="1:4" ht="62" x14ac:dyDescent="0.35">
       <c r="A752" s="2" t="s">
         <v>520</v>
       </c>
@@ -9631,7 +9632,7 @@
       <c r="C752" s="2"/>
       <c r="D752" s="2"/>
     </row>
-    <row r="753" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+    <row r="753" spans="1:4" ht="62" x14ac:dyDescent="0.35">
       <c r="A753" s="2" t="s">
         <v>521</v>
       </c>
@@ -9641,7 +9642,7 @@
       <c r="C753" s="2"/>
       <c r="D753" s="2"/>
     </row>
-    <row r="754" spans="1:4" ht="63" x14ac:dyDescent="0.25">
+    <row r="754" spans="1:4" ht="62" x14ac:dyDescent="0.35">
       <c r="A754" s="2" t="s">
         <v>522</v>
       </c>
@@ -9651,7 +9652,7 @@
       <c r="C754" s="2"/>
       <c r="D754" s="2"/>
     </row>
-    <row r="755" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="755" spans="1:4" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A755" s="2" t="s">
         <v>46</v>
       </c>
@@ -9661,7 +9662,7 @@
       <c r="C755" s="2"/>
       <c r="D755" s="2"/>
     </row>
-    <row r="756" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="756" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A756" s="2" t="s">
         <v>23</v>
       </c>
@@ -9671,7 +9672,7 @@
       <c r="C756" s="2"/>
       <c r="D756" s="2"/>
     </row>
-    <row r="757" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="757" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A757" s="2" t="s">
         <v>24</v>
       </c>
@@ -9681,18 +9682,18 @@
       <c r="C757" s="2"/>
       <c r="D757" s="2"/>
     </row>
-    <row r="759" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="759" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A759" s="1" t="s">
         <v>529</v>
       </c>
     </row>
-    <row r="760" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="760" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A760" s="3" t="s">
         <v>62</v>
       </c>
       <c r="C760" s="4"/>
     </row>
-    <row r="761" spans="1:4" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="761" spans="1:4" ht="77.5" x14ac:dyDescent="0.35">
       <c r="A761" s="3" t="s">
         <v>530</v>
       </c>
@@ -9706,7 +9707,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="762" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="762" spans="1:4" ht="31" x14ac:dyDescent="0.35">
       <c r="A762" s="3" t="s">
         <v>13</v>
       </c>
@@ -9718,7 +9719,7 @@
       </c>
       <c r="D762" s="2"/>
     </row>
-    <row r="763" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="763" spans="1:4" ht="31" x14ac:dyDescent="0.35">
       <c r="A763" s="3" t="s">
         <v>531</v>
       </c>
@@ -9728,7 +9729,7 @@
       </c>
       <c r="D763" s="2"/>
     </row>
-    <row r="764" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="764" spans="1:4" ht="31" x14ac:dyDescent="0.35">
       <c r="A764" s="3" t="s">
         <v>532</v>
       </c>
@@ -9738,7 +9739,7 @@
       </c>
       <c r="D764" s="2"/>
     </row>
-    <row r="765" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="765" spans="1:4" ht="31" x14ac:dyDescent="0.35">
       <c r="A765" s="3" t="s">
         <v>533</v>
       </c>
@@ -9748,7 +9749,7 @@
       </c>
       <c r="D765" s="2"/>
     </row>
-    <row r="766" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="766" spans="1:4" ht="31" x14ac:dyDescent="0.35">
       <c r="A766" s="3" t="s">
         <v>534</v>
       </c>
@@ -9758,7 +9759,7 @@
       </c>
       <c r="D766" s="2"/>
     </row>
-    <row r="767" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="767" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A767" s="3" t="s">
         <v>21</v>
       </c>
@@ -9768,7 +9769,7 @@
       </c>
       <c r="D767" s="2"/>
     </row>
-    <row r="768" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="768" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A768" s="3" t="s">
         <v>23</v>
       </c>
@@ -9778,7 +9779,7 @@
       </c>
       <c r="D768" s="2"/>
     </row>
-    <row r="769" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="769" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A769" s="3" t="s">
         <v>24</v>
       </c>
@@ -9788,7 +9789,7 @@
       </c>
       <c r="D769" s="2"/>
     </row>
-    <row r="770" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="770" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A770" s="3" t="s">
         <v>25</v>
       </c>
@@ -9796,7 +9797,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="771" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="771" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A771" s="3" t="s">
         <v>26</v>
       </c>
@@ -9804,7 +9805,7 @@
         <v>858</v>
       </c>
     </row>
-    <row r="772" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="772" spans="1:4" ht="31" x14ac:dyDescent="0.35">
       <c r="A772" s="3" t="s">
         <v>27</v>
       </c>
@@ -9814,7 +9815,7 @@
       <c r="C772" s="2"/>
       <c r="D772" s="2"/>
     </row>
-    <row r="773" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="773" spans="1:4" ht="31" x14ac:dyDescent="0.35">
       <c r="A773" s="3" t="s">
         <v>76</v>
       </c>
@@ -9824,7 +9825,7 @@
       <c r="C773" s="2"/>
       <c r="D773" s="2"/>
     </row>
-    <row r="774" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="774" spans="1:4" ht="31" x14ac:dyDescent="0.35">
       <c r="A774" s="3" t="s">
         <v>28</v>
       </c>
@@ -9834,7 +9835,7 @@
       <c r="C774" s="2"/>
       <c r="D774" s="4"/>
     </row>
-    <row r="775" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="775" spans="1:4" ht="31" x14ac:dyDescent="0.35">
       <c r="A775" s="3" t="s">
         <v>78</v>
       </c>
@@ -9844,7 +9845,7 @@
       <c r="C775" s="2"/>
       <c r="D775" s="4"/>
     </row>
-    <row r="776" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="776" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A776" s="3" t="s">
         <v>52</v>
       </c>
@@ -9853,7 +9854,7 @@
       </c>
       <c r="C776" s="2"/>
     </row>
-    <row r="777" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="777" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A777" s="3" t="s">
         <v>46</v>
       </c>
@@ -9862,7 +9863,7 @@
       </c>
       <c r="C777" s="2"/>
     </row>
-    <row r="778" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="778" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A778" s="3" t="s">
         <v>23</v>
       </c>
@@ -9871,7 +9872,7 @@
       </c>
       <c r="C778" s="2"/>
     </row>
-    <row r="779" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="779" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A779" s="3" t="s">
         <v>24</v>
       </c>
@@ -9880,7 +9881,7 @@
       </c>
       <c r="C779" s="2"/>
     </row>
-    <row r="780" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="780" spans="1:4" ht="31" x14ac:dyDescent="0.35">
       <c r="A780" s="3" t="s">
         <v>535</v>
       </c>
@@ -9889,7 +9890,7 @@
       </c>
       <c r="C780" s="2"/>
     </row>
-    <row r="781" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="781" spans="1:4" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A781" s="3" t="s">
         <v>536</v>
       </c>
@@ -9899,7 +9900,7 @@
       <c r="C781" s="2"/>
       <c r="D781" s="4"/>
     </row>
-    <row r="782" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="782" spans="1:4" ht="31" x14ac:dyDescent="0.35">
       <c r="A782" s="3" t="s">
         <v>537</v>
       </c>
@@ -9909,7 +9910,7 @@
       <c r="C782" s="2"/>
       <c r="D782" s="4"/>
     </row>
-    <row r="783" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="783" spans="1:4" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A783" s="3" t="s">
         <v>538</v>
       </c>
@@ -9919,7 +9920,7 @@
       <c r="C783" s="2"/>
       <c r="D783" s="4"/>
     </row>
-    <row r="784" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="784" spans="1:4" ht="31" x14ac:dyDescent="0.35">
       <c r="A784" s="3" t="s">
         <v>539</v>
       </c>
@@ -9929,7 +9930,7 @@
       <c r="C784" s="2"/>
       <c r="D784" s="4"/>
     </row>
-    <row r="785" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="785" spans="1:4" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A785" s="3" t="s">
         <v>540</v>
       </c>
@@ -9939,7 +9940,7 @@
       <c r="C785" s="2"/>
       <c r="D785" s="4"/>
     </row>
-    <row r="786" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="786" spans="1:4" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A786" s="3" t="s">
         <v>541</v>
       </c>
@@ -9949,7 +9950,7 @@
       <c r="C786" s="2"/>
       <c r="D786" s="4"/>
     </row>
-    <row r="787" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="787" spans="1:4" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A787" s="3" t="s">
         <v>542</v>
       </c>
@@ -9959,7 +9960,7 @@
       <c r="C787" s="2"/>
       <c r="D787" s="4"/>
     </row>
-    <row r="788" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="788" spans="1:4" ht="31" x14ac:dyDescent="0.35">
       <c r="A788" s="3" t="s">
         <v>543</v>
       </c>
@@ -9969,7 +9970,7 @@
       <c r="C788" s="2"/>
       <c r="D788" s="4"/>
     </row>
-    <row r="789" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="789" spans="1:4" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A789" s="3" t="s">
         <v>544</v>
       </c>
@@ -9979,7 +9980,7 @@
       <c r="C789" s="2"/>
       <c r="D789" s="4"/>
     </row>
-    <row r="790" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="790" spans="1:4" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A790" s="3" t="s">
         <v>545</v>
       </c>
@@ -9989,7 +9990,7 @@
       <c r="C790" s="2"/>
       <c r="D790" s="4"/>
     </row>
-    <row r="791" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="791" spans="1:4" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A791" s="3" t="s">
         <v>546</v>
       </c>
@@ -9999,7 +10000,7 @@
       <c r="C791" s="2"/>
       <c r="D791" s="4"/>
     </row>
-    <row r="792" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="792" spans="1:4" ht="31" x14ac:dyDescent="0.35">
       <c r="A792" s="3" t="s">
         <v>547</v>
       </c>
@@ -10009,7 +10010,7 @@
       <c r="C792" s="2"/>
       <c r="D792" s="4"/>
     </row>
-    <row r="793" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="793" spans="1:4" ht="31" x14ac:dyDescent="0.35">
       <c r="A793" s="3" t="s">
         <v>548</v>
       </c>
@@ -10019,7 +10020,7 @@
       <c r="C793" s="2"/>
       <c r="D793" s="4"/>
     </row>
-    <row r="794" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="794" spans="1:4" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A794" s="3" t="s">
         <v>549</v>
       </c>
@@ -10029,7 +10030,7 @@
       <c r="C794" s="2"/>
       <c r="D794" s="4"/>
     </row>
-    <row r="795" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="795" spans="1:4" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A795" s="3" t="s">
         <v>550</v>
       </c>
@@ -10039,7 +10040,7 @@
       <c r="C795" s="2"/>
       <c r="D795" s="4"/>
     </row>
-    <row r="796" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="796" spans="1:4" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A796" s="3" t="s">
         <v>551</v>
       </c>
@@ -10049,7 +10050,7 @@
       <c r="C796" s="2"/>
       <c r="D796" s="4"/>
     </row>
-    <row r="797" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="797" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A797" s="3" t="s">
         <v>46</v>
       </c>
@@ -10059,7 +10060,7 @@
       <c r="C797" s="2"/>
       <c r="D797" s="2"/>
     </row>
-    <row r="798" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="798" spans="1:4" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A798" s="3" t="s">
         <v>552</v>
       </c>
@@ -10069,7 +10070,7 @@
       <c r="C798" s="2"/>
       <c r="D798" s="4"/>
     </row>
-    <row r="799" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="799" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A799" s="3" t="s">
         <v>23</v>
       </c>
@@ -10077,7 +10078,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="800" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="800" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A800" s="3" t="s">
         <v>24</v>
       </c>
@@ -10085,7 +10086,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="801" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="801" spans="1:4" ht="31" x14ac:dyDescent="0.35">
       <c r="A801" s="3" t="s">
         <v>171</v>
       </c>
@@ -10093,7 +10094,7 @@
         <v>859</v>
       </c>
     </row>
-    <row r="802" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="802" spans="1:4" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A802" s="3" t="s">
         <v>88</v>
       </c>
@@ -10103,7 +10104,7 @@
       <c r="C802" s="2"/>
       <c r="D802" s="2"/>
     </row>
-    <row r="803" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="803" spans="1:4" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A803" s="3" t="s">
         <v>89</v>
       </c>
@@ -10113,7 +10114,7 @@
       <c r="C803" s="2"/>
       <c r="D803" s="2"/>
     </row>
-    <row r="804" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="804" spans="1:4" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A804" s="3" t="s">
         <v>172</v>
       </c>
@@ -10123,7 +10124,7 @@
       <c r="C804" s="2"/>
       <c r="D804" s="2"/>
     </row>
-    <row r="805" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="805" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A805" s="3" t="s">
         <v>46</v>
       </c>
@@ -10131,7 +10132,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="806" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="806" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A806" s="3" t="s">
         <v>553</v>
       </c>
@@ -10139,7 +10140,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="807" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="807" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A807" s="3" t="s">
         <v>173</v>
       </c>
@@ -10147,7 +10148,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="808" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="808" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A808" s="3" t="s">
         <v>88</v>
       </c>
@@ -10155,7 +10156,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="809" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="809" spans="1:4" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A809" s="3" t="s">
         <v>174</v>
       </c>
@@ -10165,7 +10166,7 @@
       <c r="C809" s="2"/>
       <c r="D809" s="4"/>
     </row>
-    <row r="810" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="810" spans="1:4" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A810" s="3" t="s">
         <v>175</v>
       </c>
@@ -10175,7 +10176,7 @@
       <c r="C810" s="2"/>
       <c r="D810" s="4"/>
     </row>
-    <row r="811" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="811" spans="1:4" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A811" s="3" t="s">
         <v>176</v>
       </c>
@@ -10185,7 +10186,7 @@
       <c r="C811" s="2"/>
       <c r="D811" s="4"/>
     </row>
-    <row r="812" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="812" spans="1:4" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A812" s="3" t="s">
         <v>177</v>
       </c>
@@ -10195,7 +10196,7 @@
       <c r="C812" s="2"/>
       <c r="D812" s="4"/>
     </row>
-    <row r="813" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="813" spans="1:4" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A813" s="3" t="s">
         <v>178</v>
       </c>
@@ -10205,7 +10206,7 @@
       <c r="C813" s="2"/>
       <c r="D813" s="4"/>
     </row>
-    <row r="814" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="814" spans="1:4" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A814" s="3" t="s">
         <v>179</v>
       </c>
@@ -10215,7 +10216,7 @@
       <c r="C814" s="2"/>
       <c r="D814" s="4"/>
     </row>
-    <row r="815" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="815" spans="1:4" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A815" s="3" t="s">
         <v>180</v>
       </c>
@@ -10225,7 +10226,7 @@
       <c r="C815" s="2"/>
       <c r="D815" s="4"/>
     </row>
-    <row r="816" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="816" spans="1:4" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A816" s="3" t="s">
         <v>181</v>
       </c>
@@ -10235,7 +10236,7 @@
       <c r="C816" s="2"/>
       <c r="D816" s="4"/>
     </row>
-    <row r="817" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="817" spans="1:4" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A817" s="3" t="s">
         <v>182</v>
       </c>
@@ -10245,7 +10246,7 @@
       <c r="C817" s="2"/>
       <c r="D817" s="4"/>
     </row>
-    <row r="818" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="818" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A818" s="3" t="s">
         <v>46</v>
       </c>
@@ -10253,7 +10254,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="819" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="819" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A819" s="3" t="s">
         <v>23</v>
       </c>
@@ -10261,7 +10262,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="820" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="820" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A820" s="3" t="s">
         <v>24</v>
       </c>
@@ -10269,7 +10270,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="821" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="821" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A821" s="3" t="s">
         <v>183</v>
       </c>
@@ -10281,7 +10282,7 @@
       </c>
       <c r="D821" s="2"/>
     </row>
-    <row r="822" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="822" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A822" s="3" t="s">
         <v>216</v>
       </c>
@@ -10291,7 +10292,7 @@
       </c>
       <c r="D822" s="2"/>
     </row>
-    <row r="823" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="823" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A823" s="3" t="s">
         <v>475</v>
       </c>
@@ -10301,7 +10302,7 @@
       </c>
       <c r="D823" s="2"/>
     </row>
-    <row r="824" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="824" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A824" s="3" t="s">
         <v>476</v>
       </c>
@@ -10311,7 +10312,7 @@
       </c>
       <c r="D824" s="2"/>
     </row>
-    <row r="825" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="825" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A825" s="3" t="s">
         <v>477</v>
       </c>
@@ -10321,7 +10322,7 @@
       </c>
       <c r="D825" s="2"/>
     </row>
-    <row r="826" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="826" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A826" s="3" t="s">
         <v>554</v>
       </c>
@@ -10331,7 +10332,7 @@
       </c>
       <c r="D826" s="2"/>
     </row>
-    <row r="827" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="827" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A827" s="3" t="s">
         <v>555</v>
       </c>
@@ -10341,7 +10342,7 @@
       </c>
       <c r="D827" s="2"/>
     </row>
-    <row r="828" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="828" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A828" s="3" t="s">
         <v>46</v>
       </c>
@@ -10351,7 +10352,7 @@
       </c>
       <c r="D828" s="2"/>
     </row>
-    <row r="829" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="829" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A829" s="3" t="s">
         <v>23</v>
       </c>
@@ -10361,7 +10362,7 @@
       </c>
       <c r="D829" s="2"/>
     </row>
-    <row r="830" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="830" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A830" s="3" t="s">
         <v>24</v>
       </c>
@@ -10371,7 +10372,7 @@
       </c>
       <c r="D830" s="2"/>
     </row>
-    <row r="831" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="831" spans="1:4" ht="31" x14ac:dyDescent="0.35">
       <c r="A831" s="3" t="s">
         <v>293</v>
       </c>
@@ -10379,7 +10380,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="832" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="832" spans="1:4" ht="31" x14ac:dyDescent="0.35">
       <c r="A832" s="3" t="s">
         <v>294</v>
       </c>
@@ -10389,7 +10390,7 @@
       <c r="C832" s="2"/>
       <c r="D832" s="2"/>
     </row>
-    <row r="833" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="833" spans="1:4" ht="31" x14ac:dyDescent="0.35">
       <c r="A833" s="3" t="s">
         <v>295</v>
       </c>
@@ -10399,7 +10400,7 @@
       <c r="C833" s="2"/>
       <c r="D833" s="2"/>
     </row>
-    <row r="834" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="834" spans="1:4" ht="31" x14ac:dyDescent="0.35">
       <c r="A834" s="3" t="s">
         <v>296</v>
       </c>
@@ -10409,7 +10410,7 @@
       <c r="C834" s="2"/>
       <c r="D834" s="2"/>
     </row>
-    <row r="835" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="835" spans="1:4" ht="31" x14ac:dyDescent="0.35">
       <c r="A835" s="3" t="s">
         <v>297</v>
       </c>
@@ -10419,13 +10420,13 @@
       <c r="C835" s="2"/>
       <c r="D835" s="2"/>
     </row>
-    <row r="836" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="836" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A836" s="3" t="s">
         <v>52</v>
       </c>
       <c r="B836" s="4"/>
     </row>
-    <row r="837" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="837" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A837" s="3" t="s">
         <v>46</v>
       </c>
@@ -10433,7 +10434,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="838" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="838" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A838" s="3" t="s">
         <v>23</v>
       </c>
@@ -10441,7 +10442,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="839" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="839" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A839" s="3" t="s">
         <v>24</v>
       </c>
@@ -10449,7 +10450,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="842" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="842" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A842" s="1" t="s">
         <v>356</v>
       </c>
@@ -10457,542 +10458,542 @@
         <v>559</v>
       </c>
     </row>
-    <row r="843" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="843" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A843" s="3" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="844" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="844" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A844" s="3" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="845" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="845" spans="1:4" ht="31" x14ac:dyDescent="0.35">
       <c r="A845" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="846" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="846" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A846" s="3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="847" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="847" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A847" s="3" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="848" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="848" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A848" s="3" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="849" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="849" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A849" s="3" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="850" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="850" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A850" s="3" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="851" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="851" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A851" s="3" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="852" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="852" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A852" s="3" t="s">
         <v>360</v>
       </c>
     </row>
-    <row r="853" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="853" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A853" s="3" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="854" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="854" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A854" s="3" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="855" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="855" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A855" s="3" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="856" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="856" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A856" s="3" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="857" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="857" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A857" s="3" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="858" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="858" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A858" s="3" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="859" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="859" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A859" s="3" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="860" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="860" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A860" s="3" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="861" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="861" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A861" s="3" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="862" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="862" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A862" s="3" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="863" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="863" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A863" s="3" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="864" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="864" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A864" s="3" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="865" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="865" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A865" s="3" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="866" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="866" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A866" s="3" t="s">
         <v>367</v>
       </c>
     </row>
-    <row r="867" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="867" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A867" s="3" t="s">
         <v>368</v>
       </c>
     </row>
-    <row r="868" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="868" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A868" s="3" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="869" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="869" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A869" s="3" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="870" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="870" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A870" s="3" t="s">
         <v>371</v>
       </c>
     </row>
-    <row r="871" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="871" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A871" s="3" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="872" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="872" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A872" s="3" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="873" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="873" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A873" s="3" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="874" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="874" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A874" s="3" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="875" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="875" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A875" s="3" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="876" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="876" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A876" s="3" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="877" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="877" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A877" s="3" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="878" spans="1:1" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="878" spans="1:1" ht="31" x14ac:dyDescent="0.35">
       <c r="A878" s="3" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="879" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="879" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A879" s="3" t="s">
         <v>377</v>
       </c>
     </row>
-    <row r="880" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="880" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A880" s="3" t="s">
         <v>378</v>
       </c>
     </row>
-    <row r="881" spans="1:1" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="881" spans="1:1" ht="31" x14ac:dyDescent="0.35">
       <c r="A881" s="3" t="s">
         <v>379</v>
       </c>
     </row>
-    <row r="882" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="882" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A882" s="3" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="883" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="883" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A883" s="3" t="s">
         <v>381</v>
       </c>
     </row>
-    <row r="884" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="884" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A884" s="3" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="885" spans="1:1" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="885" spans="1:1" ht="31" x14ac:dyDescent="0.35">
       <c r="A885" s="3" t="s">
         <v>383</v>
       </c>
     </row>
-    <row r="886" spans="1:1" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="886" spans="1:1" ht="31" x14ac:dyDescent="0.35">
       <c r="A886" s="3" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="887" spans="1:1" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="887" spans="1:1" ht="31" x14ac:dyDescent="0.35">
       <c r="A887" s="3" t="s">
         <v>385</v>
       </c>
     </row>
-    <row r="888" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="888" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A888" s="3" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="889" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="889" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A889" s="3" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="890" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="890" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A890" s="3" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="891" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="891" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A891" s="3" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="892" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="892" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A892" s="3" t="s">
         <v>386</v>
       </c>
     </row>
-    <row r="893" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="893" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A893" s="3" t="s">
         <v>387</v>
       </c>
     </row>
-    <row r="894" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="894" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A894" s="3" t="s">
         <v>388</v>
       </c>
     </row>
-    <row r="895" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="895" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A895" s="3" t="s">
         <v>389</v>
       </c>
     </row>
-    <row r="896" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="896" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A896" s="3" t="s">
         <v>390</v>
       </c>
     </row>
-    <row r="897" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="897" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A897" s="3" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="898" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="898" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A898" s="3" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="899" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="899" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A899" s="3" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="900" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="900" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A900" s="3" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="901" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="901" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A901" s="3" t="s">
         <v>391</v>
       </c>
     </row>
-    <row r="902" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="902" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A902" s="3" t="s">
         <v>392</v>
       </c>
     </row>
-    <row r="903" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="903" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A903" s="3" t="s">
         <v>393</v>
       </c>
     </row>
-    <row r="904" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="904" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A904" s="3" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="905" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="905" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A905" s="3" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="906" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="906" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A906" s="3" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="907" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="907" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A907" s="3" t="s">
         <v>394</v>
       </c>
     </row>
-    <row r="908" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="908" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A908" s="3" t="s">
         <v>395</v>
       </c>
     </row>
-    <row r="909" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="909" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A909" s="3" t="s">
         <v>396</v>
       </c>
     </row>
-    <row r="910" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="910" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A910" s="3" t="s">
         <v>397</v>
       </c>
     </row>
-    <row r="911" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="911" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A911" s="3" t="s">
         <v>398</v>
       </c>
     </row>
-    <row r="912" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="912" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A912" s="3" t="s">
         <v>399</v>
       </c>
     </row>
-    <row r="913" spans="1:1" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="913" spans="1:1" ht="31" x14ac:dyDescent="0.35">
       <c r="A913" s="3" t="s">
         <v>400</v>
       </c>
     </row>
-    <row r="914" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="914" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A914" s="3" t="s">
         <v>401</v>
       </c>
     </row>
-    <row r="915" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="915" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A915" s="3" t="s">
         <v>402</v>
       </c>
     </row>
-    <row r="916" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="916" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A916" s="3" t="s">
         <v>403</v>
       </c>
     </row>
-    <row r="917" spans="1:1" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="917" spans="1:1" ht="31" x14ac:dyDescent="0.35">
       <c r="A917" s="3" t="s">
         <v>404</v>
       </c>
     </row>
-    <row r="918" spans="1:1" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="918" spans="1:1" ht="31" x14ac:dyDescent="0.35">
       <c r="A918" s="3" t="s">
         <v>405</v>
       </c>
     </row>
-    <row r="919" spans="1:1" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="919" spans="1:1" ht="31" x14ac:dyDescent="0.35">
       <c r="A919" s="3" t="s">
         <v>406</v>
       </c>
     </row>
-    <row r="920" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="920" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A920" s="3" t="s">
         <v>407</v>
       </c>
     </row>
-    <row r="921" spans="1:1" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="921" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A921" s="3" t="s">
         <v>408</v>
       </c>
     </row>
-    <row r="922" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="922" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A922" s="3" t="s">
         <v>409</v>
       </c>
     </row>
-    <row r="923" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="923" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A923" s="3" t="s">
         <v>410</v>
       </c>
     </row>
-    <row r="924" spans="1:1" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="924" spans="1:1" ht="31" x14ac:dyDescent="0.35">
       <c r="A924" s="3" t="s">
         <v>411</v>
       </c>
     </row>
-    <row r="925" spans="1:1" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="925" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A925" s="3" t="s">
         <v>412</v>
       </c>
     </row>
-    <row r="926" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="926" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A926" s="3" t="s">
         <v>413</v>
       </c>
     </row>
-    <row r="927" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="927" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A927" s="3" t="s">
         <v>414</v>
       </c>
     </row>
-    <row r="928" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="928" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A928" s="3" t="s">
         <v>415</v>
       </c>
     </row>
-    <row r="929" spans="1:1" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="929" spans="1:1" ht="31" x14ac:dyDescent="0.35">
       <c r="A929" s="3" t="s">
         <v>416</v>
       </c>
     </row>
-    <row r="930" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="930" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A930" s="3" t="s">
         <v>417</v>
       </c>
     </row>
-    <row r="931" spans="1:1" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="931" spans="1:1" ht="31" x14ac:dyDescent="0.35">
       <c r="A931" s="3" t="s">
         <v>418</v>
       </c>
     </row>
-    <row r="932" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="932" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A932" s="3" t="s">
         <v>419</v>
       </c>
     </row>
-    <row r="933" spans="1:1" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="933" spans="1:1" ht="31" x14ac:dyDescent="0.35">
       <c r="A933" s="3" t="s">
         <v>420</v>
       </c>
     </row>
-    <row r="934" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="934" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A934" s="3" t="s">
         <v>421</v>
       </c>
     </row>
-    <row r="935" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="935" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A935" s="3" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="936" spans="1:1" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="936" spans="1:1" ht="31" x14ac:dyDescent="0.35">
       <c r="A936" s="3" t="s">
         <v>423</v>
       </c>
     </row>
-    <row r="937" spans="1:1" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="937" spans="1:1" ht="31" x14ac:dyDescent="0.35">
       <c r="A937" s="3" t="s">
         <v>424</v>
       </c>
     </row>
-    <row r="938" spans="1:1" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="938" spans="1:1" ht="31" x14ac:dyDescent="0.35">
       <c r="A938" s="3" t="s">
         <v>425</v>
       </c>
     </row>
-    <row r="939" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="939" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A939" s="3" t="s">
         <v>426</v>
       </c>
     </row>
-    <row r="940" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="940" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A940" s="3" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="941" spans="1:1" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="941" spans="1:1" ht="31" x14ac:dyDescent="0.35">
       <c r="A941" s="3" t="s">
         <v>428</v>
       </c>
     </row>
-    <row r="942" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="942" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A942" s="3" t="s">
         <v>429</v>
       </c>
     </row>
-    <row r="943" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="943" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A943" s="3" t="s">
         <v>430</v>
       </c>
     </row>
-    <row r="944" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="944" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A944" s="3" t="s">
         <v>431</v>
       </c>
     </row>
-    <row r="945" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="945" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A945" s="3" t="s">
         <v>432</v>
       </c>
     </row>
-    <row r="946" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="946" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A946" s="3" t="s">
         <v>433</v>
       </c>
     </row>
-    <row r="947" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="947" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A947" s="3" t="s">
         <v>434</v>
       </c>
     </row>
-    <row r="948" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="948" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A948" s="3" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="949" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="949" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A949" s="3" t="s">
         <v>436</v>
       </c>
     </row>
-    <row r="951" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="951" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A951" s="1" t="s">
         <v>121</v>
       </c>
@@ -11000,282 +11001,282 @@
         <v>559</v>
       </c>
     </row>
-    <row r="952" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="952" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A952" s="3" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="953" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="953" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A953" s="3" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="954" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="954" spans="1:2" ht="31" x14ac:dyDescent="0.35">
       <c r="A954" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="955" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="955" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A955" s="3" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="956" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="956" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A956" s="3" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="957" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="957" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A957" s="3" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="958" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="958" spans="1:2" ht="31" x14ac:dyDescent="0.35">
       <c r="A958" s="3" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="959" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="959" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A959" s="3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="960" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="960" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A960" s="3" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="961" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="961" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A961" s="3" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="962" spans="1:1" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="962" spans="1:1" ht="31" x14ac:dyDescent="0.35">
       <c r="A962" s="3" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="963" spans="1:1" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="963" spans="1:1" ht="31" x14ac:dyDescent="0.35">
       <c r="A963" s="3" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="964" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="964" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A964" s="3" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="965" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="965" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A965" s="3" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="966" spans="1:1" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="966" spans="1:1" ht="31" x14ac:dyDescent="0.35">
       <c r="A966" s="3" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="967" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="967" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A967" s="3" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="968" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="968" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A968" s="3" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="969" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="969" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A969" s="3" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="970" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="970" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A970" s="3" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="971" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="971" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A971" s="3" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="972" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="972" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A972" s="3" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="973" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="973" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A973" s="3" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="974" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="974" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A974" s="3" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="975" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="975" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A975" s="3" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="976" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="976" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A976" s="3" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="977" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="977" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A977" s="3" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="978" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="978" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A978" s="3" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="979" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="979" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A979" s="3" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="980" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="980" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A980" s="3" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="981" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="981" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A981" s="3" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="982" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="982" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A982" s="3" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="983" spans="1:1" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="983" spans="1:1" ht="31" x14ac:dyDescent="0.35">
       <c r="A983" s="3" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="984" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="984" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A984" s="3" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="985" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="985" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A985" s="3" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="986" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="986" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A986" s="3" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="987" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="987" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A987" s="3" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="988" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="988" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A988" s="3" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="989" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="989" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A989" s="3" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="990" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="990" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A990" s="3" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="991" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="991" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A991" s="3" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="992" spans="1:1" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="992" spans="1:1" ht="31" x14ac:dyDescent="0.35">
       <c r="A992" s="3" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="993" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="993" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A993" s="3" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="994" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="994" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A994" s="3" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="995" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="995" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A995" s="3" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="996" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="996" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A996" s="3" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="997" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="997" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A997" s="3" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="998" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="998" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A998" s="3" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="999" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="999" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A999" s="3" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="1000" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="1000" spans="1:2" ht="31" x14ac:dyDescent="0.35">
       <c r="A1000" s="3" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="1001" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1001" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1001" s="3" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="1002" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="1002" spans="1:2" ht="31" x14ac:dyDescent="0.35">
       <c r="A1002" s="3" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="1003" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1003" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1003" s="3" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="1004" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1004" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1004" s="3" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="1005" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1005" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1005" s="3" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="1006" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1006" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1006" s="3" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="1008" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1008" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1008" s="1" t="s">
         <v>352</v>
       </c>
@@ -11283,32 +11284,32 @@
         <v>559</v>
       </c>
     </row>
-    <row r="1009" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1009" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1009" s="3" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="1010" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1010" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1010" s="3" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="1011" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="1011" spans="1:2" ht="31" x14ac:dyDescent="0.35">
       <c r="A1011" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="1012" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1012" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1012" s="3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="1013" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1013" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1013" s="3" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="1015" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1015" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1015" s="1" t="s">
         <v>354</v>
       </c>
@@ -11316,37 +11317,37 @@
         <v>559</v>
       </c>
     </row>
-    <row r="1016" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1016" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1016" s="3" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="1017" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1017" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1017" s="3" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="1018" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="1018" spans="1:2" ht="31" x14ac:dyDescent="0.35">
       <c r="A1018" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="1019" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1019" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1019" s="3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="1020" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1020" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1020" s="3" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="1022" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1022" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1022" s="1" t="s">
         <v>523</v>
       </c>
     </row>
-    <row r="1023" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1023" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1023" s="3" t="s">
         <v>62</v>
       </c>
@@ -11354,52 +11355,52 @@
         <v>559</v>
       </c>
     </row>
-    <row r="1024" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1024" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1024" s="3" t="s">
         <v>524</v>
       </c>
     </row>
-    <row r="1025" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="1025" spans="1:2" ht="31" x14ac:dyDescent="0.35">
       <c r="A1025" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="1026" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1026" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1026" s="3" t="s">
         <v>525</v>
       </c>
     </row>
-    <row r="1027" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1027" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1027" s="3" t="s">
         <v>526</v>
       </c>
     </row>
-    <row r="1028" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1028" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1028" s="3" t="s">
         <v>527</v>
       </c>
     </row>
-    <row r="1029" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="1029" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1029" s="3" t="s">
         <v>528</v>
       </c>
     </row>
-    <row r="1030" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1030" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1030" s="3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="1031" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1031" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1031" s="3" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="1032" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1032" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1032" s="3" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="1034" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1034" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1034" s="1" t="s">
         <v>556</v>
       </c>
@@ -11407,37 +11408,37 @@
         <v>559</v>
       </c>
     </row>
-    <row r="1035" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1035" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1035" s="3" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="1036" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1036" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1036" s="3" t="s">
         <v>557</v>
       </c>
     </row>
-    <row r="1037" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="1037" spans="1:2" ht="31" x14ac:dyDescent="0.35">
       <c r="A1037" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="1038" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="1038" spans="1:2" ht="31" x14ac:dyDescent="0.35">
       <c r="A1038" s="3" t="s">
         <v>558</v>
       </c>
     </row>
-    <row r="1039" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1039" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1039" s="3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="1040" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1040" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1040" s="3" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="1041" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1041" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1041" s="3" t="s">
         <v>24</v>
       </c>
